--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -205,6 +205,24 @@
   </si>
   <si>
     <t>Übertrag aus 2019</t>
+  </si>
+  <si>
+    <t>EnBW Abschlag Strom</t>
+  </si>
+  <si>
+    <t>Auszahlung in Barkasse</t>
+  </si>
+  <si>
+    <t>DRK Jubiläum</t>
+  </si>
+  <si>
+    <t>Wabu Abschlag Wasser</t>
+  </si>
+  <si>
+    <t>Miete Jan</t>
+  </si>
+  <si>
+    <t>Essen Vorstände</t>
   </si>
 </sst>
 </file>
@@ -909,7 +927,57 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="316">
+  <dxfs count="326">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4974,17 +5042,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5082,17 +5150,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="15">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6216,8 +6284,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6293,24 +6361,42 @@
         <v>58</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="E3" s="12">
+        <v>16.729999999999563</v>
+      </c>
+      <c r="F3" s="13">
+        <v>11461.650000000009</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2000.5</v>
+      </c>
+      <c r="H3" s="13">
+        <v>575.29</v>
+      </c>
+      <c r="I3" s="14">
+        <v>949.21</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="15">
+        <v>43837</v>
+      </c>
       <c r="B4" s="61">
         <v>1</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="20">
+        <v>400</v>
+      </c>
       <c r="F4" s="21"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -7851,23 +7937,23 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>0</v>
+        <v>416.72999999999956</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>0</v>
+        <v>11461.650000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
-        <v>0</v>
+        <v>2000.5</v>
       </c>
       <c r="H105" s="28">
         <f>SUM(H3:H104)</f>
-        <v>0</v>
+        <v>575.29</v>
       </c>
       <c r="I105" s="29">
         <f>SUM(I3:I104)</f>
-        <v>0</v>
+        <v>949.21</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -7894,23 +7980,23 @@
       <c r="D107" s="53"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>0</v>
+        <v>66.729999999999563</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>0</v>
+        <v>10591.650000000009</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
-        <v>0</v>
+        <v>2000.5</v>
       </c>
       <c r="H107" s="28">
         <f>H105+Ausgaben!I170</f>
-        <v>0</v>
+        <v>575.29</v>
       </c>
       <c r="I107" s="29">
         <f>I105+Ausgaben!J170</f>
-        <v>0</v>
+        <v>949.21</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -7936,7 +8022,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>0</v>
+        <v>14183.380000000008</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8737,641 +8823,641 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98">
-    <cfRule type="cellIs" dxfId="315" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="314" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="313" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="312" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="311" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="310" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="309" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="316" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="cellIs" dxfId="315" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="314" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="313" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="312" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="311" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="310" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="309" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="308" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="307" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="306" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="305" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="304" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="303" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="302" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="301" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="300" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="299" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="298" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="297" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="296" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="295" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="294" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="293" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="292" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="291" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="290" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="289" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="288" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="287" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="286" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="285" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="284" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="283" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="282" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="281" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="280" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="279" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="278" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="277" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="276" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="275" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="274" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="273" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="272" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="271" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="270" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="269" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="268" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="267" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="266" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="265" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="264" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="263" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="262" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="261" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="260" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="259" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="258" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="257" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="256" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="255" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="254" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="253" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="252" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="251" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="250" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="249" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="248" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="247" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="246" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="245" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="244" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="243" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="242" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="241" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="240" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="239" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="238" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="237" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="236" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:E69">
+    <cfRule type="cellIs" dxfId="235" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="234" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="233" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="232" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="231" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="230" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="229" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="228" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="227" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="226" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="225" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="224" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="223" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="222" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="221" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="cellIs" dxfId="220" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="219" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="218" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="217" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="216" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="215" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="214" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="213" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="212" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="211" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="210" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:E90">
+    <cfRule type="cellIs" dxfId="209" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:D92">
+    <cfRule type="cellIs" dxfId="208" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="cellIs" dxfId="207" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="206" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="cellIs" dxfId="205" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:E96">
+    <cfRule type="cellIs" dxfId="204" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="203" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="202" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:D98">
+    <cfRule type="cellIs" dxfId="201" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="308" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="307" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="306" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="305" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="304" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="303" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="302" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="301" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="300" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="299" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="298" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="297" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="296" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="295" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="294" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="293" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="292" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="291" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="290" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="289" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="288" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="287" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="286" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="285" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="284" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="283" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="282" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="281" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="280" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="279" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="278" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="277" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="276" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="275" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="274" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="273" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="272" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="271" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="270" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="269" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="268" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="267" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="266" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="265" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="264" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="263" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="262" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="261" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="260" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="259" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="258" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="257" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="256" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="255" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="254" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="253" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="252" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="251" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="250" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="249" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="248" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="247" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="246" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="245" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="244" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="243" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="242" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="241" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="240" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="239" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="238" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="237" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="236" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="235" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="234" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="233" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="232" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="231" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="230" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="229" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="228" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="227" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="226" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="225" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="224" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="223" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="222" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="221" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="220" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="219" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="218" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="217" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="216" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="215" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="214" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="213" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="212" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="211" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="210" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="209" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="208" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="207" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="206" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="205" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="204" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="203" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="202" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="201" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="200" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="199" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="198" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="197" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="196" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="195" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="194" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="193" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="192" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="191" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D4:D6 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61 D67 D71:D72 D83:D88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61 D67 D71:D72 D6">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D3 D25:D31 D14 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D25:D31 D14 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98 D4">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -9395,8 +9481,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:J166"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9472,14 +9558,22 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="15">
+        <v>43833</v>
+      </c>
       <c r="C3" s="61">
         <v>1</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="G3" s="21">
+        <v>-42</v>
+      </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
@@ -9491,14 +9585,22 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="15">
+        <v>43833</v>
+      </c>
       <c r="C4" s="61">
         <v>2</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="21">
+        <v>-160</v>
+      </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="22"/>
@@ -9510,14 +9612,22 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
-      <c r="B5" s="43"/>
+      <c r="B5" s="43">
+        <v>43837</v>
+      </c>
       <c r="C5" s="61">
         <v>3</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="D5" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="21">
+        <v>-400</v>
+      </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
@@ -9529,14 +9639,22 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="43">
+        <v>43837</v>
+      </c>
       <c r="C6" s="61">
         <v>4</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="41"/>
+      <c r="D6" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="21">
+        <v>-225</v>
+      </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
@@ -9548,14 +9666,22 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="43">
+        <v>43837</v>
+      </c>
       <c r="C7" s="61">
         <v>5</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21">
+        <v>-31</v>
+      </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
@@ -9567,14 +9693,22 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="43">
+        <v>43837</v>
+      </c>
       <c r="C8" s="61">
         <v>6</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="21">
+        <v>-12</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
@@ -9586,13 +9720,21 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
-      <c r="B9" s="43"/>
+      <c r="B9" s="43">
+        <v>43835</v>
+      </c>
       <c r="C9" s="61">
         <v>7</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="21">
+        <v>-350</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -38345,11 +38487,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>0</v>
+        <v>-870</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40282,938 +40424,938 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 A85:A235 C110:D110 D126:E126 B127 C123:D123 E11 E17 E26 E42 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163">
-    <cfRule type="cellIs" dxfId="190" priority="286" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="189" priority="276" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="188" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="187" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="186" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="199" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="cellIs" dxfId="193" priority="196" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="192" priority="192" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="191" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="190" priority="189" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="189" priority="188" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="188" priority="187" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="187" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="186" priority="185" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="185" priority="184" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="184" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="183" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="182" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="181" priority="180" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="180" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="179" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="178" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="177" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="176" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="175" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="174" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="173" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="172" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="171" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="170" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="169" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="168" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="167" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="166" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="165" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="164" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="163" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="162" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="161" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="160" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="159" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="158" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="157" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="156" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="155" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="154" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="153" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="152" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="151" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="150" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="149" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="148" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="147" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="146" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="145" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="144" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="143" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="142" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="141" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="140" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="139" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="138" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="137" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="136" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="135" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="134" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="133" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="132" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="131" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="130" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="129" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="128" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="127" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="126" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="125" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="124" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="123" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="122" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="121" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="120" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="119" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="118" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="117" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="116" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="115" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="114" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="113" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="112" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="111" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="110" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="109" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="108" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="107" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="106" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="105" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="104" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="103" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="102" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="101" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="100" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="99" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="98" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="97" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="96" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="95" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="94" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="93" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="92" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="91" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="90" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="89" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="88" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="85" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="84" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="82" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="81" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="80" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="79" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="78" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="76" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="75" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="74" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="73" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="72" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="71" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="70" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="69" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="68" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="66" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="65" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="64" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="63" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="62" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="61" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="60" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="56" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="50" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="49" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="48" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="47" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="45" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="44" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="42" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="41" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="40" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="39" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="38" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="37" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="36" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="35" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="34" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="33" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="32" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="31" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="29" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="28" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="25" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="22" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="185" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="184" priority="191" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="183" priority="194" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="182" priority="190" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="181" priority="188" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="180" priority="187" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="179" priority="186" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="178" priority="185" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="177" priority="184" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="176" priority="183" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="175" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="174" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="173" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="172" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="171" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="170" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="169" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="168" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="167" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="166" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="165" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="164" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="163" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="162" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="161" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="160" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="159" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="158" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="157" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="156" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="155" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="154" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="153" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="152" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="151" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="150" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="149" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="148" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="147" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="146" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="145" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="144" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="143" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="142" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="141" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="140" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="139" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="138" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="137" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="136" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="135" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="134" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="133" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="132" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="131" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="130" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="129" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="128" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="127" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="126" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="125" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="124" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="123" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="122" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="121" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="120" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="119" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="118" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="117" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="116" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="115" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="114" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="113" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="112" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="111" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="109" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="108" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="107" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="106" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="105" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="104" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="103" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="101" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="100" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="99" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="98" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="97" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="96" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="95" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="94" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="93" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="92" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="90" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="89" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="87" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="86" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="84" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="82" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="81" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="80" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="74" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="73" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="72" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="70" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="67" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="65" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="53" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="43" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="41" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="40" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="39" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="37" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="36" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="34" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="33" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="31" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E3:E7 E9:E42 E44:E73 E75:E86 E90:E94 E96:E105 E107:E111 E122:E130 E132:E138 E144:E169">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E144:E169 E9:E42 E44:E73 E75:E86 E90:E94 E96:E105 E107:E111 E122:E130 E132:E138 E5:E7">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89 E106 E112:E113 E139:E143">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E3:E4">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>Essen Vorstände</t>
+  </si>
+  <si>
+    <t>GEZ</t>
+  </si>
+  <si>
+    <t>Ordner</t>
+  </si>
+  <si>
+    <t>Gema Jubiläum</t>
   </si>
 </sst>
 </file>
@@ -927,57 +936,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="326">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="316">
     <dxf>
       <border>
         <left style="thin">
@@ -5042,17 +5001,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5150,17 +5109,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="15">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6283,8 +6242,8 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
@@ -7980,11 +7939,11 @@
       <c r="D107" s="53"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>66.729999999999563</v>
+        <v>61.829999999999586</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>10591.650000000009</v>
+        <v>10487.640000000009</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8022,7 +7981,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>14183.380000000008</v>
+        <v>14074.470000000008</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8823,627 +8782,627 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98">
-    <cfRule type="cellIs" dxfId="325" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="324" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="323" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="322" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="321" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="320" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="319" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="316" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="315" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="314" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="313" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="312" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="311" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="310" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="309" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="308" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="307" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="306" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="305" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="304" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="303" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="302" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="301" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="300" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="299" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="298" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="297" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="296" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="295" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="294" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="293" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="292" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="291" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="290" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="289" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="288" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="287" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="286" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="285" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="284" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="283" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="282" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="281" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="280" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="279" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="278" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="277" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="276" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="275" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="274" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="273" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="272" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="271" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="270" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="269" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="268" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="267" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="266" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="265" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="264" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="263" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="262" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="261" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="260" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="259" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="258" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="257" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="256" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="255" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="254" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="253" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="252" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="251" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="250" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="249" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="248" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="247" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="246" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="245" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="244" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="243" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="242" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="241" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="240" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="239" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="238" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="237" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="236" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="235" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="234" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="233" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="232" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="231" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="230" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="229" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="228" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="227" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="226" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="225" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="224" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="223" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="222" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="221" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="220" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="219" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="218" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="217" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="216" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="215" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="214" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="213" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="212" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="211" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="210" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="209" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="208" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="207" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="206" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="205" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="204" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="203" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="202" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="201" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9480,9 +9439,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9747,13 +9706,21 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="15">
+        <v>43844</v>
+      </c>
       <c r="C10" s="61">
         <v>8</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="20"/>
+      <c r="D10" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="20">
+        <v>-4.9000000000000004</v>
+      </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -9766,14 +9733,22 @@
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
-      <c r="B11" s="43"/>
+      <c r="B11" s="43">
+        <v>43845</v>
+      </c>
       <c r="C11" s="61">
         <v>9</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="21">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="22"/>
@@ -9785,14 +9760,22 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="43">
+        <v>43847</v>
+      </c>
       <c r="C12" s="61">
         <v>10</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>45</v>
+      </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>-86.52</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
@@ -38487,11 +38470,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-350</v>
+        <v>-354.9</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-870</v>
+        <v>-974.01</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40424,917 +40407,917 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 A85:A235 C110:D110 D126:E126 B127 C123:D123 E11 E17 E26 E42 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163">
-    <cfRule type="cellIs" dxfId="200" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="199" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="198" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="197" priority="219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="196" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="193" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="192" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="191" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="190" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="189" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="188" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="187" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="186" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="185" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="184" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="183" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="182" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="181" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="180" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="179" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="178" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="177" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="176" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="175" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="174" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="173" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="172" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="171" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="170" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="169" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="168" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="167" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="166" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="165" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="164" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="163" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="162" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="161" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="160" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="159" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="158" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="157" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="156" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="155" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="154" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="153" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="152" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="151" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="150" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="149" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="148" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="147" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="146" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="145" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="144" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="143" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="142" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="141" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="140" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="139" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="138" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="137" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="136" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="135" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="134" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="133" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="132" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="131" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="130" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="129" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="128" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="127" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="126" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="125" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="124" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="123" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="122" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="121" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="120" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="119" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="118" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="117" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="116" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="115" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="114" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="113" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="112" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="111" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="110" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="109" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="108" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="107" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="106" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="105" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="104" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="103" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="102" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="101" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="100" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="99" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="98" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="97" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="96" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="95" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="94" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="93" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="92" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="91" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="90" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="89" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="88" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="85" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="84" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="82" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="81" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="80" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="79" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="78" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="76" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="75" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="74" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="73" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="72" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="71" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="70" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="69" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="68" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="66" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="65" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="64" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="63" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="62" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="61" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="60" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="56" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="50" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="49" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="48" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="47" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="45" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="44" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="42" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="41" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="40" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="39" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="38" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="37" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="36" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="35" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="34" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="33" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="32" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="31" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="29" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="28" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="27" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="25" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="22" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41344,7 +41327,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -19,14 +19,14 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>Gema Jubiläum</t>
+  </si>
+  <si>
+    <t>Telekom Jan</t>
+  </si>
+  <si>
+    <t>Getr.Kappel</t>
+  </si>
+  <si>
+    <t>Stadt Waldenbuch Vereinsförderung</t>
+  </si>
+  <si>
+    <t>Weihnachtsbaumteam</t>
+  </si>
+  <si>
+    <t>Ritter</t>
+  </si>
+  <si>
+    <t>Awo Zeitung</t>
   </si>
 </sst>
 </file>
@@ -785,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -846,7 +864,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -936,7 +953,47 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="316">
+  <dxfs count="324">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4913,7 +4970,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B19:G29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5001,17 +5058,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="10">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5025,7 +5082,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5109,17 +5166,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="13">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6244,7 +6301,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6264,17 +6321,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -6316,7 +6373,7 @@
     <row r="3" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="11"/>
@@ -6344,13 +6401,13 @@
       <c r="A4" s="15">
         <v>43837</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="60">
         <v>1</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="20">
@@ -6361,118 +6418,142 @@
       <c r="H4" s="18"/>
       <c r="I4" s="19"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="61">
+      <c r="A5" s="15">
+        <v>43860</v>
+      </c>
+      <c r="B5" s="60">
         <v>2</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="41"/>
+      <c r="C5" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="21">
+        <v>450</v>
+      </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="61">
+      <c r="A6" s="15">
+        <v>43860</v>
+      </c>
+      <c r="B6" s="60">
         <v>3</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21">
+        <v>300</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="61">
+      <c r="A7" s="15">
+        <v>43860</v>
+      </c>
+      <c r="B7" s="60">
         <v>4</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21">
+        <v>800</v>
+      </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="53" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="61">
+      <c r="B8" s="60">
         <v>5</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="61">
+      <c r="B9" s="60">
         <v>6</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="61">
+      <c r="B10" s="60">
         <v>7</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="53" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="61">
+      <c r="B11" s="60">
         <v>8</v>
       </c>
-      <c r="C11" s="56"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="41"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
@@ -6480,16 +6561,16 @@
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="61">
+      <c r="B12" s="60">
         <v>9</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="41"/>
       <c r="E12" s="17"/>
       <c r="F12" s="18"/>
@@ -6497,19 +6578,19 @@
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="61">
+      <c r="B13" s="60">
         <v>10</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="41"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="59"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
@@ -6520,11 +6601,11 @@
     </row>
     <row r="14" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="61">
+      <c r="B14" s="60">
         <v>11</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -6537,10 +6618,10 @@
     </row>
     <row r="15" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="61">
+      <c r="B15" s="60">
         <v>12</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="41"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
@@ -6554,10 +6635,10 @@
     </row>
     <row r="16" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="61">
+      <c r="B16" s="60">
         <v>13</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="41"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
@@ -6571,10 +6652,10 @@
     </row>
     <row r="17" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="61">
+      <c r="B17" s="60">
         <v>14</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="41"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
@@ -6588,10 +6669,10 @@
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="61">
+      <c r="B18" s="60">
         <v>15</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="41"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
@@ -6605,10 +6686,10 @@
     </row>
     <row r="19" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="61">
+      <c r="B19" s="60">
         <v>16</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="41"/>
       <c r="E19" s="20"/>
       <c r="F19" s="18"/>
@@ -6622,10 +6703,10 @@
     </row>
     <row r="20" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="61">
+      <c r="B20" s="60">
         <v>17</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="41"/>
       <c r="E20" s="20"/>
       <c r="F20" s="18"/>
@@ -6637,7 +6718,7 @@
     </row>
     <row r="21" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="61">
+      <c r="B21" s="60">
         <v>18</v>
       </c>
       <c r="C21" s="42"/>
@@ -6652,11 +6733,11 @@
     </row>
     <row r="22" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
-      <c r="B22" s="61">
+      <c r="B22" s="60">
         <v>19</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -6670,7 +6751,7 @@
       <c r="B23" s="16">
         <v>20</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="41"/>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
@@ -6685,7 +6766,7 @@
       <c r="B24" s="16">
         <v>21</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="41"/>
       <c r="E24" s="17"/>
       <c r="F24" s="18"/>
@@ -6697,11 +6778,11 @@
     </row>
     <row r="25" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="61">
+      <c r="B25" s="60">
         <v>22</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="58"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -6712,11 +6793,11 @@
     </row>
     <row r="26" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="61">
+      <c r="B26" s="60">
         <v>23</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="58"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -6731,7 +6812,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="42"/>
-      <c r="D27" s="64"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -6746,7 +6827,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="42"/>
-      <c r="D28" s="64"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="17"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -6790,8 +6871,8 @@
       <c r="B31" s="16">
         <v>28</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="58"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -6805,7 +6886,7 @@
       <c r="B32" s="16">
         <v>29</v>
       </c>
-      <c r="C32" s="56"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="41"/>
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
@@ -6835,7 +6916,7 @@
       <c r="B34" s="16">
         <v>31</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="41"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
@@ -6850,7 +6931,7 @@
       <c r="B35" s="16">
         <v>32</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="41"/>
       <c r="E35" s="17"/>
       <c r="F35" s="18"/>
@@ -6865,7 +6946,7 @@
       <c r="B36" s="16">
         <v>33</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="41"/>
       <c r="E36" s="17"/>
       <c r="F36" s="18"/>
@@ -6880,7 +6961,7 @@
       <c r="B37" s="16">
         <v>34</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="41"/>
       <c r="E37" s="17"/>
       <c r="F37" s="18"/>
@@ -6892,7 +6973,7 @@
     </row>
     <row r="38" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="62">
+      <c r="B38" s="61">
         <v>35</v>
       </c>
       <c r="C38" s="40"/>
@@ -6910,7 +6991,7 @@
       <c r="B39" s="16">
         <v>36</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="41"/>
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
@@ -6925,7 +7006,7 @@
       <c r="B40" s="16">
         <v>37</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="41"/>
       <c r="E40" s="17"/>
       <c r="F40" s="18"/>
@@ -6940,8 +7021,8 @@
       <c r="B41" s="16">
         <v>38</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="17"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -6952,7 +7033,7 @@
     </row>
     <row r="42" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="62">
+      <c r="B42" s="61">
         <v>39</v>
       </c>
       <c r="C42" s="40"/>
@@ -6970,7 +7051,7 @@
       <c r="B43" s="16">
         <v>40</v>
       </c>
-      <c r="C43" s="56"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="F43" s="18"/>
@@ -7000,8 +7081,8 @@
       <c r="B45" s="16">
         <v>42</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="58"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="17"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -7015,7 +7096,7 @@
       <c r="B46" s="16">
         <v>43</v>
       </c>
-      <c r="C46" s="56"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="41"/>
       <c r="E46" s="17"/>
       <c r="F46" s="18"/>
@@ -7030,7 +7111,7 @@
       <c r="B47" s="16">
         <v>44</v>
       </c>
-      <c r="C47" s="56"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="41"/>
       <c r="E47" s="17"/>
       <c r="F47" s="18"/>
@@ -7045,7 +7126,7 @@
       <c r="B48" s="16">
         <v>45</v>
       </c>
-      <c r="C48" s="56"/>
+      <c r="C48" s="55"/>
       <c r="D48" s="41"/>
       <c r="E48" s="17"/>
       <c r="F48" s="18"/>
@@ -7060,7 +7141,7 @@
       <c r="B49" s="16">
         <v>46</v>
       </c>
-      <c r="C49" s="56"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="41"/>
       <c r="E49" s="17"/>
       <c r="F49" s="18"/>
@@ -7075,7 +7156,7 @@
       <c r="B50" s="16">
         <v>47</v>
       </c>
-      <c r="C50" s="56"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="2"/>
       <c r="E50" s="20"/>
       <c r="F50" s="18"/>
@@ -7090,7 +7171,7 @@
       <c r="B51" s="16">
         <v>48</v>
       </c>
-      <c r="C51" s="56"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="2"/>
       <c r="E51" s="20"/>
       <c r="F51" s="18"/>
@@ -7105,7 +7186,7 @@
       <c r="B52" s="16">
         <v>49</v>
       </c>
-      <c r="C52" s="56"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="2"/>
       <c r="E52" s="20"/>
       <c r="F52" s="18"/>
@@ -7120,7 +7201,7 @@
       <c r="B53" s="16">
         <v>50</v>
       </c>
-      <c r="C53" s="56"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="41"/>
       <c r="E53" s="17"/>
       <c r="F53" s="18"/>
@@ -7135,7 +7216,7 @@
       <c r="B54" s="16">
         <v>51</v>
       </c>
-      <c r="C54" s="56"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="2"/>
       <c r="E54" s="20"/>
       <c r="F54" s="18"/>
@@ -7147,7 +7228,7 @@
     </row>
     <row r="55" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="62">
+      <c r="B55" s="61">
         <v>52</v>
       </c>
       <c r="C55" s="40"/>
@@ -7166,7 +7247,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="40"/>
-      <c r="D56" s="64"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="20"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -7184,7 +7265,7 @@
       <c r="D57" s="19"/>
       <c r="E57" s="20"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="59"/>
+      <c r="G57" s="58"/>
       <c r="H57" s="18"/>
       <c r="I57" s="19"/>
       <c r="J57" s="2"/>
@@ -7195,7 +7276,7 @@
       <c r="B58" s="16">
         <v>55</v>
       </c>
-      <c r="C58" s="56"/>
+      <c r="C58" s="55"/>
       <c r="D58" s="41"/>
       <c r="E58" s="17"/>
       <c r="F58" s="18"/>
@@ -7210,7 +7291,7 @@
       <c r="B59" s="16">
         <v>56</v>
       </c>
-      <c r="C59" s="56"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="41"/>
       <c r="E59" s="17"/>
       <c r="F59" s="18"/>
@@ -7225,7 +7306,7 @@
       <c r="B60" s="16">
         <v>57</v>
       </c>
-      <c r="C60" s="56"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="41"/>
       <c r="E60" s="17"/>
       <c r="F60" s="18"/>
@@ -7237,7 +7318,7 @@
     </row>
     <row r="61" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="62">
+      <c r="B61" s="61">
         <v>58</v>
       </c>
       <c r="C61" s="40"/>
@@ -7251,7 +7332,7 @@
     </row>
     <row r="62" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="61">
+      <c r="B62" s="60">
         <v>59</v>
       </c>
       <c r="C62" s="40"/>
@@ -7266,7 +7347,7 @@
     </row>
     <row r="63" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="61">
+      <c r="B63" s="60">
         <v>60</v>
       </c>
       <c r="C63" s="40"/>
@@ -7281,7 +7362,7 @@
     </row>
     <row r="64" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="61">
+      <c r="B64" s="60">
         <v>61</v>
       </c>
       <c r="C64" s="40"/>
@@ -7296,13 +7377,13 @@
     </row>
     <row r="65" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="61">
+      <c r="B65" s="60">
         <v>62</v>
       </c>
       <c r="C65" s="40"/>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="59"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="19"/>
@@ -7326,7 +7407,7 @@
     </row>
     <row r="67" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
-      <c r="B67" s="62">
+      <c r="B67" s="61">
         <v>64</v>
       </c>
       <c r="C67" s="40"/>
@@ -7389,7 +7470,7 @@
       <c r="B71" s="16">
         <v>68</v>
       </c>
-      <c r="C71" s="56"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="41"/>
       <c r="E71" s="17"/>
       <c r="F71" s="18"/>
@@ -7404,7 +7485,7 @@
       <c r="B72" s="16">
         <v>69</v>
       </c>
-      <c r="C72" s="56"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="41"/>
       <c r="E72" s="17"/>
       <c r="F72" s="18"/>
@@ -7419,7 +7500,7 @@
       <c r="B73" s="16">
         <v>70</v>
       </c>
-      <c r="C73" s="56"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="19"/>
       <c r="E73" s="17"/>
       <c r="F73" s="18"/>
@@ -7551,11 +7632,11 @@
     </row>
     <row r="82" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
-      <c r="B82" s="61">
+      <c r="B82" s="60">
         <v>79</v>
       </c>
-      <c r="C82" s="65"/>
-      <c r="E82" s="66"/>
+      <c r="C82" s="64"/>
+      <c r="E82" s="65"/>
       <c r="F82" s="21"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -7568,7 +7649,7 @@
       <c r="B83" s="16">
         <v>80</v>
       </c>
-      <c r="C83" s="56"/>
+      <c r="C83" s="55"/>
       <c r="D83" s="41"/>
       <c r="E83" s="17"/>
       <c r="F83" s="18"/>
@@ -7583,7 +7664,7 @@
       <c r="B84" s="16">
         <v>81</v>
       </c>
-      <c r="C84" s="56"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="41"/>
       <c r="E84" s="17"/>
       <c r="F84" s="18"/>
@@ -7598,7 +7679,7 @@
       <c r="B85" s="16">
         <v>82</v>
       </c>
-      <c r="C85" s="56"/>
+      <c r="C85" s="55"/>
       <c r="D85" s="41"/>
       <c r="E85" s="17"/>
       <c r="F85" s="18"/>
@@ -7613,7 +7694,7 @@
       <c r="B86" s="16">
         <v>83</v>
       </c>
-      <c r="C86" s="56"/>
+      <c r="C86" s="55"/>
       <c r="D86" s="41"/>
       <c r="E86" s="17"/>
       <c r="F86" s="18"/>
@@ -7628,7 +7709,7 @@
       <c r="B87" s="16">
         <v>84</v>
       </c>
-      <c r="C87" s="56"/>
+      <c r="C87" s="55"/>
       <c r="D87" s="41"/>
       <c r="E87" s="17"/>
       <c r="F87" s="18"/>
@@ -7643,7 +7724,7 @@
       <c r="B88" s="16">
         <v>85</v>
       </c>
-      <c r="C88" s="56"/>
+      <c r="C88" s="55"/>
       <c r="D88" s="41"/>
       <c r="E88" s="17"/>
       <c r="F88" s="18"/>
@@ -7700,7 +7781,7 @@
     </row>
     <row r="92" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
-      <c r="B92" s="61">
+      <c r="B92" s="60">
         <v>89</v>
       </c>
       <c r="C92" s="40"/>
@@ -7900,7 +7981,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>11461.650000000009</v>
+        <v>13011.650000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7936,14 +8017,14 @@
       </c>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
-      <c r="D107" s="53"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
         <v>61.829999999999586</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>10487.640000000009</v>
+        <v>11718.210000000008</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -7981,7 +8062,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>14074.470000000008</v>
+        <v>15305.040000000008</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8781,636 +8862,636 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 G4:G5 E6:G6 F7:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98">
-    <cfRule type="cellIs" dxfId="315" priority="177" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7">
+    <cfRule type="cellIs" dxfId="323" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="314" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="313" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="312" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="311" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="310" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="309" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="314" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="313" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="312" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="311" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="310" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="309" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="308" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="307" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="306" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="305" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="304" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="303" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="302" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="301" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="300" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="299" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="298" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="297" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="296" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="295" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="294" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="293" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="292" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="291" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="290" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="289" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="288" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="287" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="286" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="285" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="284" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="283" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="282" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="281" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="280" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="279" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="278" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="277" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="276" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="275" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="274" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="273" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="272" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="271" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="270" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="269" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="268" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="267" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="266" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="265" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="264" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="263" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="262" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="261" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="260" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="259" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="258" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="257" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="256" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="255" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="254" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="253" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="252" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="251" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="250" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="249" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="248" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="247" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="246" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="245" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="244" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="243" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="242" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="241" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="240" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="239" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="238" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="237" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="236" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:E69">
+    <cfRule type="cellIs" dxfId="235" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="234" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="233" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="232" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="231" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="230" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="229" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="228" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="227" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="226" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="225" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="224" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="223" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="222" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="221" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="cellIs" dxfId="220" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="219" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="218" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="217" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="216" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="215" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="214" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="213" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="212" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="211" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="210" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:E90">
+    <cfRule type="cellIs" dxfId="209" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:D92">
+    <cfRule type="cellIs" dxfId="208" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="cellIs" dxfId="207" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="206" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="cellIs" dxfId="205" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:E96">
+    <cfRule type="cellIs" dxfId="204" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="203" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="202" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:D98">
+    <cfRule type="cellIs" dxfId="201" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="200" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="199" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="308" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="307" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="306" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="305" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="304" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="303" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="302" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="301" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="300" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="299" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="298" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="297" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="296" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="295" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="294" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="293" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="292" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="291" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="290" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="289" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="288" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="287" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="286" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="285" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="284" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="283" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="282" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="281" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="280" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="279" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="278" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="277" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="276" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="275" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="274" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="273" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="272" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="271" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="270" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="269" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="268" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="267" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="266" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="265" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="264" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="263" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="262" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="261" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="260" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="259" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="258" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="257" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="256" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="255" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="254" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="253" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="252" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="251" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="250" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="249" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="248" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="247" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="246" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="245" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="244" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="243" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="242" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="241" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="240" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="239" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="238" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="237" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="236" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="235" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="234" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="233" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="232" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="231" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="230" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="229" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="228" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="227" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="226" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="225" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="224" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="223" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="222" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="221" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="220" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="219" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="218" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="217" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="216" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="215" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="214" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="213" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="212" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="211" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="210" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="209" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="208" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="207" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="206" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="205" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="204" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="203" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="202" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="201" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="200" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="199" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="198" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="197" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="196" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="195" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="194" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="193" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="192" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="191" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61 D67 D71:D72 D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61 D67 D71:D72">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D7:D10 D25:D31 D14 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D14 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D10">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
@@ -9441,7 +9522,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9463,17 +9544,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
       <c r="K1" s="4"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3" t="s">
@@ -9485,7 +9566,7 @@
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -9520,10 +9601,10 @@
       <c r="B3" s="15">
         <v>43833</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="60">
         <v>1</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="41" t="s">
@@ -9547,10 +9628,10 @@
       <c r="B4" s="15">
         <v>43833</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="60">
         <v>2</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="41" t="s">
@@ -9565,7 +9646,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="4"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="53" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9574,13 +9655,13 @@
       <c r="B5" s="43">
         <v>43837</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="60">
         <v>3</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="20"/>
@@ -9592,7 +9673,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="4"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="53" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9601,10 +9682,10 @@
       <c r="B6" s="43">
         <v>43837</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="60">
         <v>4</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -9619,7 +9700,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="4"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9628,10 +9709,10 @@
       <c r="B7" s="43">
         <v>43837</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="60">
         <v>5</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -9646,7 +9727,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="4"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="53" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9655,13 +9736,13 @@
       <c r="B8" s="43">
         <v>43837</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="60">
         <v>6</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="20"/>
@@ -9673,7 +9754,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="4"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="54" t="s">
+      <c r="M8" s="53" t="s">
         <v>22</v>
       </c>
     </row>
@@ -9682,10 +9763,10 @@
       <c r="B9" s="43">
         <v>43835</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="60">
         <v>7</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="23" t="s">
@@ -9700,7 +9781,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="53" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9709,10 +9790,10 @@
       <c r="B10" s="15">
         <v>43844</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="60">
         <v>8</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="41" t="s">
@@ -9727,7 +9808,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="53" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9736,10 +9817,10 @@
       <c r="B11" s="43">
         <v>43845</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="60">
         <v>9</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="23" t="s">
@@ -9754,7 +9835,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="54" t="s">
+      <c r="M11" s="53" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9763,13 +9844,13 @@
       <c r="B12" s="43">
         <v>43847</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="60">
         <v>10</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="56" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="20"/>
@@ -9781,20 +9862,28 @@
       <c r="J12" s="22"/>
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="61">
+      <c r="B13" s="43">
+        <v>43850</v>
+      </c>
+      <c r="C13" s="60">
         <v>11</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
+      <c r="D13" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="21">
+        <v>-19.04</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
@@ -9806,14 +9895,22 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="61">
+      <c r="B14" s="43">
+        <v>43853</v>
+      </c>
+      <c r="C14" s="60">
         <v>12</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="41"/>
+      <c r="D14" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="21">
+        <v>-15.35</v>
+      </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
@@ -9825,14 +9922,22 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="61">
+      <c r="B15" s="43">
+        <v>43857</v>
+      </c>
+      <c r="C15" s="60">
         <v>13</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="41"/>
+      <c r="D15" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="21">
+        <v>-133.04</v>
+      </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
@@ -9844,14 +9949,22 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="61">
+      <c r="B16" s="15">
+        <v>43861</v>
+      </c>
+      <c r="C16" s="60">
         <v>14</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="41"/>
+      <c r="D16" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="21">
+        <v>-152</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
@@ -9864,10 +9977,10 @@
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="61">
+      <c r="C17" s="60">
         <v>15</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="41"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
@@ -9883,10 +9996,10 @@
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="61">
+      <c r="C18" s="60">
         <v>16</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="41"/>
       <c r="F18" s="20"/>
       <c r="G18" s="21"/>
@@ -9902,10 +10015,10 @@
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="61">
+      <c r="C19" s="60">
         <v>17</v>
       </c>
-      <c r="D19" s="56"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="41"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
@@ -9921,10 +10034,10 @@
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="61">
+      <c r="C20" s="60">
         <v>18</v>
       </c>
-      <c r="D20" s="56"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="41"/>
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
@@ -9938,10 +10051,10 @@
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="61">
+      <c r="C21" s="60">
         <v>19</v>
       </c>
-      <c r="D21" s="56"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="41"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
@@ -9955,11 +10068,11 @@
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="61">
+      <c r="C22" s="60">
         <v>20</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -9975,7 +10088,7 @@
       <c r="C23" s="16">
         <v>21</v>
       </c>
-      <c r="D23" s="56"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="41"/>
       <c r="F23" s="17"/>
       <c r="G23" s="21"/>
@@ -9992,7 +10105,7 @@
       <c r="C24" s="16">
         <v>22</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="41"/>
       <c r="F24" s="17"/>
       <c r="G24" s="21"/>
@@ -10006,10 +10119,10 @@
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="61">
+      <c r="C25" s="60">
         <v>23</v>
       </c>
-      <c r="D25" s="56"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="41"/>
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
@@ -10023,10 +10136,10 @@
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
       <c r="B26" s="43"/>
-      <c r="C26" s="61">
+      <c r="C26" s="60">
         <v>24</v>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
       <c r="G26" s="21"/>
@@ -10040,10 +10153,10 @@
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="43"/>
-      <c r="C27" s="61">
+      <c r="C27" s="60">
         <v>25</v>
       </c>
-      <c r="D27" s="56"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="41"/>
       <c r="F27" s="20"/>
       <c r="G27" s="21"/>
@@ -10057,10 +10170,10 @@
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="61">
+      <c r="C28" s="60">
         <v>26</v>
       </c>
-      <c r="D28" s="56"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="41"/>
       <c r="F28" s="20"/>
       <c r="G28" s="21"/>
@@ -10074,10 +10187,10 @@
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="61">
+      <c r="C29" s="60">
         <v>27</v>
       </c>
-      <c r="D29" s="56"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="41"/>
       <c r="F29" s="20"/>
       <c r="G29" s="21"/>
@@ -10091,10 +10204,10 @@
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="61">
+      <c r="C30" s="60">
         <v>28</v>
       </c>
-      <c r="D30" s="56"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="41"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
@@ -10108,10 +10221,10 @@
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="61">
+      <c r="C31" s="60">
         <v>29</v>
       </c>
-      <c r="D31" s="56"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="41"/>
       <c r="F31" s="20"/>
       <c r="G31" s="21"/>
@@ -10125,10 +10238,10 @@
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="43"/>
-      <c r="C32" s="61">
+      <c r="C32" s="60">
         <v>30</v>
       </c>
-      <c r="D32" s="56"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="41"/>
       <c r="F32" s="20"/>
       <c r="G32" s="21"/>
@@ -10142,10 +10255,10 @@
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="61">
+      <c r="C33" s="60">
         <v>31</v>
       </c>
-      <c r="D33" s="56"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="41"/>
       <c r="F33" s="20"/>
       <c r="G33" s="21"/>
@@ -10159,10 +10272,10 @@
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="61">
+      <c r="C34" s="60">
         <v>32</v>
       </c>
-      <c r="D34" s="56"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="41"/>
       <c r="F34" s="20"/>
       <c r="G34" s="21"/>
@@ -10176,10 +10289,10 @@
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="61">
+      <c r="C35" s="60">
         <v>33</v>
       </c>
-      <c r="D35" s="56"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="41"/>
       <c r="F35" s="20"/>
       <c r="G35" s="21"/>
@@ -10193,11 +10306,11 @@
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="61">
+      <c r="C36" s="60">
         <v>34</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
       <c r="F36" s="20"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -10213,7 +10326,7 @@
       <c r="C37" s="16">
         <v>35</v>
       </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="41"/>
       <c r="F37" s="17"/>
       <c r="G37" s="21"/>
@@ -10230,7 +10343,7 @@
       <c r="C38" s="16">
         <v>36</v>
       </c>
-      <c r="D38" s="56"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="41"/>
       <c r="F38" s="17"/>
       <c r="G38" s="21"/>
@@ -10247,7 +10360,7 @@
       <c r="C39" s="16">
         <v>37</v>
       </c>
-      <c r="D39" s="56"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="41"/>
       <c r="F39" s="17"/>
       <c r="G39" s="21"/>
@@ -10263,7 +10376,7 @@
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="61">
+      <c r="C40" s="60">
         <v>38</v>
       </c>
       <c r="D40" s="40"/>
@@ -10282,7 +10395,7 @@
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="61">
+      <c r="C41" s="60">
         <v>39</v>
       </c>
       <c r="D41" s="40"/>
@@ -10303,7 +10416,7 @@
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="62">
+      <c r="C42" s="61">
         <v>40</v>
       </c>
       <c r="D42" s="40"/>
@@ -10322,11 +10435,11 @@
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="61">
+      <c r="C43" s="60">
         <v>41</v>
       </c>
       <c r="D43" s="40"/>
-      <c r="E43" s="54"/>
+      <c r="E43" s="53"/>
       <c r="F43" s="20"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -10343,10 +10456,10 @@
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="43"/>
-      <c r="C44" s="61">
+      <c r="C44" s="60">
         <v>42</v>
       </c>
-      <c r="D44" s="56"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="23"/>
       <c r="F44" s="20"/>
       <c r="G44" s="21"/>
@@ -10364,10 +10477,10 @@
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="43"/>
-      <c r="C45" s="61">
+      <c r="C45" s="60">
         <v>43</v>
       </c>
-      <c r="D45" s="56"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="23"/>
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
@@ -10388,7 +10501,7 @@
       <c r="C46" s="16">
         <v>44</v>
       </c>
-      <c r="D46" s="56"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="41"/>
       <c r="F46" s="17"/>
       <c r="G46" s="21"/>
@@ -10404,11 +10517,11 @@
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="61">
+      <c r="C47" s="60">
         <v>45</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="56"/>
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -10425,11 +10538,11 @@
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="15"/>
-      <c r="C48" s="61">
+      <c r="C48" s="60">
         <v>46</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="20"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -10444,7 +10557,7 @@
     <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="62">
+      <c r="C49" s="61">
         <v>47</v>
       </c>
       <c r="D49" s="40"/>
@@ -10461,10 +10574,10 @@
     <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="61">
+      <c r="C50" s="60">
         <v>48</v>
       </c>
-      <c r="D50" s="56"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="23"/>
       <c r="F50" s="20"/>
       <c r="G50" s="21"/>
@@ -10478,10 +10591,10 @@
     <row r="51" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
       <c r="B51" s="15"/>
-      <c r="C51" s="61">
+      <c r="C51" s="60">
         <v>49</v>
       </c>
-      <c r="D51" s="56"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="41"/>
       <c r="F51" s="20"/>
       <c r="G51" s="21"/>
@@ -10495,11 +10608,11 @@
     <row r="52" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="61">
+      <c r="C52" s="60">
         <v>50</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="56"/>
       <c r="F52" s="20"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -10512,10 +10625,10 @@
     <row r="53" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="61">
+      <c r="C53" s="60">
         <v>51</v>
       </c>
-      <c r="D53" s="56"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="23"/>
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
@@ -10529,10 +10642,10 @@
     <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
       <c r="B54" s="43"/>
-      <c r="C54" s="61">
+      <c r="C54" s="60">
         <v>52</v>
       </c>
-      <c r="D54" s="56"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="23"/>
       <c r="F54" s="20"/>
       <c r="G54" s="21"/>
@@ -10780,11 +10893,11 @@
     <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="61">
+      <c r="C55" s="60">
         <v>53</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="56"/>
       <c r="F55" s="20"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -10797,10 +10910,10 @@
     <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="61">
+      <c r="C56" s="60">
         <v>54</v>
       </c>
-      <c r="D56" s="56"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="41"/>
       <c r="F56" s="20"/>
       <c r="G56" s="21"/>
@@ -10814,11 +10927,11 @@
     <row r="57" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="61">
+      <c r="C57" s="60">
         <v>55</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="56"/>
       <c r="F57" s="20"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -10831,10 +10944,10 @@
     <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
       <c r="B58" s="43"/>
-      <c r="C58" s="61">
+      <c r="C58" s="60">
         <v>56</v>
       </c>
-      <c r="D58" s="56"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="23"/>
       <c r="F58" s="20"/>
       <c r="G58" s="21"/>
@@ -10848,10 +10961,10 @@
     <row r="59" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
       <c r="B59" s="15"/>
-      <c r="C59" s="61">
+      <c r="C59" s="60">
         <v>57</v>
       </c>
-      <c r="D59" s="56"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="23"/>
       <c r="F59" s="20"/>
       <c r="G59" s="21"/>
@@ -10865,7 +10978,7 @@
     <row r="60" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
       <c r="B60" s="15"/>
-      <c r="C60" s="61">
+      <c r="C60" s="60">
         <v>58</v>
       </c>
       <c r="D60" s="40"/>
@@ -11116,10 +11229,10 @@
     <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="15"/>
-      <c r="C61" s="61">
+      <c r="C61" s="60">
         <v>59</v>
       </c>
-      <c r="D61" s="56"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="41"/>
       <c r="F61" s="20"/>
       <c r="G61" s="21"/>
@@ -11367,11 +11480,11 @@
     <row r="62" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
       <c r="B62" s="15"/>
-      <c r="C62" s="61">
+      <c r="C62" s="60">
         <v>60</v>
       </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="57"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="56"/>
       <c r="F62" s="20"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
@@ -11618,10 +11731,10 @@
     <row r="63" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
       <c r="B63" s="15"/>
-      <c r="C63" s="61">
+      <c r="C63" s="60">
         <v>61</v>
       </c>
-      <c r="D63" s="56"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
       <c r="G63" s="21"/>
@@ -11869,7 +11982,7 @@
     <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
       <c r="B64" s="15"/>
-      <c r="C64" s="62">
+      <c r="C64" s="61">
         <v>62</v>
       </c>
       <c r="D64" s="40"/>
@@ -12120,10 +12233,10 @@
     <row r="65" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
       <c r="B65" s="15"/>
-      <c r="C65" s="62">
+      <c r="C65" s="61">
         <v>63</v>
       </c>
-      <c r="D65" s="56"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="41"/>
       <c r="F65" s="20"/>
       <c r="G65" s="21"/>
@@ -12371,10 +12484,10 @@
     <row r="66" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
       <c r="B66" s="15"/>
-      <c r="C66" s="62">
+      <c r="C66" s="61">
         <v>64</v>
       </c>
-      <c r="D66" s="56"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="41"/>
       <c r="F66" s="20"/>
       <c r="G66" s="21"/>
@@ -12622,10 +12735,10 @@
     <row r="67" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="62">
+      <c r="C67" s="61">
         <v>65</v>
       </c>
-      <c r="D67" s="56"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="41"/>
       <c r="F67" s="20"/>
       <c r="G67" s="21"/>
@@ -12873,10 +12986,10 @@
     <row r="68" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="62">
+      <c r="C68" s="61">
         <v>66</v>
       </c>
-      <c r="D68" s="56"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="41"/>
       <c r="F68" s="20"/>
       <c r="G68" s="21"/>
@@ -13124,11 +13237,11 @@
     <row r="69" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
       <c r="B69" s="15"/>
-      <c r="C69" s="62">
+      <c r="C69" s="61">
         <v>67</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="57"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="20"/>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
@@ -13375,11 +13488,11 @@
     <row r="70" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="15"/>
-      <c r="C70" s="62">
+      <c r="C70" s="61">
         <v>68</v>
       </c>
-      <c r="D70" s="56"/>
-      <c r="E70" s="57"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="20"/>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
@@ -13626,11 +13739,11 @@
     <row r="71" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
       <c r="B71" s="15"/>
-      <c r="C71" s="62">
+      <c r="C71" s="61">
         <v>69</v>
       </c>
-      <c r="D71" s="56"/>
-      <c r="E71" s="57"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="56"/>
       <c r="F71" s="20"/>
       <c r="G71" s="21"/>
       <c r="H71" s="20"/>
@@ -13877,10 +13990,10 @@
     <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="15"/>
-      <c r="C72" s="61">
+      <c r="C72" s="60">
         <v>70</v>
       </c>
-      <c r="D72" s="56"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="41"/>
       <c r="F72" s="20"/>
       <c r="G72" s="21"/>
@@ -14128,10 +14241,10 @@
     <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="15"/>
-      <c r="C73" s="62">
+      <c r="C73" s="61">
         <v>71</v>
       </c>
-      <c r="D73" s="56"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="41"/>
       <c r="F73" s="20"/>
       <c r="G73" s="21"/>
@@ -14379,11 +14492,11 @@
     <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="15"/>
-      <c r="C74" s="61">
+      <c r="C74" s="60">
         <v>72</v>
       </c>
       <c r="D74" s="40"/>
-      <c r="E74" s="54"/>
+      <c r="E74" s="53"/>
       <c r="F74" s="20"/>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
@@ -14630,10 +14743,10 @@
     <row r="75" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="15"/>
-      <c r="C75" s="61">
+      <c r="C75" s="60">
         <v>73</v>
       </c>
-      <c r="D75" s="56"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="41"/>
       <c r="F75" s="20"/>
       <c r="G75" s="21"/>
@@ -14881,10 +14994,10 @@
     <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="43"/>
-      <c r="C76" s="61">
+      <c r="C76" s="60">
         <v>74</v>
       </c>
-      <c r="D76" s="56"/>
+      <c r="D76" s="55"/>
       <c r="E76" s="23"/>
       <c r="F76" s="20"/>
       <c r="G76" s="21"/>
@@ -15132,10 +15245,10 @@
     <row r="77" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
       <c r="B77" s="43"/>
-      <c r="C77" s="61">
+      <c r="C77" s="60">
         <v>75</v>
       </c>
-      <c r="D77" s="56"/>
+      <c r="D77" s="55"/>
       <c r="E77" s="23"/>
       <c r="F77" s="20"/>
       <c r="G77" s="21"/>
@@ -15383,7 +15496,7 @@
     <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="15"/>
-      <c r="C78" s="62">
+      <c r="C78" s="61">
         <v>76</v>
       </c>
       <c r="D78" s="40"/>
@@ -15634,11 +15747,11 @@
     <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="15"/>
-      <c r="C79" s="61">
+      <c r="C79" s="60">
         <v>77</v>
       </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="57"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="56"/>
       <c r="F79" s="20"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
@@ -15885,11 +15998,11 @@
     <row r="80" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
       <c r="B80" s="15"/>
-      <c r="C80" s="61">
+      <c r="C80" s="60">
         <v>78</v>
       </c>
-      <c r="D80" s="56"/>
-      <c r="E80" s="57"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="20"/>
       <c r="G80" s="21"/>
       <c r="H80" s="21"/>
@@ -16136,10 +16249,10 @@
     <row r="81" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
       <c r="B81" s="15"/>
-      <c r="C81" s="61">
+      <c r="C81" s="60">
         <v>79</v>
       </c>
-      <c r="D81" s="56"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="41"/>
       <c r="F81" s="20"/>
       <c r="G81" s="21"/>
@@ -16387,10 +16500,10 @@
     <row r="82" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
       <c r="B82" s="43"/>
-      <c r="C82" s="61">
+      <c r="C82" s="60">
         <v>80</v>
       </c>
-      <c r="D82" s="56"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="23"/>
       <c r="F82" s="20"/>
       <c r="G82" s="21"/>
@@ -16638,11 +16751,11 @@
     <row r="83" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
       <c r="B83" s="43"/>
-      <c r="C83" s="61">
+      <c r="C83" s="60">
         <v>81</v>
       </c>
-      <c r="D83" s="56"/>
-      <c r="E83" s="57"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="56"/>
       <c r="F83" s="20"/>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
@@ -16889,11 +17002,11 @@
     <row r="84" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
       <c r="B84" s="43"/>
-      <c r="C84" s="61">
+      <c r="C84" s="60">
         <v>82</v>
       </c>
-      <c r="D84" s="56"/>
-      <c r="E84" s="57"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="56"/>
       <c r="F84" s="20"/>
       <c r="G84" s="21"/>
       <c r="H84" s="21"/>
@@ -17140,11 +17253,11 @@
     <row r="85" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
       <c r="B85" s="43"/>
-      <c r="C85" s="61">
+      <c r="C85" s="60">
         <v>83</v>
       </c>
-      <c r="D85" s="56"/>
-      <c r="E85" s="57"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="56"/>
       <c r="F85" s="20"/>
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
@@ -17391,11 +17504,11 @@
     <row r="86" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
       <c r="B86" s="43"/>
-      <c r="C86" s="61">
+      <c r="C86" s="60">
         <v>84</v>
       </c>
-      <c r="D86" s="56"/>
-      <c r="E86" s="57"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="56"/>
       <c r="F86" s="20"/>
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
@@ -17645,7 +17758,7 @@
       <c r="C87" s="16">
         <v>85</v>
       </c>
-      <c r="D87" s="56"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="41"/>
       <c r="F87" s="20"/>
       <c r="G87" s="21"/>
@@ -17896,7 +18009,7 @@
       <c r="C88" s="16">
         <v>86</v>
       </c>
-      <c r="D88" s="56"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="41"/>
       <c r="F88" s="20"/>
       <c r="G88" s="21"/>
@@ -18147,7 +18260,7 @@
       <c r="C89" s="16">
         <v>87</v>
       </c>
-      <c r="D89" s="56"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="41"/>
       <c r="F89" s="20"/>
       <c r="G89" s="21"/>
@@ -18395,7 +18508,7 @@
     <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
       <c r="B90" s="15"/>
-      <c r="C90" s="62">
+      <c r="C90" s="61">
         <v>88</v>
       </c>
       <c r="D90" s="40"/>
@@ -18646,10 +18759,10 @@
     <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="B91" s="15"/>
-      <c r="C91" s="61">
+      <c r="C91" s="60">
         <v>89</v>
       </c>
-      <c r="D91" s="56"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="41"/>
       <c r="F91" s="20"/>
       <c r="G91" s="21"/>
@@ -18897,11 +19010,11 @@
     <row r="92" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="15"/>
-      <c r="C92" s="61">
+      <c r="C92" s="60">
         <v>90</v>
       </c>
-      <c r="D92" s="56"/>
-      <c r="E92" s="57"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="56"/>
       <c r="F92" s="20"/>
       <c r="G92" s="21"/>
       <c r="H92" s="21"/>
@@ -19148,11 +19261,11 @@
     <row r="93" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
       <c r="B93" s="15"/>
-      <c r="C93" s="61">
+      <c r="C93" s="60">
         <v>91</v>
       </c>
-      <c r="D93" s="56"/>
-      <c r="E93" s="57"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="56"/>
       <c r="F93" s="20"/>
       <c r="G93" s="21"/>
       <c r="H93" s="21"/>
@@ -19399,10 +19512,10 @@
     <row r="94" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
       <c r="B94" s="15"/>
-      <c r="C94" s="61">
+      <c r="C94" s="60">
         <v>92</v>
       </c>
-      <c r="D94" s="56"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="23"/>
       <c r="F94" s="20"/>
       <c r="G94" s="21"/>
@@ -19650,11 +19763,11 @@
     <row r="95" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
       <c r="B95" s="15"/>
-      <c r="C95" s="61">
+      <c r="C95" s="60">
         <v>93</v>
       </c>
       <c r="D95" s="40"/>
-      <c r="E95" s="54"/>
+      <c r="E95" s="53"/>
       <c r="F95" s="20"/>
       <c r="G95" s="21"/>
       <c r="H95" s="21"/>
@@ -19901,7 +20014,7 @@
     <row r="96" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
       <c r="B96" s="15"/>
-      <c r="C96" s="61">
+      <c r="C96" s="60">
         <v>94</v>
       </c>
       <c r="D96" s="40"/>
@@ -20152,10 +20265,10 @@
     <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47"/>
       <c r="B97" s="15"/>
-      <c r="C97" s="61">
+      <c r="C97" s="60">
         <v>95</v>
       </c>
-      <c r="D97" s="56"/>
+      <c r="D97" s="55"/>
       <c r="E97" s="41"/>
       <c r="F97" s="20"/>
       <c r="G97" s="21"/>
@@ -20403,11 +20516,11 @@
     <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="47"/>
       <c r="B98" s="15"/>
-      <c r="C98" s="61">
+      <c r="C98" s="60">
         <v>96</v>
       </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="57"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="56"/>
       <c r="F98" s="20"/>
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
@@ -20654,11 +20767,11 @@
     <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47"/>
       <c r="B99" s="15"/>
-      <c r="C99" s="61">
+      <c r="C99" s="60">
         <v>97</v>
       </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="57"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="56"/>
       <c r="F99" s="20"/>
       <c r="G99" s="21"/>
       <c r="H99" s="21"/>
@@ -20905,10 +21018,10 @@
     <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="47"/>
       <c r="B100" s="15"/>
-      <c r="C100" s="61">
+      <c r="C100" s="60">
         <v>98</v>
       </c>
-      <c r="D100" s="56"/>
+      <c r="D100" s="55"/>
       <c r="E100" s="41"/>
       <c r="F100" s="20"/>
       <c r="G100" s="21"/>
@@ -21156,7 +21269,7 @@
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
       <c r="B101" s="15"/>
-      <c r="C101" s="61">
+      <c r="C101" s="60">
         <v>99</v>
       </c>
       <c r="D101" s="40"/>
@@ -21407,7 +21520,7 @@
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
       <c r="B102" s="15"/>
-      <c r="C102" s="61">
+      <c r="C102" s="60">
         <v>100</v>
       </c>
       <c r="D102" s="40"/>
@@ -21658,7 +21771,7 @@
     <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="47"/>
       <c r="B103" s="15"/>
-      <c r="C103" s="61">
+      <c r="C103" s="60">
         <v>101</v>
       </c>
       <c r="D103" s="40"/>
@@ -21909,7 +22022,7 @@
     <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47"/>
       <c r="B104" s="15"/>
-      <c r="C104" s="61">
+      <c r="C104" s="60">
         <v>102</v>
       </c>
       <c r="D104" s="40"/>
@@ -22160,7 +22273,7 @@
     <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47"/>
       <c r="B105" s="15"/>
-      <c r="C105" s="61">
+      <c r="C105" s="60">
         <v>103</v>
       </c>
       <c r="D105" s="40"/>
@@ -22411,7 +22524,7 @@
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="62">
+      <c r="C106" s="61">
         <v>104</v>
       </c>
       <c r="D106" s="40"/>
@@ -22662,10 +22775,10 @@
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
       <c r="B107" s="43"/>
-      <c r="C107" s="61">
+      <c r="C107" s="60">
         <v>105</v>
       </c>
-      <c r="D107" s="56"/>
+      <c r="D107" s="55"/>
       <c r="E107" s="23"/>
       <c r="F107" s="20"/>
       <c r="G107" s="21"/>
@@ -22913,7 +23026,7 @@
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47"/>
       <c r="B108" s="43"/>
-      <c r="C108" s="61">
+      <c r="C108" s="60">
         <v>106</v>
       </c>
       <c r="D108" s="40"/>
@@ -23164,7 +23277,7 @@
     <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
       <c r="B109" s="43"/>
-      <c r="C109" s="61">
+      <c r="C109" s="60">
         <v>107</v>
       </c>
       <c r="D109" s="40"/>
@@ -23415,7 +23528,7 @@
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
       <c r="B110" s="15"/>
-      <c r="C110" s="61">
+      <c r="C110" s="60">
         <v>108</v>
       </c>
       <c r="D110" s="40"/>
@@ -23666,7 +23779,7 @@
     <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
       <c r="B111" s="15"/>
-      <c r="C111" s="61">
+      <c r="C111" s="60">
         <v>109</v>
       </c>
       <c r="D111" s="40"/>
@@ -23920,7 +24033,7 @@
       <c r="C112" s="16">
         <v>110</v>
       </c>
-      <c r="D112" s="56"/>
+      <c r="D112" s="55"/>
       <c r="E112" s="41"/>
       <c r="F112" s="20"/>
       <c r="G112" s="21"/>
@@ -24171,7 +24284,7 @@
       <c r="C113" s="16">
         <v>111</v>
       </c>
-      <c r="D113" s="56"/>
+      <c r="D113" s="55"/>
       <c r="E113" s="41"/>
       <c r="F113" s="20"/>
       <c r="G113" s="21"/>
@@ -24422,7 +24535,7 @@
       <c r="C114" s="16">
         <v>112</v>
       </c>
-      <c r="D114" s="56"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="19"/>
       <c r="F114" s="20"/>
       <c r="G114" s="21"/>
@@ -24670,10 +24783,10 @@
     <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
       <c r="B115" s="15"/>
-      <c r="C115" s="61">
+      <c r="C115" s="60">
         <v>113</v>
       </c>
-      <c r="D115" s="56"/>
+      <c r="D115" s="55"/>
       <c r="E115" s="23"/>
       <c r="F115" s="20"/>
       <c r="G115" s="21"/>
@@ -24921,11 +25034,11 @@
     <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
       <c r="B116" s="43"/>
-      <c r="C116" s="61">
+      <c r="C116" s="60">
         <v>114</v>
       </c>
-      <c r="D116" s="56"/>
-      <c r="E116" s="57"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="56"/>
       <c r="F116" s="20"/>
       <c r="G116" s="21"/>
       <c r="H116" s="21"/>
@@ -25172,11 +25285,11 @@
     <row r="117" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47"/>
       <c r="B117" s="43"/>
-      <c r="C117" s="61">
+      <c r="C117" s="60">
         <v>115</v>
       </c>
-      <c r="D117" s="56"/>
-      <c r="E117" s="57"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="56"/>
       <c r="F117" s="20"/>
       <c r="G117" s="21"/>
       <c r="H117" s="21"/>
@@ -25423,10 +25536,10 @@
     <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
       <c r="B118" s="15"/>
-      <c r="C118" s="61">
+      <c r="C118" s="60">
         <v>116</v>
       </c>
-      <c r="D118" s="56"/>
+      <c r="D118" s="55"/>
       <c r="E118" s="23"/>
       <c r="F118" s="20"/>
       <c r="G118" s="21"/>
@@ -25674,7 +25787,7 @@
     <row r="119" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47"/>
       <c r="B119" s="15"/>
-      <c r="C119" s="61">
+      <c r="C119" s="60">
         <v>117</v>
       </c>
       <c r="D119" s="40"/>
@@ -25925,7 +26038,7 @@
     <row r="120" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47"/>
       <c r="B120" s="15"/>
-      <c r="C120" s="61">
+      <c r="C120" s="60">
         <v>118</v>
       </c>
       <c r="D120" s="40"/>
@@ -26176,11 +26289,11 @@
     <row r="121" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47"/>
       <c r="B121" s="15"/>
-      <c r="C121" s="61">
+      <c r="C121" s="60">
         <v>119</v>
       </c>
-      <c r="D121" s="65"/>
-      <c r="F121" s="66"/>
+      <c r="D121" s="64"/>
+      <c r="F121" s="65"/>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
@@ -26426,10 +26539,10 @@
     <row r="122" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="47"/>
       <c r="B122" s="15"/>
-      <c r="C122" s="61">
+      <c r="C122" s="60">
         <v>120</v>
       </c>
-      <c r="D122" s="56"/>
+      <c r="D122" s="55"/>
       <c r="E122" s="41"/>
       <c r="F122" s="20"/>
       <c r="G122" s="21"/>
@@ -26677,7 +26790,7 @@
     <row r="123" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47"/>
       <c r="B123" s="15"/>
-      <c r="C123" s="61">
+      <c r="C123" s="60">
         <v>121</v>
       </c>
       <c r="D123" s="40"/>
@@ -26927,11 +27040,11 @@
     <row r="124" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
       <c r="B124" s="15"/>
-      <c r="C124" s="61">
+      <c r="C124" s="60">
         <v>122</v>
       </c>
-      <c r="D124" s="56"/>
-      <c r="E124" s="57"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="56"/>
       <c r="F124" s="20"/>
       <c r="G124" s="21"/>
       <c r="H124" s="21"/>
@@ -27178,11 +27291,11 @@
     <row r="125" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47"/>
       <c r="B125" s="15"/>
-      <c r="C125" s="61">
+      <c r="C125" s="60">
         <v>123</v>
       </c>
-      <c r="D125" s="56"/>
-      <c r="E125" s="57"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="56"/>
       <c r="F125" s="20"/>
       <c r="G125" s="21"/>
       <c r="H125" s="21"/>
@@ -27429,7 +27542,7 @@
     <row r="126" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47"/>
       <c r="B126" s="15"/>
-      <c r="C126" s="61">
+      <c r="C126" s="60">
         <v>124</v>
       </c>
       <c r="D126" s="40"/>
@@ -27680,7 +27793,7 @@
     <row r="127" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47"/>
       <c r="B127" s="15"/>
-      <c r="C127" s="61">
+      <c r="C127" s="60">
         <v>125</v>
       </c>
       <c r="D127" s="40"/>
@@ -27931,7 +28044,7 @@
     <row r="128" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47"/>
       <c r="B128" s="15"/>
-      <c r="C128" s="61">
+      <c r="C128" s="60">
         <v>126</v>
       </c>
       <c r="D128" s="40"/>
@@ -28182,11 +28295,11 @@
     <row r="129" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
       <c r="B129" s="15"/>
-      <c r="C129" s="61">
+      <c r="C129" s="60">
         <v>127</v>
       </c>
       <c r="D129" s="40"/>
-      <c r="E129" s="57"/>
+      <c r="E129" s="56"/>
       <c r="F129" s="20"/>
       <c r="G129" s="21"/>
       <c r="H129" s="21"/>
@@ -28433,10 +28546,10 @@
     <row r="130" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="47"/>
       <c r="B130" s="15"/>
-      <c r="C130" s="61">
+      <c r="C130" s="60">
         <v>128</v>
       </c>
-      <c r="D130" s="56"/>
+      <c r="D130" s="55"/>
       <c r="E130" s="23"/>
       <c r="F130" s="20"/>
       <c r="G130" s="21"/>
@@ -28684,12 +28797,12 @@
     <row r="131" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="47"/>
       <c r="B131" s="15"/>
-      <c r="C131" s="61">
+      <c r="C131" s="60">
         <v>129</v>
       </c>
-      <c r="D131" s="65"/>
+      <c r="D131" s="64"/>
       <c r="E131" s="39"/>
-      <c r="F131" s="66"/>
+      <c r="F131" s="65"/>
       <c r="G131" s="21"/>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
@@ -28935,7 +29048,7 @@
     <row r="132" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="47"/>
       <c r="B132" s="15"/>
-      <c r="C132" s="61">
+      <c r="C132" s="60">
         <v>130</v>
       </c>
       <c r="D132" s="40"/>
@@ -29186,7 +29299,7 @@
     <row r="133" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="47"/>
       <c r="B133" s="15"/>
-      <c r="C133" s="61">
+      <c r="C133" s="60">
         <v>131</v>
       </c>
       <c r="D133" s="40"/>
@@ -29437,10 +29550,10 @@
     <row r="134" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="47"/>
       <c r="B134" s="15"/>
-      <c r="C134" s="61">
+      <c r="C134" s="60">
         <v>132</v>
       </c>
-      <c r="D134" s="56"/>
+      <c r="D134" s="55"/>
       <c r="E134" s="23"/>
       <c r="F134" s="20"/>
       <c r="G134" s="21"/>
@@ -29688,10 +29801,10 @@
     <row r="135" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="47"/>
       <c r="B135" s="15"/>
-      <c r="C135" s="61">
+      <c r="C135" s="60">
         <v>133</v>
       </c>
-      <c r="D135" s="56"/>
+      <c r="D135" s="55"/>
       <c r="E135" s="41"/>
       <c r="F135" s="20"/>
       <c r="G135" s="21"/>
@@ -29939,11 +30052,11 @@
     <row r="136" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="47"/>
       <c r="B136" s="15"/>
-      <c r="C136" s="61">
+      <c r="C136" s="60">
         <v>134</v>
       </c>
-      <c r="D136" s="56"/>
-      <c r="E136" s="57"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="56"/>
       <c r="F136" s="20"/>
       <c r="G136" s="21"/>
       <c r="H136" s="21"/>
@@ -30190,11 +30303,11 @@
     <row r="137" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="47"/>
       <c r="B137" s="15"/>
-      <c r="C137" s="61">
+      <c r="C137" s="60">
         <v>135</v>
       </c>
-      <c r="D137" s="56"/>
-      <c r="E137" s="57"/>
+      <c r="D137" s="55"/>
+      <c r="E137" s="56"/>
       <c r="F137" s="20"/>
       <c r="G137" s="21"/>
       <c r="H137" s="21"/>
@@ -30441,7 +30554,7 @@
     <row r="138" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="47"/>
       <c r="B138" s="15"/>
-      <c r="C138" s="61">
+      <c r="C138" s="60">
         <v>136</v>
       </c>
       <c r="D138" s="40"/>
@@ -30695,7 +30808,7 @@
       <c r="C139" s="16">
         <v>137</v>
       </c>
-      <c r="D139" s="56"/>
+      <c r="D139" s="55"/>
       <c r="E139" s="41"/>
       <c r="F139" s="20"/>
       <c r="G139" s="21"/>
@@ -30946,7 +31059,7 @@
       <c r="C140" s="16">
         <v>138</v>
       </c>
-      <c r="D140" s="56"/>
+      <c r="D140" s="55"/>
       <c r="E140" s="41"/>
       <c r="F140" s="17"/>
       <c r="G140" s="21"/>
@@ -31197,7 +31310,7 @@
       <c r="C141" s="16">
         <v>139</v>
       </c>
-      <c r="D141" s="56"/>
+      <c r="D141" s="55"/>
       <c r="E141" s="41"/>
       <c r="F141" s="17"/>
       <c r="G141" s="21"/>
@@ -31448,7 +31561,7 @@
       <c r="C142" s="16">
         <v>140</v>
       </c>
-      <c r="D142" s="56"/>
+      <c r="D142" s="55"/>
       <c r="E142" s="41"/>
       <c r="F142" s="17"/>
       <c r="G142" s="21"/>
@@ -31699,7 +31812,7 @@
       <c r="C143" s="16">
         <v>141</v>
       </c>
-      <c r="D143" s="56"/>
+      <c r="D143" s="55"/>
       <c r="E143" s="41"/>
       <c r="F143" s="17"/>
       <c r="G143" s="21"/>
@@ -31947,7 +32060,7 @@
     <row r="144" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="47"/>
       <c r="B144" s="15"/>
-      <c r="C144" s="61">
+      <c r="C144" s="60">
         <v>142</v>
       </c>
       <c r="D144" s="40"/>
@@ -32198,7 +32311,7 @@
     <row r="145" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="47"/>
       <c r="B145" s="15"/>
-      <c r="C145" s="61">
+      <c r="C145" s="60">
         <v>143</v>
       </c>
       <c r="D145" s="40"/>
@@ -32449,7 +32562,7 @@
     <row r="146" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="47"/>
       <c r="B146" s="15"/>
-      <c r="C146" s="61">
+      <c r="C146" s="60">
         <v>144</v>
       </c>
       <c r="D146" s="40"/>
@@ -32700,7 +32813,7 @@
     <row r="147" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="47"/>
       <c r="B147" s="15"/>
-      <c r="C147" s="61">
+      <c r="C147" s="60">
         <v>145</v>
       </c>
       <c r="D147" s="40"/>
@@ -32951,7 +33064,7 @@
     <row r="148" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="47"/>
       <c r="B148" s="15"/>
-      <c r="C148" s="61">
+      <c r="C148" s="60">
         <v>146</v>
       </c>
       <c r="D148" s="40"/>
@@ -33202,7 +33315,7 @@
     <row r="149" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="47"/>
       <c r="B149" s="15"/>
-      <c r="C149" s="61">
+      <c r="C149" s="60">
         <v>147</v>
       </c>
       <c r="D149" s="40"/>
@@ -33453,7 +33566,7 @@
     <row r="150" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="47"/>
       <c r="B150" s="15"/>
-      <c r="C150" s="61">
+      <c r="C150" s="60">
         <v>148</v>
       </c>
       <c r="D150" s="40"/>
@@ -33704,10 +33817,10 @@
     <row r="151" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="47"/>
       <c r="B151" s="15"/>
-      <c r="C151" s="61">
+      <c r="C151" s="60">
         <v>149</v>
       </c>
-      <c r="D151" s="56"/>
+      <c r="D151" s="55"/>
       <c r="E151" s="23"/>
       <c r="F151" s="20"/>
       <c r="G151" s="21"/>
@@ -33955,7 +34068,7 @@
     <row r="152" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="47"/>
       <c r="B152" s="15"/>
-      <c r="C152" s="61">
+      <c r="C152" s="60">
         <v>150</v>
       </c>
       <c r="D152" s="40"/>
@@ -34206,7 +34319,7 @@
     <row r="153" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="47"/>
       <c r="B153" s="15"/>
-      <c r="C153" s="61">
+      <c r="C153" s="60">
         <v>151</v>
       </c>
       <c r="D153" s="40"/>
@@ -34457,7 +34570,7 @@
     <row r="154" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="47"/>
       <c r="B154" s="15"/>
-      <c r="C154" s="61">
+      <c r="C154" s="60">
         <v>152</v>
       </c>
       <c r="D154" s="40"/>
@@ -34708,7 +34821,7 @@
     <row r="155" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="47"/>
       <c r="B155" s="15"/>
-      <c r="C155" s="61">
+      <c r="C155" s="60">
         <v>153</v>
       </c>
       <c r="D155" s="40"/>
@@ -34959,7 +35072,7 @@
     <row r="156" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="47"/>
       <c r="B156" s="15"/>
-      <c r="C156" s="61">
+      <c r="C156" s="60">
         <v>154</v>
       </c>
       <c r="D156" s="40"/>
@@ -35210,7 +35323,7 @@
     <row r="157" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="47"/>
       <c r="B157" s="15"/>
-      <c r="C157" s="61">
+      <c r="C157" s="60">
         <v>155</v>
       </c>
       <c r="D157" s="40"/>
@@ -35461,7 +35574,7 @@
     <row r="158" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="47"/>
       <c r="B158" s="15"/>
-      <c r="C158" s="61">
+      <c r="C158" s="60">
         <v>156</v>
       </c>
       <c r="D158" s="40"/>
@@ -35712,10 +35825,10 @@
     <row r="159" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="47"/>
       <c r="B159" s="15"/>
-      <c r="C159" s="61">
+      <c r="C159" s="60">
         <v>157</v>
       </c>
-      <c r="D159" s="56"/>
+      <c r="D159" s="55"/>
       <c r="E159" s="23"/>
       <c r="F159" s="20"/>
       <c r="G159" s="21"/>
@@ -35963,7 +36076,7 @@
     <row r="160" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="47"/>
       <c r="B160" s="15"/>
-      <c r="C160" s="61">
+      <c r="C160" s="60">
         <v>158</v>
       </c>
       <c r="D160" s="40"/>
@@ -36214,7 +36327,7 @@
     <row r="161" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="47"/>
       <c r="B161" s="15"/>
-      <c r="C161" s="61">
+      <c r="C161" s="60">
         <v>159</v>
       </c>
       <c r="D161" s="40"/>
@@ -36465,7 +36578,7 @@
     <row r="162" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="47"/>
       <c r="B162" s="15"/>
-      <c r="C162" s="61">
+      <c r="C162" s="60">
         <v>160</v>
       </c>
       <c r="D162" s="40"/>
@@ -36716,7 +36829,7 @@
     <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="47"/>
       <c r="B163" s="15"/>
-      <c r="C163" s="61">
+      <c r="C163" s="60">
         <v>161</v>
       </c>
       <c r="D163" s="40"/>
@@ -36967,7 +37080,7 @@
     <row r="164" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="47"/>
       <c r="B164" s="15"/>
-      <c r="C164" s="61">
+      <c r="C164" s="60">
         <v>162</v>
       </c>
       <c r="D164" s="40"/>
@@ -37218,7 +37331,7 @@
     <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="47"/>
       <c r="B165" s="15"/>
-      <c r="C165" s="61"/>
+      <c r="C165" s="60"/>
       <c r="D165" s="40"/>
       <c r="E165" s="41"/>
       <c r="F165" s="20"/>
@@ -37467,7 +37580,7 @@
     <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="47"/>
       <c r="B166" s="15"/>
-      <c r="C166" s="61"/>
+      <c r="C166" s="60"/>
       <c r="D166" s="40"/>
       <c r="E166" s="41"/>
       <c r="F166" s="20"/>
@@ -37716,7 +37829,7 @@
     <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="47"/>
       <c r="B167" s="15"/>
-      <c r="C167" s="61"/>
+      <c r="C167" s="60"/>
       <c r="D167" s="40"/>
       <c r="E167" s="41"/>
       <c r="F167" s="20"/>
@@ -37965,7 +38078,7 @@
     <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="47"/>
       <c r="B168" s="43"/>
-      <c r="C168" s="61"/>
+      <c r="C168" s="60"/>
       <c r="D168" s="40"/>
       <c r="E168" s="41"/>
       <c r="F168" s="20"/>
@@ -38214,7 +38327,7 @@
     <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="47"/>
       <c r="B169" s="15"/>
-      <c r="C169" s="61"/>
+      <c r="C169" s="60"/>
       <c r="D169" s="40"/>
       <c r="E169" s="41"/>
       <c r="F169" s="20"/>
@@ -38465,7 +38578,7 @@
       <c r="B170" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="63"/>
+      <c r="C170" s="62"/>
       <c r="D170" s="31"/>
       <c r="E170" s="32"/>
       <c r="F170" s="33">
@@ -38474,7 +38587,7 @@
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-974.01</v>
+        <v>-1293.44</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -38484,11 +38597,11 @@
         <f>SUM(I3:I169)</f>
         <v>0</v>
       </c>
-      <c r="J170" s="52">
+      <c r="J170" s="51">
         <f>SUM(J3:J169)</f>
         <v>0</v>
       </c>
-      <c r="K170" s="51"/>
+      <c r="K170" s="50"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="IM170"/>
@@ -40407,932 +40520,932 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 A85:A235 C110:D110 D126:E126 B127 C123:D123 E11 E17 E26 E42 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163">
-    <cfRule type="cellIs" dxfId="190" priority="288" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="290" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="189" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="188" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="187" priority="219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="186" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="185" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="184" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="183" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="182" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="181" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="180" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="179" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="178" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="177" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="176" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="185" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="181" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="180" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="179" priority="180" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="178" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="177" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="176" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="175" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="174" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="173" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="172" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="171" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="170" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="169" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="168" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="167" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="166" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="165" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="164" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="163" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="162" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="161" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="160" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="159" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="158" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="157" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="156" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="155" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="154" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="153" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="152" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="151" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="150" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="149" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="148" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="147" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="146" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="145" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="144" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="143" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="142" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="141" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="140" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="139" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="138" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="137" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="136" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="135" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="134" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="133" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="132" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="131" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="130" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="129" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="128" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="127" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="126" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="125" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="124" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="123" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="122" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="121" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="120" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="119" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="118" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="117" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="116" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="115" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="114" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="113" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="112" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="107" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="106" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="105" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="97" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="96" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="95" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="94" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="93" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="92" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="90" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="82" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="81" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="80" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="79" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="78" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="77" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="76" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="75" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="74" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="73" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="72" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="71" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="70" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="69" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="68" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="67" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="66" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="65" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="64" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="63" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="61" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="57" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="56" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="55" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="52" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="51" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="40" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="39" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="38" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="37" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="31" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="30" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="28" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="27" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="20" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="18" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="175" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="174" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="173" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="172" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="171" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="170" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="169" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="168" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="167" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="166" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="165" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="164" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="163" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="162" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="161" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="160" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="159" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="158" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="157" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="156" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="155" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="154" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="153" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="152" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="151" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="150" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="149" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="148" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="147" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="146" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="145" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="144" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="143" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="142" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="141" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="140" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="139" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="138" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="137" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="136" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="135" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="134" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="133" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="132" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="131" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="130" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="129" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="128" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="127" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="126" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="125" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="124" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="123" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="122" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="121" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="120" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="119" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="118" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="117" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="116" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="115" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="114" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="113" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="112" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="111" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="110" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="109" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="108" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="107" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="106" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="105" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="104" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="103" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="102" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="101" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="100" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="99" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="98" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="97" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="96" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="95" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="94" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="93" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="92" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="90" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="89" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="87" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="86" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="84" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="82" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="81" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="80" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="79" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="78" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="77" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="75" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="74" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="73" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="72" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="71" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="70" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="69" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="67" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="65" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="63" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="61" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="59" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="57" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="55" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="53" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="51" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="49" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="47" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="45" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="43" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="42" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="40" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="39" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="37" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="36" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="34" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="33" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="16" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E144:E169 E9:E42 E44:E73 E75:E86 E90:E94 E96:E105 E107:E111 E122:E130 E132:E138 E5:E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E144:E169 E5:E7 E44:E73 E75:E86 E90:E94 E96:E105 E107:E111 E122:E130 E132:E138 E9:E42">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89 E106 E112:E113 E139:E143">
@@ -41371,7 +41484,7 @@
     <col min="5" max="5" width="32.42578125" style="39" customWidth="1"/>
     <col min="6" max="6" width="16" style="39" customWidth="1"/>
     <col min="7" max="7" width="32" style="39" customWidth="1"/>
-    <col min="8" max="8" width="11" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="66" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="39" customWidth="1"/>
     <col min="11" max="13" width="5" style="39" customWidth="1"/>
@@ -41412,16 +41525,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
       <c r="C2"/>
@@ -41431,29 +41544,29 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="96" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="74"/>
+      <c r="I3" s="73"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -41511,26 +41624,26 @@
       <c r="BL3"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="92">
         <v>276</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="69">
         <v>1544.25</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70">
+      <c r="E4" s="69"/>
+      <c r="F4" s="69">
         <v>30</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="75">
+      <c r="G4" s="78"/>
+      <c r="H4" s="74">
         <f t="shared" ref="H4:H10" si="0">SUM(C4:G4)</f>
         <v>1850.25</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="75" t="s">
         <v>27</v>
       </c>
       <c r="J4"/>
@@ -41590,22 +41703,22 @@
       <c r="BL4"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="90" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="71">
+      <c r="C5" s="93"/>
+      <c r="D5" s="70">
         <v>1228.46</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="75">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="74">
         <f t="shared" si="0"/>
         <v>1228.46</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="75" t="s">
         <v>22</v>
       </c>
       <c r="J5"/>
@@ -41665,24 +41778,24 @@
       <c r="BL5"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="93">
         <v>13.3</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="70">
         <v>305</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="75">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="74">
         <f t="shared" si="0"/>
         <v>318.3</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="75" t="s">
         <v>14</v>
       </c>
       <c r="J6"/>
@@ -41742,26 +41855,26 @@
       <c r="BL6"/>
     </row>
     <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="90" t="s">
+      <c r="A7" s="86"/>
+      <c r="B7" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="93">
         <v>1172.54</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="70">
         <v>2600</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71">
+      <c r="E7" s="70"/>
+      <c r="F7" s="70">
         <v>450</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="75">
+      <c r="G7" s="79"/>
+      <c r="H7" s="74">
         <f t="shared" si="0"/>
         <v>4222.54</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="75" t="s">
         <v>13</v>
       </c>
       <c r="J7"/>
@@ -41821,22 +41934,22 @@
       <c r="BL7"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="93">
         <v>5684.130000000001</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="75">
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="74">
         <f t="shared" si="0"/>
         <v>5684.130000000001</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="75" t="s">
         <v>0</v>
       </c>
       <c r="J8"/>
@@ -41896,22 +42009,22 @@
       <c r="BL8"/>
     </row>
     <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="90" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="93">
         <v>840</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="75">
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="74">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="75" t="s">
         <v>19</v>
       </c>
       <c r="J9"/>
@@ -41971,22 +42084,22 @@
       <c r="BL9"/>
     </row>
     <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="90" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="93">
         <v>4099.8</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="75">
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="74">
         <f t="shared" si="0"/>
         <v>4099.8</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="75" t="s">
         <v>45</v>
       </c>
       <c r="J10"/>
@@ -42047,21 +42160,21 @@
     </row>
     <row r="11" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="80">
+      <c r="C11" s="93"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="79">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="83">
         <f>SUM(C11:G11)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="81" t="s">
         <v>25</v>
       </c>
       <c r="J11"/>
@@ -42122,27 +42235,27 @@
     </row>
     <row r="12" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49"/>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="95">
+      <c r="C12" s="94">
         <v>12085.77</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="71">
         <v>5677.71</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72">
+      <c r="E12" s="71"/>
+      <c r="F12" s="71">
         <v>480</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="80">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="84">
         <f>SUM(C12:G12)</f>
         <v>18243.55</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="85" t="s">
         <v>54</v>
       </c>
       <c r="J12"/>
@@ -42209,7 +42322,7 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="I13" s="83"/>
+      <c r="I13" s="82"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -42528,7 +42641,7 @@
     </row>
     <row r="18" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49"/>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="67" t="s">
         <v>2</v>
       </c>
       <c r="C18"/>
@@ -42538,250 +42651,250 @@
     </row>
     <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="78" t="s">
+      <c r="G19" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="69">
         <v>-68.569999999999993</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="75">
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="74">
         <f t="shared" ref="H20:H28" si="1">SUM(C20:G20)</f>
         <v>-68.569999999999993</v>
       </c>
-      <c r="I20" s="76" t="s">
+      <c r="I20" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="71">
+      <c r="C21" s="70">
         <v>-481.97</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="70">
         <v>-67.75</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="75">
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="74">
         <f t="shared" si="1"/>
         <v>-549.72</v>
       </c>
-      <c r="I21" s="76" t="s">
+      <c r="I21" s="75" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71">
+      <c r="C22" s="70"/>
+      <c r="D22" s="70">
         <v>-144</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="75">
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="74">
         <f t="shared" si="1"/>
         <v>-144</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="I22" s="75" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="70">
         <v>-155.25</v>
       </c>
-      <c r="D23" s="71">
+      <c r="D23" s="70">
         <v>-3164.71</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71">
+      <c r="E23" s="70"/>
+      <c r="F23" s="70">
         <v>-164.21</v>
       </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="75">
+      <c r="G23" s="79"/>
+      <c r="H23" s="74">
         <f t="shared" si="1"/>
         <v>-3484.17</v>
       </c>
-      <c r="I23" s="76" t="s">
+      <c r="I23" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="70">
         <v>-572.25</v>
       </c>
-      <c r="D24" s="71">
+      <c r="D24" s="70">
         <v>-267.2</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="80">
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="79">
         <v>-0.02</v>
       </c>
-      <c r="H24" s="75">
+      <c r="H24" s="74">
         <f t="shared" si="1"/>
         <v>-839.47</v>
       </c>
-      <c r="I24" s="76" t="s">
+      <c r="I24" s="75" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="70">
         <v>-300</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="70">
         <v>-250</v>
       </c>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="75">
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="74">
         <f t="shared" si="1"/>
         <v>-550</v>
       </c>
-      <c r="I25" s="76" t="s">
+      <c r="I25" s="75" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="70">
         <v>-1654.16</v>
       </c>
-      <c r="D26" s="71">
+      <c r="D26" s="70">
         <v>-1015.2800000000001</v>
       </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="75">
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="74">
         <f t="shared" si="1"/>
         <v>-2669.44</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="75" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="70">
         <v>-786.21</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="70">
         <v>-1241.58</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="75">
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="74">
         <f t="shared" si="1"/>
         <v>-2027.79</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="49"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="71">
+      <c r="C28" s="70">
         <v>-5533.93</v>
       </c>
-      <c r="D28" s="71">
+      <c r="D28" s="70">
         <v>-1508.6599999999999</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="84">
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="83">
         <f t="shared" si="1"/>
         <v>-7042.59</v>
       </c>
-      <c r="I28" s="82" t="s">
+      <c r="I28" s="81" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="71">
         <v>-9552.34</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="71">
         <v>-7659.1799999999994</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72">
+      <c r="E29" s="71"/>
+      <c r="F29" s="71">
         <v>-164.21</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="80">
         <v>-0.02</v>
       </c>
-      <c r="H29" s="85">
+      <c r="H29" s="84">
         <f>SUM(C29:G29)</f>
         <v>-17375.75</v>
       </c>
-      <c r="I29" s="86" t="s">
+      <c r="I29" s="85" t="s">
         <v>55</v>
       </c>
     </row>
@@ -42792,7 +42905,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="I30" s="83"/>
+      <c r="I30" s="82"/>
     </row>
     <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
@@ -42801,7 +42914,7 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="I31" s="83"/>
+      <c r="I31" s="82"/>
     </row>
     <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32"/>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -19,14 +19,14 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>Awo Zeitung</t>
+  </si>
+  <si>
+    <t>Miete Feb.</t>
+  </si>
+  <si>
+    <t>Awo Urkunden</t>
+  </si>
+  <si>
+    <t>Trauerk D.Hauser</t>
+  </si>
+  <si>
+    <t>80er Dr. Schneider</t>
+  </si>
+  <si>
+    <t>Inge Blumen</t>
   </si>
 </sst>
 </file>
@@ -953,17 +968,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="324">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="322">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4970,7 +4975,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B19:G29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5058,17 +5063,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="8">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5082,7 +5087,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:G12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -5166,17 +5171,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="13">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6301,7 +6306,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8020,11 +8025,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>61.829999999999586</v>
+        <v>-60.170000000000414</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>11718.210000000008</v>
+        <v>11423.710000000008</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8062,7 +8067,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>15305.040000000008</v>
+        <v>14888.540000000008</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8863,37 +8868,37 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7">
-    <cfRule type="cellIs" dxfId="323" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="322" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="321" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="320" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="319" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="318" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="317" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9478,12 +9483,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9521,8 +9526,8 @@
   <dimension ref="A1:IM236"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9976,14 +9981,22 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>43864</v>
+      </c>
       <c r="C17" s="60">
         <v>15</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="21">
+        <v>-12</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="22"/>
@@ -9995,14 +10008,22 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>43864</v>
+      </c>
       <c r="C18" s="60">
         <v>16</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="41"/>
+      <c r="D18" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>-80.5</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="22"/>
@@ -10014,14 +10035,22 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="15">
+        <v>43865</v>
+      </c>
       <c r="C19" s="60">
         <v>17</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="21">
+        <v>-42</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="22"/>
@@ -10033,14 +10062,22 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>43865</v>
+      </c>
       <c r="C20" s="60">
         <v>18</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="21">
+        <v>-160</v>
+      </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
@@ -10050,13 +10087,21 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15">
+        <v>43845</v>
+      </c>
       <c r="C21" s="60">
         <v>19</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="20"/>
+      <c r="D21" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="20">
+        <v>-25</v>
+      </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -10067,13 +10112,21 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15">
+        <v>43866</v>
+      </c>
       <c r="C22" s="60">
         <v>20</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="20"/>
+      <c r="D22" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="20">
+        <v>-25</v>
+      </c>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -10156,9 +10209,13 @@
       <c r="C27" s="60">
         <v>25</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="55" t="s">
+        <v>78</v>
+      </c>
       <c r="E27" s="41"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="20">
+        <v>-72</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -38583,11 +38640,11 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-354.9</v>
+        <v>-476.9</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
-        <v>-1293.44</v>
+        <v>-1587.94</v>
       </c>
       <c r="H170" s="34">
         <f>SUM(H3:H169)</f>
@@ -40520,938 +40577,938 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 A85:A235 C110:D110 D126:E126 B127 C123:D123 E11 E17 E26 E42 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163">
-    <cfRule type="cellIs" dxfId="198" priority="290" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="197" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="283" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="196" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="195" priority="221" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="194" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="193" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="192" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="191" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="195" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="190" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="189" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="188" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="187" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="186" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="185" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="184" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="181" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="180" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="179" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="176" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="174" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="173" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="172" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="171" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="170" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="169" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="168" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="167" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="166" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="165" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="164" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="163" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="162" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="161" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="160" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="159" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="158" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="157" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="156" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="155" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="154" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="153" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="152" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="151" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="150" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="149" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="148" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="147" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="146" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="145" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="144" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="143" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="142" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="141" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="140" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="139" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="138" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="137" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="136" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="135" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="134" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="133" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="132" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="131" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="130" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="129" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="128" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="126" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="125" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="124" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="123" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="122" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="121" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="120" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="119" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="118" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="117" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="116" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="115" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="114" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="113" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="112" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="111" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="110" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="109" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="108" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="107" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="106" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="105" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="103" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="92" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="90" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="88" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="86" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="84" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="82" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="78" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="75" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="72" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="43" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="29" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="27" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="21" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="178" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="177" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="176" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="175" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="174" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="173" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="172" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="171" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="170" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="169" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="168" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="167" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="166" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="165" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="164" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="163" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="162" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="161" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="160" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="159" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="158" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="157" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="156" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="155" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="154" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="153" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="152" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="151" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="150" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="149" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="148" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="147" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="146" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="145" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="144" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="143" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="142" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="141" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="140" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="139" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="138" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="137" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="136" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="135" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="134" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="133" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="132" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="131" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="130" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="129" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="128" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="127" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="126" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="125" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="124" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="123" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="122" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="121" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="120" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="119" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="118" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="117" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="116" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="115" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="114" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="113" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="112" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="107" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="106" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="105" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="97" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="96" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="95" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="94" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="93" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="92" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="90" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="82" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="81" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="80" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="79" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="78" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="77" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="76" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="75" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="74" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="73" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="72" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="71" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="70" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="69" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="68" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="67" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="66" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="65" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="64" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="63" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="61" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="58" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="57" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="56" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="55" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="54" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="53" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="52" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="51" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="40" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="39" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="38" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="37" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="31" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="30" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="28" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="27" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="22" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="20" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="18" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E144:E169 E5:E7 E44:E73 E75:E86 E90:E94 E96:E105 E107:E111 E122:E130 E132:E138 E9:E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E144:E169 E5:E7 E44:E73 E75:E86 E90:E94 E96:E105 E107:E111 E122:E130 E132:E138 E9:E18 E21:E42">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89 E106 E112:E113 E139:E143">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E3:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E3:E4 E19:E20">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -265,6 +265,30 @@
   </si>
   <si>
     <t>Inge Blumen</t>
+  </si>
+  <si>
+    <t>t.z.g.l. 14.1.</t>
+  </si>
+  <si>
+    <t>t.z.g.l. 28.1.</t>
+  </si>
+  <si>
+    <t>t.z.g.l. 19.1. fam.klemm</t>
+  </si>
+  <si>
+    <t>t.z.g.l. 6.2. jahrgang</t>
+  </si>
+  <si>
+    <t>t.z.g.l. 17.1.</t>
+  </si>
+  <si>
+    <t>anonyme spende</t>
+  </si>
+  <si>
+    <t>spende fr.walchner</t>
+  </si>
+  <si>
+    <t>Einzahlung auf Konto</t>
   </si>
 </sst>
 </file>
@@ -968,7 +992,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="322">
+  <dxfs count="326">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -5063,17 +5107,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="8">
+    <format dxfId="12">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5171,17 +5215,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="11">
+    <format dxfId="15">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6304,9 +6348,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6503,13 +6547,21 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="15">
+        <v>43868</v>
+      </c>
       <c r="B8" s="60">
         <v>5</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>199.04</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -6520,13 +6572,21 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="15">
+        <v>43868</v>
+      </c>
       <c r="B9" s="60">
         <v>6</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>166.62</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -6537,13 +6597,21 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15">
+        <v>43868</v>
+      </c>
       <c r="B10" s="60">
         <v>7</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>66.400000000000006</v>
+      </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -6554,13 +6622,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="15">
+        <v>43868</v>
+      </c>
       <c r="B11" s="60">
         <v>8</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>75.099999999999994</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -6571,13 +6647,21 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="15">
+        <v>43868</v>
+      </c>
       <c r="B12" s="60">
         <v>9</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>85.8</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -6588,13 +6672,21 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="15">
+        <v>43868</v>
+      </c>
       <c r="B13" s="60">
         <v>10</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="17">
+        <v>30</v>
+      </c>
       <c r="F13" s="58"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -6605,13 +6697,21 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="15">
+        <v>43868</v>
+      </c>
       <c r="B14" s="60">
         <v>11</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17">
+        <v>72</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -6622,14 +6722,22 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="15">
+        <v>43868</v>
+      </c>
       <c r="B15" s="60">
         <v>12</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="18">
+        <v>490</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
@@ -7982,11 +8090,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>416.72999999999956</v>
+        <v>1111.6899999999996</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>13011.650000000009</v>
+        <v>13501.650000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8025,11 +8133,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F170</f>
-        <v>-60.170000000000414</v>
+        <v>14.129999999999654</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G170</f>
-        <v>11423.710000000008</v>
+        <v>11913.710000000008</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -8067,7 +8175,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>14888.540000000008</v>
+        <v>15452.840000000007</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8868,641 +8976,641 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7">
-    <cfRule type="cellIs" dxfId="321" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="320" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="319" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="318" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="317" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="316" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="315" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="318" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="317" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="316" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="314" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="313" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
+  <conditionalFormatting sqref="E13">
     <cfRule type="cellIs" dxfId="312" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="311" priority="123" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="310" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="310" priority="122" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="309" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="307" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="306" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="305" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="304" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="303" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="302" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="301" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="300" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="299" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="298" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="297" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="296" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="295" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="294" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="293" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="292" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="291" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="290" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="289" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="288" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="287" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="286" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="285" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="284" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="283" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="282" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="281" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="280" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="279" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="278" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="277" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="276" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="275" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="274" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="273" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="272" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="271" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="270" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="269" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="268" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="267" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="266" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="265" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="264" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="263" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="262" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="261" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="260" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="259" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="258" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="257" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="256" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="255" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="254" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="253" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="252" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="251" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="250" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="249" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="248" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="247" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="246" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="245" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="244" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="243" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="242" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="241" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="240" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:E69">
+    <cfRule type="cellIs" dxfId="239" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="238" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="237" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="236" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="235" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="234" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="233" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="232" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="231" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="230" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="229" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="228" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="227" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="226" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="225" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="cellIs" dxfId="224" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="223" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="222" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="221" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="220" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="219" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="218" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="217" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="216" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="215" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="214" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:E90">
+    <cfRule type="cellIs" dxfId="213" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:D92">
+    <cfRule type="cellIs" dxfId="212" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="cellIs" dxfId="211" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="210" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="cellIs" dxfId="209" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:E96">
+    <cfRule type="cellIs" dxfId="208" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="207" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="206" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:D98">
+    <cfRule type="cellIs" dxfId="205" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="204" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="203" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="202" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="201" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="309" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="308" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="307" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="306" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="305" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="304" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="303" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="302" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="301" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="300" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="299" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="298" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="297" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="296" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="295" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="294" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="293" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="292" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="291" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="290" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="289" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="288" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="287" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="286" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="285" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="284" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="283" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="282" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="281" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="280" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="279" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="278" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="277" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="276" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="275" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="274" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="273" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="272" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="271" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="270" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="269" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="268" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="267" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="266" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="265" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="264" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="263" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="262" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="261" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="260" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="259" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="258" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="257" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="256" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="255" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="254" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="253" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="252" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="251" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="250" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="249" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="248" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="247" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="246" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="245" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="244" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="243" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="242" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="241" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="240" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="239" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="238" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="237" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="236" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="235" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="234" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="233" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="232" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="231" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="230" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="229" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="228" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="227" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="226" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="225" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="224" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="223" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="222" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="221" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="220" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="219" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="218" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="217" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="216" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="215" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="214" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="213" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="212" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="211" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="210" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="209" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="208" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="207" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="206" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="205" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="204" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="203" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="202" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="201" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="200" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="199" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="198" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="197" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D11:D13 D15:D20 D22:D24 D53 D55 D57:D61 D67 D71:D72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D22:D24 D53 D55 D57:D61 D16:D20">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D14 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D14">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98 D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98 D4 D15">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -9525,9 +9633,9 @@
   </sheetPr>
   <dimension ref="A1:IM236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10137,13 +10245,21 @@
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="15">
+        <v>43868</v>
+      </c>
       <c r="C23" s="16">
         <v>21</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="17"/>
+      <c r="D23" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>-70.040000000000006</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -10154,13 +10270,21 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15">
+        <v>43868</v>
+      </c>
       <c r="C24" s="16">
         <v>22</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="17"/>
+      <c r="D24" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <v>-60.62</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -10171,13 +10295,21 @@
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15">
+        <v>43868</v>
+      </c>
       <c r="C25" s="60">
         <v>23</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="20"/>
+      <c r="D25" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="20">
+        <v>-490</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -38640,7 +38772,7 @@
       <c r="E170" s="32"/>
       <c r="F170" s="33">
         <f>SUM(F3:F169)</f>
-        <v>-476.9</v>
+        <v>-1097.56</v>
       </c>
       <c r="G170" s="34">
         <f>SUM(G3:G169)</f>
@@ -40577,927 +40709,927 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 A85:A235 C110:D110 D126:E126 B127 C123:D123 E11 E17 E26 E42 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163">
-    <cfRule type="cellIs" dxfId="196" priority="293" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="294" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="195" priority="283" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="194" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="246" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="193" priority="224" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="225" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="192" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="191" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="190" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="189" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="188" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="195" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="187" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="186" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="185" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="184" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="183" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="182" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="181" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="180" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="179" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="176" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="174" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="173" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="172" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="171" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="176" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="175" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="174" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="173" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="172" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="171" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="170" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="169" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="168" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="167" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="166" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="165" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="164" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="163" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="162" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="161" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="160" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="159" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="158" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="157" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="156" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="155" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="154" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="153" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="152" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="151" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="150" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="149" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="148" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="147" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="146" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="145" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="144" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="143" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="142" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="141" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="140" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="139" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="138" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="137" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="136" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="135" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="134" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="133" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="132" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="131" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="130" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="129" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="128" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="127" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="126" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="125" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="124" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="123" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="122" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="121" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="120" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="119" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="118" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="117" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="116" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="115" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="114" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="113" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="112" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="111" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="110" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="109" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="108" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="107" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="106" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="105" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="104" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="103" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="102" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="101" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="100" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="99" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="98" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="97" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="96" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="95" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="94" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111">
+    <cfRule type="cellIs" dxfId="93" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="92" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="90" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="89" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="88" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="87" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="86" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="85" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="84" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="83" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="82" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="81" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122">
+    <cfRule type="cellIs" dxfId="80" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="79" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="78" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="77" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="76" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="75" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="74" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="72" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:D128">
+    <cfRule type="cellIs" dxfId="71" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="70" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="69" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="68" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130">
+    <cfRule type="cellIs" dxfId="67" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="66" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="65" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="64" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:C134">
+    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="62" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="cellIs" dxfId="61" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="59" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="57" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139">
+    <cfRule type="cellIs" dxfId="56" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="55" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="54" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="53" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="52" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="51" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="50" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="49" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="48" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145:E145">
+    <cfRule type="cellIs" dxfId="47" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="46" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:E148">
+    <cfRule type="cellIs" dxfId="45" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="cellIs" dxfId="44" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="43" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="cellIs" dxfId="42" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="41" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="40" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D155">
+    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="38" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="37" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="36" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157:E157">
+    <cfRule type="cellIs" dxfId="35" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="cellIs" dxfId="34" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:D158">
+    <cfRule type="cellIs" dxfId="33" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="cellIs" dxfId="32" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159">
+    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E163">
+    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="170" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="169" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="168" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="167" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="166" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="165" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="164" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="163" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="162" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="161" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="160" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="159" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="158" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="157" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="156" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="155" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="154" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="153" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="152" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="151" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="150" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="149" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="148" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="147" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="146" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="145" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="144" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="143" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="142" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="141" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="140" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="139" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="138" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="137" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="136" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="135" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="134" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="133" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="132" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="131" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="130" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="129" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="128" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="126" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="125" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="124" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="123" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="122" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="121" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="120" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="119" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="118" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="117" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="116" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="115" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="114" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="113" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="112" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="111" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="110" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="109" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="108" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="107" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="106" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="105" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="104" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="103" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="102" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="101" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="100" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="99" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="98" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="97" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="96" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="94" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="92" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="90" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="88" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="86" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="84" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="82" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="80" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="79" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="78" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="77" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="76" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="75" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="74" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="72" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="71" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="70" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="68" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="67" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="66" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="43" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="31" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="30" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="29" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="27" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="25" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="24" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="23" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="21" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Gesamt" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$100</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$170</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$171</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$109</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="95">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -289,6 +289,30 @@
   </si>
   <si>
     <t>Einzahlung auf Konto</t>
+  </si>
+  <si>
+    <t>Telekom Feb</t>
+  </si>
+  <si>
+    <t>Zinsen Einlage Kreis AwoBB</t>
+  </si>
+  <si>
+    <t>Beitrag Vereinsring</t>
+  </si>
+  <si>
+    <t>Jubiläumsfeier Rössle</t>
+  </si>
+  <si>
+    <t>Miete Mtz.</t>
+  </si>
+  <si>
+    <t>Wein Jubiläum</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>WGV</t>
   </si>
 </sst>
 </file>
@@ -992,152 +1016,11 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="326">
+  <dxfs count="341">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2689,6 +2572,222 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -2770,7 +2869,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wildner" refreshedDate="43833.744825231479" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="167">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E2:J169" sheet="Ausgaben"/>
+    <worksheetSource ref="E2:J170" sheet="Ausgaben"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -5107,17 +5206,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="12">
+    <format dxfId="337">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="336">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="335">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5215,17 +5314,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="15">
+    <format dxfId="340">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="339">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="338">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6348,9 +6447,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6747,14 +6846,22 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="15">
+        <v>43885</v>
+      </c>
       <c r="B16" s="60">
         <v>13</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="18">
+        <v>250</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
@@ -8094,7 +8201,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>13501.650000000009</v>
+        <v>13751.650000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8132,23 +8239,23 @@
       <c r="C107" s="25"/>
       <c r="D107" s="52"/>
       <c r="E107" s="28">
-        <f>E105+Ausgaben!F170</f>
+        <f>E105+Ausgaben!F171</f>
         <v>14.129999999999654</v>
       </c>
       <c r="F107" s="28">
-        <f>F105+Ausgaben!G170</f>
-        <v>11913.710000000008</v>
+        <f>F105+Ausgaben!G171</f>
+        <v>11459.180000000008</v>
       </c>
       <c r="G107" s="28">
-        <f>G105+Ausgaben!H170</f>
+        <f>G105+Ausgaben!H171</f>
         <v>2000.5</v>
       </c>
       <c r="H107" s="28">
-        <f>H105+Ausgaben!I170</f>
-        <v>575.29</v>
+        <f>H105+Ausgaben!I171</f>
+        <v>411.88</v>
       </c>
       <c r="I107" s="29">
-        <f>I105+Ausgaben!J170</f>
+        <f>I105+Ausgaben!J171</f>
         <v>949.21</v>
       </c>
       <c r="J107" s="2"/>
@@ -8175,7 +8282,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>15452.840000000007</v>
+        <v>14834.900000000005</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8976,635 +9083,635 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7">
-    <cfRule type="cellIs" dxfId="325" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="324" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="323" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="322" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="321" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="320" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="319" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="318" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="317" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="316" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="314" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="312" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="310" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="309" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="307" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="307" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="305" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="304" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="303" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="302" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="301" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="300" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="299" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="298" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="297" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="296" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="295" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="294" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="293" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="292" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="291" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="290" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="289" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="288" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="287" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="286" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="285" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="284" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="283" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="282" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="281" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="280" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="279" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="278" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="277" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="276" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="275" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="274" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="273" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="272" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="271" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="270" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="269" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="268" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="267" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="266" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="265" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="264" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="263" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="262" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="261" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="260" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="259" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="258" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="257" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="256" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="255" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="254" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="253" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="252" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="251" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="250" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="249" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="248" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="247" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="246" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="245" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="244" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="243" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="242" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="241" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:E69">
+    <cfRule type="cellIs" dxfId="240" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="239" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="238" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="237" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="236" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="235" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="234" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="233" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="232" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="231" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="230" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="229" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="228" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="227" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="226" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="cellIs" dxfId="225" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="224" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="223" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="222" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="221" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="220" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="219" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="218" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="217" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="216" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="215" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:E90">
+    <cfRule type="cellIs" dxfId="214" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:D92">
+    <cfRule type="cellIs" dxfId="213" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="cellIs" dxfId="212" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="211" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="cellIs" dxfId="210" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:E96">
+    <cfRule type="cellIs" dxfId="209" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="208" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="207" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:D98">
+    <cfRule type="cellIs" dxfId="206" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="205" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="204" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="203" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="202" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="201" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="200" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="199" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="198" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="306" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="305" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="304" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="303" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="302" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="301" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="300" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="299" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="298" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="297" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="296" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="295" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="294" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="293" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="292" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="291" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="290" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="289" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="288" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="287" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="286" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="285" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="284" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="283" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="282" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="281" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="280" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="279" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="278" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="277" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="276" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="275" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="274" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="273" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="272" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="271" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="270" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="269" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="268" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="267" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="266" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="265" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="264" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="263" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="262" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="261" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="260" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="259" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="258" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="257" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="256" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="255" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="254" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="253" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="252" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="251" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="250" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="249" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="248" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="247" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="246" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="245" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="244" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="243" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="242" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="241" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="240" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="239" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="238" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="237" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="236" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="235" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="234" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="233" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="232" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="231" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="230" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="229" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="228" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="227" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="226" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="225" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="224" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="223" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="222" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="221" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="220" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="219" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="218" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="217" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="216" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="215" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="214" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="213" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="212" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="211" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="210" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="209" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="208" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="207" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="206" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="205" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="204" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="203" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="202" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="201" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D22:D24 D53 D55 D57:D61 D16:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D22:D24 D53 D55 D57:D61 D17:D20">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D14 D16">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
@@ -9631,11 +9738,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:IM236"/>
+  <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9655,7 +9762,7 @@
     <col min="14" max="247" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
       <c r="B1" s="101" t="s">
         <v>2</v>
@@ -9674,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:247" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -9709,7 +9816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="15">
         <v>43833</v>
@@ -9736,7 +9843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="15">
         <v>43833</v>
@@ -9763,50 +9870,282 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
-      <c r="B5" s="43">
-        <v>43837</v>
-      </c>
-      <c r="C5" s="60">
-        <v>3</v>
+      <c r="B5" s="15">
+        <v>43832</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>93</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>28</v>
+        <v>94</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="21">
-        <v>-400</v>
-      </c>
+      <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21">
+        <v>-163.41</v>
+      </c>
       <c r="J5" s="22"/>
       <c r="K5" s="4"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="53"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="39"/>
+      <c r="BM5" s="39"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="39"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="39"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="39"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="39"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="39"/>
+      <c r="BX5" s="39"/>
+      <c r="BY5" s="39"/>
+      <c r="BZ5" s="39"/>
+      <c r="CA5" s="39"/>
+      <c r="CB5" s="39"/>
+      <c r="CC5" s="39"/>
+      <c r="CD5" s="39"/>
+      <c r="CE5" s="39"/>
+      <c r="CF5" s="39"/>
+      <c r="CG5" s="39"/>
+      <c r="CH5" s="39"/>
+      <c r="CI5" s="39"/>
+      <c r="CJ5" s="39"/>
+      <c r="CK5" s="39"/>
+      <c r="CL5" s="39"/>
+      <c r="CM5" s="39"/>
+      <c r="CN5" s="39"/>
+      <c r="CO5" s="39"/>
+      <c r="CP5" s="39"/>
+      <c r="CQ5" s="39"/>
+      <c r="CR5" s="39"/>
+      <c r="CS5" s="39"/>
+      <c r="CT5" s="39"/>
+      <c r="CU5" s="39"/>
+      <c r="CV5" s="39"/>
+      <c r="CW5" s="39"/>
+      <c r="CX5" s="39"/>
+      <c r="CY5" s="39"/>
+      <c r="CZ5" s="39"/>
+      <c r="DA5" s="39"/>
+      <c r="DB5" s="39"/>
+      <c r="DC5" s="39"/>
+      <c r="DD5" s="39"/>
+      <c r="DE5" s="39"/>
+      <c r="DF5" s="39"/>
+      <c r="DG5" s="39"/>
+      <c r="DH5" s="39"/>
+      <c r="DI5" s="39"/>
+      <c r="DJ5" s="39"/>
+      <c r="DK5" s="39"/>
+      <c r="DL5" s="39"/>
+      <c r="DM5" s="39"/>
+      <c r="DN5" s="39"/>
+      <c r="DO5" s="39"/>
+      <c r="DP5" s="39"/>
+      <c r="DQ5" s="39"/>
+      <c r="DR5" s="39"/>
+      <c r="DS5" s="39"/>
+      <c r="DT5" s="39"/>
+      <c r="DU5" s="39"/>
+      <c r="DV5" s="39"/>
+      <c r="DW5" s="39"/>
+      <c r="DX5" s="39"/>
+      <c r="DY5" s="39"/>
+      <c r="DZ5" s="39"/>
+      <c r="EA5" s="39"/>
+      <c r="EB5" s="39"/>
+      <c r="EC5" s="39"/>
+      <c r="ED5" s="39"/>
+      <c r="EE5" s="39"/>
+      <c r="EF5" s="39"/>
+      <c r="EG5" s="39"/>
+      <c r="EH5" s="39"/>
+      <c r="EI5" s="39"/>
+      <c r="EJ5" s="39"/>
+      <c r="EK5" s="39"/>
+      <c r="EL5" s="39"/>
+      <c r="EM5" s="39"/>
+      <c r="EN5" s="39"/>
+      <c r="EO5" s="39"/>
+      <c r="EP5" s="39"/>
+      <c r="EQ5" s="39"/>
+      <c r="ER5" s="39"/>
+      <c r="ES5" s="39"/>
+      <c r="ET5" s="39"/>
+      <c r="EU5" s="39"/>
+      <c r="EV5" s="39"/>
+      <c r="EW5" s="39"/>
+      <c r="EX5" s="39"/>
+      <c r="EY5" s="39"/>
+      <c r="EZ5" s="39"/>
+      <c r="FA5" s="39"/>
+      <c r="FB5" s="39"/>
+      <c r="FC5" s="39"/>
+      <c r="FD5" s="39"/>
+      <c r="FE5" s="39"/>
+      <c r="FF5" s="39"/>
+      <c r="FG5" s="39"/>
+      <c r="FH5" s="39"/>
+      <c r="FI5" s="39"/>
+      <c r="FJ5" s="39"/>
+      <c r="FK5" s="39"/>
+      <c r="FL5" s="39"/>
+      <c r="FM5" s="39"/>
+      <c r="FN5" s="39"/>
+      <c r="FO5" s="39"/>
+      <c r="FP5" s="39"/>
+      <c r="FQ5" s="39"/>
+      <c r="FR5" s="39"/>
+      <c r="FS5" s="39"/>
+      <c r="FT5" s="39"/>
+      <c r="FU5" s="39"/>
+      <c r="FV5" s="39"/>
+      <c r="FW5" s="39"/>
+      <c r="FX5" s="39"/>
+      <c r="FY5" s="39"/>
+      <c r="FZ5" s="39"/>
+      <c r="GA5" s="39"/>
+      <c r="GB5" s="39"/>
+      <c r="GC5" s="39"/>
+      <c r="GD5" s="39"/>
+      <c r="GE5" s="39"/>
+      <c r="GF5" s="39"/>
+      <c r="GG5" s="39"/>
+      <c r="GH5" s="39"/>
+      <c r="GI5" s="39"/>
+      <c r="GJ5" s="39"/>
+      <c r="GK5" s="39"/>
+      <c r="GL5" s="39"/>
+      <c r="GM5" s="39"/>
+      <c r="GN5" s="39"/>
+      <c r="GO5" s="39"/>
+      <c r="GP5" s="39"/>
+      <c r="GQ5" s="39"/>
+      <c r="GR5" s="39"/>
+      <c r="GS5" s="39"/>
+      <c r="GT5" s="39"/>
+      <c r="GU5" s="39"/>
+      <c r="GV5" s="39"/>
+      <c r="GW5" s="39"/>
+      <c r="GX5" s="39"/>
+      <c r="GY5" s="39"/>
+      <c r="GZ5" s="39"/>
+      <c r="HA5" s="39"/>
+      <c r="HB5" s="39"/>
+      <c r="HC5" s="39"/>
+      <c r="HD5" s="39"/>
+      <c r="HE5" s="39"/>
+      <c r="HF5" s="39"/>
+      <c r="HG5" s="39"/>
+      <c r="HH5" s="39"/>
+      <c r="HI5" s="39"/>
+      <c r="HJ5" s="39"/>
+      <c r="HK5" s="39"/>
+      <c r="HL5" s="39"/>
+      <c r="HM5" s="39"/>
+      <c r="HN5" s="39"/>
+      <c r="HO5" s="39"/>
+      <c r="HP5" s="39"/>
+      <c r="HQ5" s="39"/>
+      <c r="HR5" s="39"/>
+      <c r="HS5" s="39"/>
+      <c r="HT5" s="39"/>
+      <c r="HU5" s="39"/>
+      <c r="HV5" s="39"/>
+      <c r="HW5" s="39"/>
+      <c r="HX5" s="39"/>
+      <c r="HY5" s="39"/>
+      <c r="HZ5" s="39"/>
+      <c r="IA5" s="39"/>
+      <c r="IB5" s="39"/>
+      <c r="IC5" s="39"/>
+      <c r="ID5" s="39"/>
+      <c r="IE5" s="39"/>
+      <c r="IF5" s="39"/>
+      <c r="IG5" s="39"/>
+      <c r="IH5" s="39"/>
+      <c r="II5" s="39"/>
+      <c r="IJ5" s="39"/>
+      <c r="IK5" s="39"/>
+      <c r="IL5" s="39"/>
+      <c r="IM5" s="39"/>
+    </row>
+    <row r="6" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="43">
         <v>43837</v>
       </c>
       <c r="C6" s="60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21">
-        <v>-225</v>
+        <v>-400</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -9814,26 +10153,26 @@
       <c r="K6" s="4"/>
       <c r="L6" s="2"/>
       <c r="M6" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="43">
         <v>43837</v>
       </c>
       <c r="C7" s="60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21">
-        <v>-31</v>
+        <v>-225</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -9841,26 +10180,26 @@
       <c r="K7" s="4"/>
       <c r="L7" s="2"/>
       <c r="M7" s="53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="43">
         <v>43837</v>
       </c>
       <c r="C8" s="60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21">
-        <v>-12</v>
+        <v>-31</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -9868,52 +10207,52 @@
       <c r="K8" s="4"/>
       <c r="L8" s="2"/>
       <c r="M8" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="43">
-        <v>43835</v>
+        <v>43837</v>
       </c>
       <c r="C9" s="60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="21">
-        <v>-350</v>
-      </c>
-      <c r="G9" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21">
+        <v>-12</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
       <c r="K9" s="4"/>
       <c r="L9" s="2"/>
       <c r="M9" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
-      <c r="B10" s="15">
-        <v>43844</v>
+      <c r="B10" s="43">
+        <v>43835</v>
       </c>
       <c r="C10" s="60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20">
-        <v>-4.9000000000000004</v>
+      <c r="F10" s="21">
+        <v>-350</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -9922,53 +10261,53 @@
       <c r="K10" s="4"/>
       <c r="L10" s="2"/>
       <c r="M10" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
-      <c r="B11" s="43">
-        <v>43845</v>
+      <c r="B11" s="15">
+        <v>43844</v>
       </c>
       <c r="C11" s="60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21">
-        <v>-17.489999999999998</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="20">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="22"/>
       <c r="K11" s="4"/>
       <c r="L11" s="2"/>
       <c r="M11" s="53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="43">
-        <v>43847</v>
+        <v>43845</v>
       </c>
       <c r="C12" s="60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>45</v>
+        <v>65</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21">
-        <v>-86.52</v>
+        <v>-17.489999999999998</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -9976,53 +10315,53 @@
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
       <c r="M12" s="53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="43">
-        <v>43850</v>
+        <v>43847</v>
       </c>
       <c r="C13" s="60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21">
-        <v>-19.04</v>
+        <v>-86.52</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
       <c r="K13" s="4"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="43">
-        <v>43853</v>
+        <v>43850</v>
       </c>
       <c r="C14" s="60">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="20"/>
       <c r="G14" s="21">
-        <v>-15.35</v>
+        <v>-19.04</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
@@ -10030,16 +10369,16 @@
       <c r="K14" s="4"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="43">
-        <v>43857</v>
+        <v>43853</v>
       </c>
       <c r="C15" s="60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>69</v>
@@ -10049,7 +10388,7 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="21">
-        <v>-133.04</v>
+        <v>-15.35</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -10057,26 +10396,26 @@
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
-      <c r="B16" s="15">
-        <v>43861</v>
+      <c r="B16" s="43">
+        <v>43857</v>
       </c>
       <c r="C16" s="60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="21">
-        <v>-152</v>
+        <v>-133.04</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -10084,26 +10423,26 @@
       <c r="K16" s="4"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="15">
-        <v>43864</v>
+        <v>43861</v>
       </c>
       <c r="C17" s="60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="F17" s="17"/>
       <c r="G17" s="21">
-        <v>-12</v>
+        <v>-152</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -10111,7 +10450,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10120,17 +10459,17 @@
         <v>43864</v>
       </c>
       <c r="C18" s="60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21">
-        <v>-80.5</v>
+        <v>-12</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -10138,26 +10477,26 @@
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="15">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C19" s="60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
-        <v>-42</v>
+        <v>-80.5</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -10165,7 +10504,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10174,7 +10513,7 @@
         <v>43865</v>
       </c>
       <c r="C20" s="60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>59</v>
@@ -10184,33 +10523,35 @@
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="21">
-        <v>-160</v>
+        <v>-42</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
       <c r="K20" s="4"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="15">
-        <v>43845</v>
+        <v>43865</v>
       </c>
       <c r="C21" s="60">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="20">
-        <v>-25</v>
-      </c>
-      <c r="G21" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21">
+        <v>-160</v>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="22"/>
@@ -10221,13 +10562,13 @@
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
       <c r="B22" s="15">
-        <v>43866</v>
+        <v>43845</v>
       </c>
       <c r="C22" s="60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>23</v>
@@ -10246,19 +10587,19 @@
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="15">
-        <v>43868</v>
-      </c>
-      <c r="C23" s="16">
-        <v>21</v>
+        <v>43866</v>
+      </c>
+      <c r="C23" s="60">
+        <v>20</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
-        <v>-70.040000000000006</v>
+        <v>23</v>
+      </c>
+      <c r="F23" s="20">
+        <v>-25</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -10274,16 +10615,16 @@
         <v>43868</v>
       </c>
       <c r="C24" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="41" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="17">
-        <v>-60.62</v>
+        <v>-70.040000000000006</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -10298,17 +10639,17 @@
       <c r="B25" s="15">
         <v>43868</v>
       </c>
-      <c r="C25" s="60">
-        <v>23</v>
+      <c r="C25" s="16">
+        <v>22</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="20">
-        <v>-490</v>
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <v>-60.62</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -10320,13 +10661,21 @@
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="15">
+        <v>43868</v>
+      </c>
       <c r="C26" s="60">
-        <v>24</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="20">
+        <v>-490</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -10337,14 +10686,18 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
-      <c r="B27" s="43"/>
+      <c r="B27" s="43">
+        <v>43876</v>
+      </c>
       <c r="C27" s="60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="41"/>
+      <c r="E27" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F27" s="20">
         <v>-72</v>
       </c>
@@ -10358,14 +10711,22 @@
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="43">
+        <v>43879</v>
+      </c>
       <c r="C28" s="60">
-        <v>26</v>
-      </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="41"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21">
+        <v>-18.239999999999998</v>
+      </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="22"/>
@@ -10375,14 +10736,22 @@
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="43">
+        <v>43889</v>
+      </c>
       <c r="C29" s="60">
-        <v>27</v>
-      </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="21">
+        <v>-20</v>
+      </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="22"/>
@@ -10392,14 +10761,22 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="43">
+        <v>43889</v>
+      </c>
       <c r="C30" s="60">
-        <v>28</v>
-      </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>-338.1</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="22"/>
@@ -10409,14 +10786,22 @@
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>43892</v>
+      </c>
       <c r="C31" s="60">
-        <v>29</v>
-      </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="41"/>
+        <v>28</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21">
+        <v>-12</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="22"/>
@@ -10426,14 +10811,22 @@
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
-      <c r="B32" s="43"/>
+      <c r="B32" s="15">
+        <v>43893</v>
+      </c>
       <c r="C32" s="60">
-        <v>30</v>
-      </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="41"/>
+        <v>29</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="21">
+        <v>-41.13</v>
+      </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="22"/>
@@ -10443,14 +10836,22 @@
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="15">
+        <v>43893</v>
+      </c>
       <c r="C33" s="60">
-        <v>31</v>
-      </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="41"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="21">
+        <v>-160</v>
+      </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="22"/>
@@ -10460,14 +10861,22 @@
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="15">
+        <v>43893</v>
+      </c>
       <c r="C34" s="60">
-        <v>32</v>
-      </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="41"/>
+        <v>31</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
+      <c r="G34" s="21">
+        <v>-99.71</v>
+      </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="22"/>
@@ -10477,14 +10886,22 @@
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15">
+        <v>43893</v>
+      </c>
       <c r="C35" s="60">
-        <v>33</v>
-      </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="21">
+        <v>-15.35</v>
+      </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="22"/>
@@ -10496,10 +10913,10 @@
       <c r="A36" s="47"/>
       <c r="B36" s="15"/>
       <c r="C36" s="60">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="20"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -10512,12 +10929,12 @@
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="16">
-        <v>35</v>
+      <c r="C37" s="60">
+        <v>34</v>
       </c>
       <c r="D37" s="55"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="17"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -10530,7 +10947,7 @@
       <c r="A38" s="47"/>
       <c r="B38" s="15"/>
       <c r="C38" s="16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="41"/>
@@ -10547,7 +10964,7 @@
       <c r="A39" s="47"/>
       <c r="B39" s="15"/>
       <c r="C39" s="16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="41"/>
@@ -10556,27 +10973,25 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="22"/>
-      <c r="K39" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="K39" s="4"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="60">
-        <v>38</v>
-      </c>
-      <c r="D40" s="40"/>
+      <c r="C40" s="16">
+        <v>37</v>
+      </c>
+      <c r="D40" s="55"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="20"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="22"/>
       <c r="K40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -10585,7 +11000,7 @@
       <c r="A41" s="47"/>
       <c r="B41" s="15"/>
       <c r="C41" s="60">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="41"/>
@@ -10595,68 +11010,66 @@
       <c r="I41" s="21"/>
       <c r="J41" s="22"/>
       <c r="K41" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="61">
-        <v>40</v>
+      <c r="C42" s="60">
+        <v>39</v>
       </c>
       <c r="D42" s="40"/>
-      <c r="E42" s="19"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="20"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="22"/>
       <c r="K42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="M42" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="60">
-        <v>41</v>
+      <c r="C43" s="61">
+        <v>40</v>
       </c>
       <c r="D43" s="40"/>
-      <c r="E43" s="53"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="20"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="22"/>
       <c r="K43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="M43" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
-      <c r="B44" s="43"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="60">
-        <v>42</v>
-      </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="20"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="22"/>
       <c r="K44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
@@ -10667,7 +11080,7 @@
       <c r="A45" s="47"/>
       <c r="B45" s="43"/>
       <c r="C45" s="60">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="55"/>
       <c r="E45" s="23"/>
@@ -10677,58 +11090,58 @@
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
       <c r="K45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16">
-        <v>44</v>
+      <c r="B46" s="43"/>
+      <c r="C46" s="60">
+        <v>43</v>
       </c>
       <c r="D46" s="55"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="22"/>
       <c r="K46" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+      <c r="M46" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="60">
-        <v>45</v>
+      <c r="C47" s="16">
+        <v>44</v>
       </c>
       <c r="D47" s="55"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="20"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="22"/>
       <c r="K47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L47" s="2"/>
-      <c r="M47" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="15"/>
       <c r="C48" s="60">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="55"/>
       <c r="E48" s="56"/>
@@ -10738,36 +11151,40 @@
       <c r="I48" s="21"/>
       <c r="J48" s="22"/>
       <c r="K48" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="61">
-        <v>47</v>
-      </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="19"/>
+      <c r="C49" s="60">
+        <v>46</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
       <c r="F49" s="20"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="22"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="60">
-        <v>48</v>
-      </c>
-      <c r="D50" s="55"/>
-      <c r="E50" s="23"/>
+      <c r="C50" s="61">
+        <v>47</v>
+      </c>
+      <c r="D50" s="40"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="20"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -10781,10 +11198,10 @@
       <c r="A51" s="47"/>
       <c r="B51" s="15"/>
       <c r="C51" s="60">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="55"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="20"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -10798,10 +11215,10 @@
       <c r="A52" s="47"/>
       <c r="B52" s="15"/>
       <c r="C52" s="60">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="55"/>
-      <c r="E52" s="56"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="20"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -10815,10 +11232,10 @@
       <c r="A53" s="47"/>
       <c r="B53" s="15"/>
       <c r="C53" s="60">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="55"/>
-      <c r="E53" s="23"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="20"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -10830,9 +11247,9 @@
     </row>
     <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
-      <c r="B54" s="43"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="60">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="23"/>
@@ -10844,249 +11261,15 @@
       <c r="K54" s="4"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="39"/>
-      <c r="AL54" s="39"/>
-      <c r="AM54" s="39"/>
-      <c r="AN54" s="39"/>
-      <c r="AO54" s="39"/>
-      <c r="AP54" s="39"/>
-      <c r="AQ54" s="39"/>
-      <c r="AR54" s="39"/>
-      <c r="AS54" s="39"/>
-      <c r="AT54" s="39"/>
-      <c r="AU54" s="39"/>
-      <c r="AV54" s="39"/>
-      <c r="AW54" s="39"/>
-      <c r="AX54" s="39"/>
-      <c r="AY54" s="39"/>
-      <c r="AZ54" s="39"/>
-      <c r="BA54" s="39"/>
-      <c r="BB54" s="39"/>
-      <c r="BC54" s="39"/>
-      <c r="BD54" s="39"/>
-      <c r="BE54" s="39"/>
-      <c r="BF54" s="39"/>
-      <c r="BG54" s="39"/>
-      <c r="BH54" s="39"/>
-      <c r="BI54" s="39"/>
-      <c r="BJ54" s="39"/>
-      <c r="BK54" s="39"/>
-      <c r="BL54" s="39"/>
-      <c r="BM54" s="39"/>
-      <c r="BN54" s="39"/>
-      <c r="BO54" s="39"/>
-      <c r="BP54" s="39"/>
-      <c r="BQ54" s="39"/>
-      <c r="BR54" s="39"/>
-      <c r="BS54" s="39"/>
-      <c r="BT54" s="39"/>
-      <c r="BU54" s="39"/>
-      <c r="BV54" s="39"/>
-      <c r="BW54" s="39"/>
-      <c r="BX54" s="39"/>
-      <c r="BY54" s="39"/>
-      <c r="BZ54" s="39"/>
-      <c r="CA54" s="39"/>
-      <c r="CB54" s="39"/>
-      <c r="CC54" s="39"/>
-      <c r="CD54" s="39"/>
-      <c r="CE54" s="39"/>
-      <c r="CF54" s="39"/>
-      <c r="CG54" s="39"/>
-      <c r="CH54" s="39"/>
-      <c r="CI54" s="39"/>
-      <c r="CJ54" s="39"/>
-      <c r="CK54" s="39"/>
-      <c r="CL54" s="39"/>
-      <c r="CM54" s="39"/>
-      <c r="CN54" s="39"/>
-      <c r="CO54" s="39"/>
-      <c r="CP54" s="39"/>
-      <c r="CQ54" s="39"/>
-      <c r="CR54" s="39"/>
-      <c r="CS54" s="39"/>
-      <c r="CT54" s="39"/>
-      <c r="CU54" s="39"/>
-      <c r="CV54" s="39"/>
-      <c r="CW54" s="39"/>
-      <c r="CX54" s="39"/>
-      <c r="CY54" s="39"/>
-      <c r="CZ54" s="39"/>
-      <c r="DA54" s="39"/>
-      <c r="DB54" s="39"/>
-      <c r="DC54" s="39"/>
-      <c r="DD54" s="39"/>
-      <c r="DE54" s="39"/>
-      <c r="DF54" s="39"/>
-      <c r="DG54" s="39"/>
-      <c r="DH54" s="39"/>
-      <c r="DI54" s="39"/>
-      <c r="DJ54" s="39"/>
-      <c r="DK54" s="39"/>
-      <c r="DL54" s="39"/>
-      <c r="DM54" s="39"/>
-      <c r="DN54" s="39"/>
-      <c r="DO54" s="39"/>
-      <c r="DP54" s="39"/>
-      <c r="DQ54" s="39"/>
-      <c r="DR54" s="39"/>
-      <c r="DS54" s="39"/>
-      <c r="DT54" s="39"/>
-      <c r="DU54" s="39"/>
-      <c r="DV54" s="39"/>
-      <c r="DW54" s="39"/>
-      <c r="DX54" s="39"/>
-      <c r="DY54" s="39"/>
-      <c r="DZ54" s="39"/>
-      <c r="EA54" s="39"/>
-      <c r="EB54" s="39"/>
-      <c r="EC54" s="39"/>
-      <c r="ED54" s="39"/>
-      <c r="EE54" s="39"/>
-      <c r="EF54" s="39"/>
-      <c r="EG54" s="39"/>
-      <c r="EH54" s="39"/>
-      <c r="EI54" s="39"/>
-      <c r="EJ54" s="39"/>
-      <c r="EK54" s="39"/>
-      <c r="EL54" s="39"/>
-      <c r="EM54" s="39"/>
-      <c r="EN54" s="39"/>
-      <c r="EO54" s="39"/>
-      <c r="EP54" s="39"/>
-      <c r="EQ54" s="39"/>
-      <c r="ER54" s="39"/>
-      <c r="ES54" s="39"/>
-      <c r="ET54" s="39"/>
-      <c r="EU54" s="39"/>
-      <c r="EV54" s="39"/>
-      <c r="EW54" s="39"/>
-      <c r="EX54" s="39"/>
-      <c r="EY54" s="39"/>
-      <c r="EZ54" s="39"/>
-      <c r="FA54" s="39"/>
-      <c r="FB54" s="39"/>
-      <c r="FC54" s="39"/>
-      <c r="FD54" s="39"/>
-      <c r="FE54" s="39"/>
-      <c r="FF54" s="39"/>
-      <c r="FG54" s="39"/>
-      <c r="FH54" s="39"/>
-      <c r="FI54" s="39"/>
-      <c r="FJ54" s="39"/>
-      <c r="FK54" s="39"/>
-      <c r="FL54" s="39"/>
-      <c r="FM54" s="39"/>
-      <c r="FN54" s="39"/>
-      <c r="FO54" s="39"/>
-      <c r="FP54" s="39"/>
-      <c r="FQ54" s="39"/>
-      <c r="FR54" s="39"/>
-      <c r="FS54" s="39"/>
-      <c r="FT54" s="39"/>
-      <c r="FU54" s="39"/>
-      <c r="FV54" s="39"/>
-      <c r="FW54" s="39"/>
-      <c r="FX54" s="39"/>
-      <c r="FY54" s="39"/>
-      <c r="FZ54" s="39"/>
-      <c r="GA54" s="39"/>
-      <c r="GB54" s="39"/>
-      <c r="GC54" s="39"/>
-      <c r="GD54" s="39"/>
-      <c r="GE54" s="39"/>
-      <c r="GF54" s="39"/>
-      <c r="GG54" s="39"/>
-      <c r="GH54" s="39"/>
-      <c r="GI54" s="39"/>
-      <c r="GJ54" s="39"/>
-      <c r="GK54" s="39"/>
-      <c r="GL54" s="39"/>
-      <c r="GM54" s="39"/>
-      <c r="GN54" s="39"/>
-      <c r="GO54" s="39"/>
-      <c r="GP54" s="39"/>
-      <c r="GQ54" s="39"/>
-      <c r="GR54" s="39"/>
-      <c r="GS54" s="39"/>
-      <c r="GT54" s="39"/>
-      <c r="GU54" s="39"/>
-      <c r="GV54" s="39"/>
-      <c r="GW54" s="39"/>
-      <c r="GX54" s="39"/>
-      <c r="GY54" s="39"/>
-      <c r="GZ54" s="39"/>
-      <c r="HA54" s="39"/>
-      <c r="HB54" s="39"/>
-      <c r="HC54" s="39"/>
-      <c r="HD54" s="39"/>
-      <c r="HE54" s="39"/>
-      <c r="HF54" s="39"/>
-      <c r="HG54" s="39"/>
-      <c r="HH54" s="39"/>
-      <c r="HI54" s="39"/>
-      <c r="HJ54" s="39"/>
-      <c r="HK54" s="39"/>
-      <c r="HL54" s="39"/>
-      <c r="HM54" s="39"/>
-      <c r="HN54" s="39"/>
-      <c r="HO54" s="39"/>
-      <c r="HP54" s="39"/>
-      <c r="HQ54" s="39"/>
-      <c r="HR54" s="39"/>
-      <c r="HS54" s="39"/>
-      <c r="HT54" s="39"/>
-      <c r="HU54" s="39"/>
-      <c r="HV54" s="39"/>
-      <c r="HW54" s="39"/>
-      <c r="HX54" s="39"/>
-      <c r="HY54" s="39"/>
-      <c r="HZ54" s="39"/>
-      <c r="IA54" s="39"/>
-      <c r="IB54" s="39"/>
-      <c r="IC54" s="39"/>
-      <c r="ID54" s="39"/>
-      <c r="IE54" s="39"/>
-      <c r="IF54" s="39"/>
-      <c r="IG54" s="39"/>
-      <c r="IH54" s="39"/>
-      <c r="II54" s="39"/>
-      <c r="IJ54" s="39"/>
-      <c r="IK54" s="39"/>
-      <c r="IL54" s="39"/>
-      <c r="IM54" s="39"/>
     </row>
     <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="60">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="55"/>
-      <c r="E55" s="56"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="20"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -11095,15 +11278,249 @@
       <c r="K55" s="4"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="39"/>
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="39"/>
+      <c r="AN55" s="39"/>
+      <c r="AO55" s="39"/>
+      <c r="AP55" s="39"/>
+      <c r="AQ55" s="39"/>
+      <c r="AR55" s="39"/>
+      <c r="AS55" s="39"/>
+      <c r="AT55" s="39"/>
+      <c r="AU55" s="39"/>
+      <c r="AV55" s="39"/>
+      <c r="AW55" s="39"/>
+      <c r="AX55" s="39"/>
+      <c r="AY55" s="39"/>
+      <c r="AZ55" s="39"/>
+      <c r="BA55" s="39"/>
+      <c r="BB55" s="39"/>
+      <c r="BC55" s="39"/>
+      <c r="BD55" s="39"/>
+      <c r="BE55" s="39"/>
+      <c r="BF55" s="39"/>
+      <c r="BG55" s="39"/>
+      <c r="BH55" s="39"/>
+      <c r="BI55" s="39"/>
+      <c r="BJ55" s="39"/>
+      <c r="BK55" s="39"/>
+      <c r="BL55" s="39"/>
+      <c r="BM55" s="39"/>
+      <c r="BN55" s="39"/>
+      <c r="BO55" s="39"/>
+      <c r="BP55" s="39"/>
+      <c r="BQ55" s="39"/>
+      <c r="BR55" s="39"/>
+      <c r="BS55" s="39"/>
+      <c r="BT55" s="39"/>
+      <c r="BU55" s="39"/>
+      <c r="BV55" s="39"/>
+      <c r="BW55" s="39"/>
+      <c r="BX55" s="39"/>
+      <c r="BY55" s="39"/>
+      <c r="BZ55" s="39"/>
+      <c r="CA55" s="39"/>
+      <c r="CB55" s="39"/>
+      <c r="CC55" s="39"/>
+      <c r="CD55" s="39"/>
+      <c r="CE55" s="39"/>
+      <c r="CF55" s="39"/>
+      <c r="CG55" s="39"/>
+      <c r="CH55" s="39"/>
+      <c r="CI55" s="39"/>
+      <c r="CJ55" s="39"/>
+      <c r="CK55" s="39"/>
+      <c r="CL55" s="39"/>
+      <c r="CM55" s="39"/>
+      <c r="CN55" s="39"/>
+      <c r="CO55" s="39"/>
+      <c r="CP55" s="39"/>
+      <c r="CQ55" s="39"/>
+      <c r="CR55" s="39"/>
+      <c r="CS55" s="39"/>
+      <c r="CT55" s="39"/>
+      <c r="CU55" s="39"/>
+      <c r="CV55" s="39"/>
+      <c r="CW55" s="39"/>
+      <c r="CX55" s="39"/>
+      <c r="CY55" s="39"/>
+      <c r="CZ55" s="39"/>
+      <c r="DA55" s="39"/>
+      <c r="DB55" s="39"/>
+      <c r="DC55" s="39"/>
+      <c r="DD55" s="39"/>
+      <c r="DE55" s="39"/>
+      <c r="DF55" s="39"/>
+      <c r="DG55" s="39"/>
+      <c r="DH55" s="39"/>
+      <c r="DI55" s="39"/>
+      <c r="DJ55" s="39"/>
+      <c r="DK55" s="39"/>
+      <c r="DL55" s="39"/>
+      <c r="DM55" s="39"/>
+      <c r="DN55" s="39"/>
+      <c r="DO55" s="39"/>
+      <c r="DP55" s="39"/>
+      <c r="DQ55" s="39"/>
+      <c r="DR55" s="39"/>
+      <c r="DS55" s="39"/>
+      <c r="DT55" s="39"/>
+      <c r="DU55" s="39"/>
+      <c r="DV55" s="39"/>
+      <c r="DW55" s="39"/>
+      <c r="DX55" s="39"/>
+      <c r="DY55" s="39"/>
+      <c r="DZ55" s="39"/>
+      <c r="EA55" s="39"/>
+      <c r="EB55" s="39"/>
+      <c r="EC55" s="39"/>
+      <c r="ED55" s="39"/>
+      <c r="EE55" s="39"/>
+      <c r="EF55" s="39"/>
+      <c r="EG55" s="39"/>
+      <c r="EH55" s="39"/>
+      <c r="EI55" s="39"/>
+      <c r="EJ55" s="39"/>
+      <c r="EK55" s="39"/>
+      <c r="EL55" s="39"/>
+      <c r="EM55" s="39"/>
+      <c r="EN55" s="39"/>
+      <c r="EO55" s="39"/>
+      <c r="EP55" s="39"/>
+      <c r="EQ55" s="39"/>
+      <c r="ER55" s="39"/>
+      <c r="ES55" s="39"/>
+      <c r="ET55" s="39"/>
+      <c r="EU55" s="39"/>
+      <c r="EV55" s="39"/>
+      <c r="EW55" s="39"/>
+      <c r="EX55" s="39"/>
+      <c r="EY55" s="39"/>
+      <c r="EZ55" s="39"/>
+      <c r="FA55" s="39"/>
+      <c r="FB55" s="39"/>
+      <c r="FC55" s="39"/>
+      <c r="FD55" s="39"/>
+      <c r="FE55" s="39"/>
+      <c r="FF55" s="39"/>
+      <c r="FG55" s="39"/>
+      <c r="FH55" s="39"/>
+      <c r="FI55" s="39"/>
+      <c r="FJ55" s="39"/>
+      <c r="FK55" s="39"/>
+      <c r="FL55" s="39"/>
+      <c r="FM55" s="39"/>
+      <c r="FN55" s="39"/>
+      <c r="FO55" s="39"/>
+      <c r="FP55" s="39"/>
+      <c r="FQ55" s="39"/>
+      <c r="FR55" s="39"/>
+      <c r="FS55" s="39"/>
+      <c r="FT55" s="39"/>
+      <c r="FU55" s="39"/>
+      <c r="FV55" s="39"/>
+      <c r="FW55" s="39"/>
+      <c r="FX55" s="39"/>
+      <c r="FY55" s="39"/>
+      <c r="FZ55" s="39"/>
+      <c r="GA55" s="39"/>
+      <c r="GB55" s="39"/>
+      <c r="GC55" s="39"/>
+      <c r="GD55" s="39"/>
+      <c r="GE55" s="39"/>
+      <c r="GF55" s="39"/>
+      <c r="GG55" s="39"/>
+      <c r="GH55" s="39"/>
+      <c r="GI55" s="39"/>
+      <c r="GJ55" s="39"/>
+      <c r="GK55" s="39"/>
+      <c r="GL55" s="39"/>
+      <c r="GM55" s="39"/>
+      <c r="GN55" s="39"/>
+      <c r="GO55" s="39"/>
+      <c r="GP55" s="39"/>
+      <c r="GQ55" s="39"/>
+      <c r="GR55" s="39"/>
+      <c r="GS55" s="39"/>
+      <c r="GT55" s="39"/>
+      <c r="GU55" s="39"/>
+      <c r="GV55" s="39"/>
+      <c r="GW55" s="39"/>
+      <c r="GX55" s="39"/>
+      <c r="GY55" s="39"/>
+      <c r="GZ55" s="39"/>
+      <c r="HA55" s="39"/>
+      <c r="HB55" s="39"/>
+      <c r="HC55" s="39"/>
+      <c r="HD55" s="39"/>
+      <c r="HE55" s="39"/>
+      <c r="HF55" s="39"/>
+      <c r="HG55" s="39"/>
+      <c r="HH55" s="39"/>
+      <c r="HI55" s="39"/>
+      <c r="HJ55" s="39"/>
+      <c r="HK55" s="39"/>
+      <c r="HL55" s="39"/>
+      <c r="HM55" s="39"/>
+      <c r="HN55" s="39"/>
+      <c r="HO55" s="39"/>
+      <c r="HP55" s="39"/>
+      <c r="HQ55" s="39"/>
+      <c r="HR55" s="39"/>
+      <c r="HS55" s="39"/>
+      <c r="HT55" s="39"/>
+      <c r="HU55" s="39"/>
+      <c r="HV55" s="39"/>
+      <c r="HW55" s="39"/>
+      <c r="HX55" s="39"/>
+      <c r="HY55" s="39"/>
+      <c r="HZ55" s="39"/>
+      <c r="IA55" s="39"/>
+      <c r="IB55" s="39"/>
+      <c r="IC55" s="39"/>
+      <c r="ID55" s="39"/>
+      <c r="IE55" s="39"/>
+      <c r="IF55" s="39"/>
+      <c r="IG55" s="39"/>
+      <c r="IH55" s="39"/>
+      <c r="II55" s="39"/>
+      <c r="IJ55" s="39"/>
+      <c r="IK55" s="39"/>
+      <c r="IL55" s="39"/>
+      <c r="IM55" s="39"/>
     </row>
     <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="15"/>
       <c r="C56" s="60">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="55"/>
-      <c r="E56" s="41"/>
+      <c r="E56" s="56"/>
       <c r="F56" s="20"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -11117,10 +11534,10 @@
       <c r="A57" s="47"/>
       <c r="B57" s="15"/>
       <c r="C57" s="60">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="55"/>
-      <c r="E57" s="56"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="20"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -11132,12 +11549,12 @@
     </row>
     <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
-      <c r="B58" s="43"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="60">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="55"/>
-      <c r="E58" s="23"/>
+      <c r="E58" s="56"/>
       <c r="F58" s="20"/>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -11149,9 +11566,9 @@
     </row>
     <row r="59" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="60">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="55"/>
       <c r="E59" s="23"/>
@@ -11168,10 +11585,10 @@
       <c r="A60" s="47"/>
       <c r="B60" s="15"/>
       <c r="C60" s="60">
-        <v>58</v>
-      </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
+        <v>57</v>
+      </c>
+      <c r="D60" s="55"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="20"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
@@ -11180,248 +11597,14 @@
       <c r="K60" s="4"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="39"/>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="39"/>
-      <c r="AK60" s="39"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="39"/>
-      <c r="AP60" s="39"/>
-      <c r="AQ60" s="39"/>
-      <c r="AR60" s="39"/>
-      <c r="AS60" s="39"/>
-      <c r="AT60" s="39"/>
-      <c r="AU60" s="39"/>
-      <c r="AV60" s="39"/>
-      <c r="AW60" s="39"/>
-      <c r="AX60" s="39"/>
-      <c r="AY60" s="39"/>
-      <c r="AZ60" s="39"/>
-      <c r="BA60" s="39"/>
-      <c r="BB60" s="39"/>
-      <c r="BC60" s="39"/>
-      <c r="BD60" s="39"/>
-      <c r="BE60" s="39"/>
-      <c r="BF60" s="39"/>
-      <c r="BG60" s="39"/>
-      <c r="BH60" s="39"/>
-      <c r="BI60" s="39"/>
-      <c r="BJ60" s="39"/>
-      <c r="BK60" s="39"/>
-      <c r="BL60" s="39"/>
-      <c r="BM60" s="39"/>
-      <c r="BN60" s="39"/>
-      <c r="BO60" s="39"/>
-      <c r="BP60" s="39"/>
-      <c r="BQ60" s="39"/>
-      <c r="BR60" s="39"/>
-      <c r="BS60" s="39"/>
-      <c r="BT60" s="39"/>
-      <c r="BU60" s="39"/>
-      <c r="BV60" s="39"/>
-      <c r="BW60" s="39"/>
-      <c r="BX60" s="39"/>
-      <c r="BY60" s="39"/>
-      <c r="BZ60" s="39"/>
-      <c r="CA60" s="39"/>
-      <c r="CB60" s="39"/>
-      <c r="CC60" s="39"/>
-      <c r="CD60" s="39"/>
-      <c r="CE60" s="39"/>
-      <c r="CF60" s="39"/>
-      <c r="CG60" s="39"/>
-      <c r="CH60" s="39"/>
-      <c r="CI60" s="39"/>
-      <c r="CJ60" s="39"/>
-      <c r="CK60" s="39"/>
-      <c r="CL60" s="39"/>
-      <c r="CM60" s="39"/>
-      <c r="CN60" s="39"/>
-      <c r="CO60" s="39"/>
-      <c r="CP60" s="39"/>
-      <c r="CQ60" s="39"/>
-      <c r="CR60" s="39"/>
-      <c r="CS60" s="39"/>
-      <c r="CT60" s="39"/>
-      <c r="CU60" s="39"/>
-      <c r="CV60" s="39"/>
-      <c r="CW60" s="39"/>
-      <c r="CX60" s="39"/>
-      <c r="CY60" s="39"/>
-      <c r="CZ60" s="39"/>
-      <c r="DA60" s="39"/>
-      <c r="DB60" s="39"/>
-      <c r="DC60" s="39"/>
-      <c r="DD60" s="39"/>
-      <c r="DE60" s="39"/>
-      <c r="DF60" s="39"/>
-      <c r="DG60" s="39"/>
-      <c r="DH60" s="39"/>
-      <c r="DI60" s="39"/>
-      <c r="DJ60" s="39"/>
-      <c r="DK60" s="39"/>
-      <c r="DL60" s="39"/>
-      <c r="DM60" s="39"/>
-      <c r="DN60" s="39"/>
-      <c r="DO60" s="39"/>
-      <c r="DP60" s="39"/>
-      <c r="DQ60" s="39"/>
-      <c r="DR60" s="39"/>
-      <c r="DS60" s="39"/>
-      <c r="DT60" s="39"/>
-      <c r="DU60" s="39"/>
-      <c r="DV60" s="39"/>
-      <c r="DW60" s="39"/>
-      <c r="DX60" s="39"/>
-      <c r="DY60" s="39"/>
-      <c r="DZ60" s="39"/>
-      <c r="EA60" s="39"/>
-      <c r="EB60" s="39"/>
-      <c r="EC60" s="39"/>
-      <c r="ED60" s="39"/>
-      <c r="EE60" s="39"/>
-      <c r="EF60" s="39"/>
-      <c r="EG60" s="39"/>
-      <c r="EH60" s="39"/>
-      <c r="EI60" s="39"/>
-      <c r="EJ60" s="39"/>
-      <c r="EK60" s="39"/>
-      <c r="EL60" s="39"/>
-      <c r="EM60" s="39"/>
-      <c r="EN60" s="39"/>
-      <c r="EO60" s="39"/>
-      <c r="EP60" s="39"/>
-      <c r="EQ60" s="39"/>
-      <c r="ER60" s="39"/>
-      <c r="ES60" s="39"/>
-      <c r="ET60" s="39"/>
-      <c r="EU60" s="39"/>
-      <c r="EV60" s="39"/>
-      <c r="EW60" s="39"/>
-      <c r="EX60" s="39"/>
-      <c r="EY60" s="39"/>
-      <c r="EZ60" s="39"/>
-      <c r="FA60" s="39"/>
-      <c r="FB60" s="39"/>
-      <c r="FC60" s="39"/>
-      <c r="FD60" s="39"/>
-      <c r="FE60" s="39"/>
-      <c r="FF60" s="39"/>
-      <c r="FG60" s="39"/>
-      <c r="FH60" s="39"/>
-      <c r="FI60" s="39"/>
-      <c r="FJ60" s="39"/>
-      <c r="FK60" s="39"/>
-      <c r="FL60" s="39"/>
-      <c r="FM60" s="39"/>
-      <c r="FN60" s="39"/>
-      <c r="FO60" s="39"/>
-      <c r="FP60" s="39"/>
-      <c r="FQ60" s="39"/>
-      <c r="FR60" s="39"/>
-      <c r="FS60" s="39"/>
-      <c r="FT60" s="39"/>
-      <c r="FU60" s="39"/>
-      <c r="FV60" s="39"/>
-      <c r="FW60" s="39"/>
-      <c r="FX60" s="39"/>
-      <c r="FY60" s="39"/>
-      <c r="FZ60" s="39"/>
-      <c r="GA60" s="39"/>
-      <c r="GB60" s="39"/>
-      <c r="GC60" s="39"/>
-      <c r="GD60" s="39"/>
-      <c r="GE60" s="39"/>
-      <c r="GF60" s="39"/>
-      <c r="GG60" s="39"/>
-      <c r="GH60" s="39"/>
-      <c r="GI60" s="39"/>
-      <c r="GJ60" s="39"/>
-      <c r="GK60" s="39"/>
-      <c r="GL60" s="39"/>
-      <c r="GM60" s="39"/>
-      <c r="GN60" s="39"/>
-      <c r="GO60" s="39"/>
-      <c r="GP60" s="39"/>
-      <c r="GQ60" s="39"/>
-      <c r="GR60" s="39"/>
-      <c r="GS60" s="39"/>
-      <c r="GT60" s="39"/>
-      <c r="GU60" s="39"/>
-      <c r="GV60" s="39"/>
-      <c r="GW60" s="39"/>
-      <c r="GX60" s="39"/>
-      <c r="GY60" s="39"/>
-      <c r="GZ60" s="39"/>
-      <c r="HA60" s="39"/>
-      <c r="HB60" s="39"/>
-      <c r="HC60" s="39"/>
-      <c r="HD60" s="39"/>
-      <c r="HE60" s="39"/>
-      <c r="HF60" s="39"/>
-      <c r="HG60" s="39"/>
-      <c r="HH60" s="39"/>
-      <c r="HI60" s="39"/>
-      <c r="HJ60" s="39"/>
-      <c r="HK60" s="39"/>
-      <c r="HL60" s="39"/>
-      <c r="HM60" s="39"/>
-      <c r="HN60" s="39"/>
-      <c r="HO60" s="39"/>
-      <c r="HP60" s="39"/>
-      <c r="HQ60" s="39"/>
-      <c r="HR60" s="39"/>
-      <c r="HS60" s="39"/>
-      <c r="HT60" s="39"/>
-      <c r="HU60" s="39"/>
-      <c r="HV60" s="39"/>
-      <c r="HW60" s="39"/>
-      <c r="HX60" s="39"/>
-      <c r="HY60" s="39"/>
-      <c r="HZ60" s="39"/>
-      <c r="IA60" s="39"/>
-      <c r="IB60" s="39"/>
-      <c r="IC60" s="39"/>
-      <c r="ID60" s="39"/>
-      <c r="IE60" s="39"/>
-      <c r="IF60" s="39"/>
-      <c r="IG60" s="39"/>
-      <c r="IH60" s="39"/>
-      <c r="II60" s="39"/>
-      <c r="IJ60" s="39"/>
-      <c r="IK60" s="39"/>
-      <c r="IL60" s="39"/>
-      <c r="IM60" s="39"/>
     </row>
     <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="15"/>
       <c r="C61" s="60">
-        <v>59</v>
-      </c>
-      <c r="D61" s="55"/>
+        <v>58</v>
+      </c>
+      <c r="D61" s="40"/>
       <c r="E61" s="41"/>
       <c r="F61" s="20"/>
       <c r="G61" s="21"/>
@@ -11670,10 +11853,10 @@
       <c r="A62" s="47"/>
       <c r="B62" s="15"/>
       <c r="C62" s="60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="55"/>
-      <c r="E62" s="56"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="20"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
@@ -11921,10 +12104,10 @@
       <c r="A63" s="47"/>
       <c r="B63" s="15"/>
       <c r="C63" s="60">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="55"/>
-      <c r="E63" s="19"/>
+      <c r="E63" s="56"/>
       <c r="F63" s="20"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
@@ -12171,10 +12354,10 @@
     <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
       <c r="B64" s="15"/>
-      <c r="C64" s="61">
-        <v>62</v>
-      </c>
-      <c r="D64" s="40"/>
+      <c r="C64" s="60">
+        <v>61</v>
+      </c>
+      <c r="D64" s="55"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
       <c r="G64" s="21"/>
@@ -12423,10 +12606,10 @@
       <c r="A65" s="47"/>
       <c r="B65" s="15"/>
       <c r="C65" s="61">
-        <v>63</v>
-      </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="20"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -12674,7 +12857,7 @@
       <c r="A66" s="47"/>
       <c r="B66" s="15"/>
       <c r="C66" s="61">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" s="55"/>
       <c r="E66" s="41"/>
@@ -12925,7 +13108,7 @@
       <c r="A67" s="47"/>
       <c r="B67" s="15"/>
       <c r="C67" s="61">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="55"/>
       <c r="E67" s="41"/>
@@ -13176,7 +13359,7 @@
       <c r="A68" s="47"/>
       <c r="B68" s="15"/>
       <c r="C68" s="61">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="55"/>
       <c r="E68" s="41"/>
@@ -13427,10 +13610,10 @@
       <c r="A69" s="47"/>
       <c r="B69" s="15"/>
       <c r="C69" s="61">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="55"/>
-      <c r="E69" s="56"/>
+      <c r="E69" s="41"/>
       <c r="F69" s="20"/>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
@@ -13678,7 +13861,7 @@
       <c r="A70" s="47"/>
       <c r="B70" s="15"/>
       <c r="C70" s="61">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="55"/>
       <c r="E70" s="56"/>
@@ -13929,13 +14112,13 @@
       <c r="A71" s="47"/>
       <c r="B71" s="15"/>
       <c r="C71" s="61">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="55"/>
       <c r="E71" s="56"/>
       <c r="F71" s="20"/>
       <c r="G71" s="21"/>
-      <c r="H71" s="20"/>
+      <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="22"/>
       <c r="K71" s="4"/>
@@ -14179,14 +14362,14 @@
     <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="15"/>
-      <c r="C72" s="60">
-        <v>70</v>
+      <c r="C72" s="61">
+        <v>69</v>
       </c>
       <c r="D72" s="55"/>
-      <c r="E72" s="41"/>
+      <c r="E72" s="56"/>
       <c r="F72" s="20"/>
       <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
+      <c r="H72" s="20"/>
       <c r="I72" s="21"/>
       <c r="J72" s="22"/>
       <c r="K72" s="4"/>
@@ -14430,8 +14613,8 @@
     <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="15"/>
-      <c r="C73" s="61">
-        <v>71</v>
+      <c r="C73" s="60">
+        <v>70</v>
       </c>
       <c r="D73" s="55"/>
       <c r="E73" s="41"/>
@@ -14681,11 +14864,11 @@
     <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="15"/>
-      <c r="C74" s="60">
-        <v>72</v>
-      </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="53"/>
+      <c r="C74" s="61">
+        <v>71</v>
+      </c>
+      <c r="D74" s="55"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="20"/>
       <c r="G74" s="21"/>
       <c r="H74" s="21"/>
@@ -14933,10 +15116,10 @@
       <c r="A75" s="47"/>
       <c r="B75" s="15"/>
       <c r="C75" s="60">
-        <v>73</v>
-      </c>
-      <c r="D75" s="55"/>
-      <c r="E75" s="41"/>
+        <v>72</v>
+      </c>
+      <c r="D75" s="40"/>
+      <c r="E75" s="53"/>
       <c r="F75" s="20"/>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
@@ -15182,12 +15365,12 @@
     </row>
     <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="43"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="60">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="55"/>
-      <c r="E76" s="23"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="20"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
@@ -15435,7 +15618,7 @@
       <c r="A77" s="47"/>
       <c r="B77" s="43"/>
       <c r="C77" s="60">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="55"/>
       <c r="E77" s="23"/>
@@ -15684,12 +15867,12 @@
     </row>
     <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="61">
-        <v>76</v>
-      </c>
-      <c r="D78" s="40"/>
-      <c r="E78" s="19"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="60">
+        <v>75</v>
+      </c>
+      <c r="D78" s="55"/>
+      <c r="E78" s="23"/>
       <c r="F78" s="20"/>
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
@@ -15936,11 +16119,11 @@
     <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="15"/>
-      <c r="C79" s="60">
-        <v>77</v>
-      </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="56"/>
+      <c r="C79" s="61">
+        <v>76</v>
+      </c>
+      <c r="D79" s="40"/>
+      <c r="E79" s="19"/>
       <c r="F79" s="20"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
@@ -16188,7 +16371,7 @@
       <c r="A80" s="47"/>
       <c r="B80" s="15"/>
       <c r="C80" s="60">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="55"/>
       <c r="E80" s="56"/>
@@ -16439,10 +16622,10 @@
       <c r="A81" s="47"/>
       <c r="B81" s="15"/>
       <c r="C81" s="60">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="55"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="56"/>
       <c r="F81" s="20"/>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
@@ -16688,12 +16871,12 @@
     </row>
     <row r="82" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
-      <c r="B82" s="43"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="60">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="55"/>
-      <c r="E82" s="23"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="20"/>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
@@ -16941,10 +17124,10 @@
       <c r="A83" s="47"/>
       <c r="B83" s="43"/>
       <c r="C83" s="60">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="23"/>
       <c r="F83" s="20"/>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
@@ -17192,7 +17375,7 @@
       <c r="A84" s="47"/>
       <c r="B84" s="43"/>
       <c r="C84" s="60">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="55"/>
       <c r="E84" s="56"/>
@@ -17443,7 +17626,7 @@
       <c r="A85" s="47"/>
       <c r="B85" s="43"/>
       <c r="C85" s="60">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" s="55"/>
       <c r="E85" s="56"/>
@@ -17694,7 +17877,7 @@
       <c r="A86" s="47"/>
       <c r="B86" s="43"/>
       <c r="C86" s="60">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="55"/>
       <c r="E86" s="56"/>
@@ -17943,12 +18126,12 @@
     </row>
     <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="16">
-        <v>85</v>
+      <c r="B87" s="43"/>
+      <c r="C87" s="60">
+        <v>84</v>
       </c>
       <c r="D87" s="55"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="20"/>
       <c r="G87" s="21"/>
       <c r="H87" s="21"/>
@@ -18196,7 +18379,7 @@
       <c r="A88" s="47"/>
       <c r="B88" s="15"/>
       <c r="C88" s="16">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="55"/>
       <c r="E88" s="41"/>
@@ -18447,7 +18630,7 @@
       <c r="A89" s="47"/>
       <c r="B89" s="15"/>
       <c r="C89" s="16">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" s="55"/>
       <c r="E89" s="41"/>
@@ -18697,11 +18880,11 @@
     <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
       <c r="B90" s="15"/>
-      <c r="C90" s="61">
-        <v>88</v>
-      </c>
-      <c r="D90" s="40"/>
-      <c r="E90" s="19"/>
+      <c r="C90" s="16">
+        <v>87</v>
+      </c>
+      <c r="D90" s="55"/>
+      <c r="E90" s="41"/>
       <c r="F90" s="20"/>
       <c r="G90" s="21"/>
       <c r="H90" s="21"/>
@@ -18948,11 +19131,11 @@
     <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="B91" s="15"/>
-      <c r="C91" s="60">
-        <v>89</v>
-      </c>
-      <c r="D91" s="55"/>
-      <c r="E91" s="41"/>
+      <c r="C91" s="61">
+        <v>88</v>
+      </c>
+      <c r="D91" s="40"/>
+      <c r="E91" s="19"/>
       <c r="F91" s="20"/>
       <c r="G91" s="21"/>
       <c r="H91" s="21"/>
@@ -19200,10 +19383,10 @@
       <c r="A92" s="47"/>
       <c r="B92" s="15"/>
       <c r="C92" s="60">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="55"/>
-      <c r="E92" s="56"/>
+      <c r="E92" s="41"/>
       <c r="F92" s="20"/>
       <c r="G92" s="21"/>
       <c r="H92" s="21"/>
@@ -19451,7 +19634,7 @@
       <c r="A93" s="47"/>
       <c r="B93" s="15"/>
       <c r="C93" s="60">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="55"/>
       <c r="E93" s="56"/>
@@ -19702,10 +19885,10 @@
       <c r="A94" s="47"/>
       <c r="B94" s="15"/>
       <c r="C94" s="60">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="55"/>
-      <c r="E94" s="23"/>
+      <c r="E94" s="56"/>
       <c r="F94" s="20"/>
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
@@ -19953,10 +20136,10 @@
       <c r="A95" s="47"/>
       <c r="B95" s="15"/>
       <c r="C95" s="60">
-        <v>93</v>
-      </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="53"/>
+        <v>92</v>
+      </c>
+      <c r="D95" s="55"/>
+      <c r="E95" s="23"/>
       <c r="F95" s="20"/>
       <c r="G95" s="21"/>
       <c r="H95" s="21"/>
@@ -20204,10 +20387,10 @@
       <c r="A96" s="47"/>
       <c r="B96" s="15"/>
       <c r="C96" s="60">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" s="40"/>
-      <c r="E96" s="19"/>
+      <c r="E96" s="53"/>
       <c r="F96" s="20"/>
       <c r="G96" s="21"/>
       <c r="H96" s="21"/>
@@ -20455,10 +20638,10 @@
       <c r="A97" s="47"/>
       <c r="B97" s="15"/>
       <c r="C97" s="60">
-        <v>95</v>
-      </c>
-      <c r="D97" s="55"/>
-      <c r="E97" s="41"/>
+        <v>94</v>
+      </c>
+      <c r="D97" s="40"/>
+      <c r="E97" s="19"/>
       <c r="F97" s="20"/>
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
@@ -20706,10 +20889,10 @@
       <c r="A98" s="47"/>
       <c r="B98" s="15"/>
       <c r="C98" s="60">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D98" s="55"/>
-      <c r="E98" s="56"/>
+      <c r="E98" s="41"/>
       <c r="F98" s="20"/>
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
@@ -20957,7 +21140,7 @@
       <c r="A99" s="47"/>
       <c r="B99" s="15"/>
       <c r="C99" s="60">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D99" s="55"/>
       <c r="E99" s="56"/>
@@ -21208,10 +21391,10 @@
       <c r="A100" s="47"/>
       <c r="B100" s="15"/>
       <c r="C100" s="60">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D100" s="55"/>
-      <c r="E100" s="41"/>
+      <c r="E100" s="56"/>
       <c r="F100" s="20"/>
       <c r="G100" s="21"/>
       <c r="H100" s="21"/>
@@ -21452,17 +21635,17 @@
       <c r="II100" s="39"/>
       <c r="IJ100" s="39"/>
       <c r="IK100" s="39"/>
-      <c r="IL100"/>
-      <c r="IM100"/>
+      <c r="IL100" s="39"/>
+      <c r="IM100" s="39"/>
     </row>
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
       <c r="B101" s="15"/>
       <c r="C101" s="60">
-        <v>99</v>
-      </c>
-      <c r="D101" s="40"/>
-      <c r="E101" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="D101" s="55"/>
+      <c r="E101" s="41"/>
       <c r="F101" s="20"/>
       <c r="G101" s="21"/>
       <c r="H101" s="21"/>
@@ -21703,14 +21886,14 @@
       <c r="II101" s="39"/>
       <c r="IJ101" s="39"/>
       <c r="IK101" s="39"/>
-      <c r="IL101" s="39"/>
-      <c r="IM101" s="39"/>
+      <c r="IL101"/>
+      <c r="IM101"/>
     </row>
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47"/>
       <c r="B102" s="15"/>
       <c r="C102" s="60">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="19"/>
@@ -21961,7 +22144,7 @@
       <c r="A103" s="47"/>
       <c r="B103" s="15"/>
       <c r="C103" s="60">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D103" s="40"/>
       <c r="E103" s="19"/>
@@ -22212,7 +22395,7 @@
       <c r="A104" s="47"/>
       <c r="B104" s="15"/>
       <c r="C104" s="60">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D104" s="40"/>
       <c r="E104" s="19"/>
@@ -22463,7 +22646,7 @@
       <c r="A105" s="47"/>
       <c r="B105" s="15"/>
       <c r="C105" s="60">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D105" s="40"/>
       <c r="E105" s="19"/>
@@ -22713,8 +22896,8 @@
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="61">
-        <v>104</v>
+      <c r="C106" s="60">
+        <v>103</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="19"/>
@@ -22963,12 +23146,12 @@
     </row>
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="60">
-        <v>105</v>
-      </c>
-      <c r="D107" s="55"/>
-      <c r="E107" s="23"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="61">
+        <v>104</v>
+      </c>
+      <c r="D107" s="40"/>
+      <c r="E107" s="19"/>
       <c r="F107" s="20"/>
       <c r="G107" s="21"/>
       <c r="H107" s="21"/>
@@ -23216,10 +23399,10 @@
       <c r="A108" s="47"/>
       <c r="B108" s="43"/>
       <c r="C108" s="60">
-        <v>106</v>
-      </c>
-      <c r="D108" s="40"/>
-      <c r="E108" s="19"/>
+        <v>105</v>
+      </c>
+      <c r="D108" s="55"/>
+      <c r="E108" s="23"/>
       <c r="F108" s="20"/>
       <c r="G108" s="21"/>
       <c r="H108" s="21"/>
@@ -23467,7 +23650,7 @@
       <c r="A109" s="47"/>
       <c r="B109" s="43"/>
       <c r="C109" s="60">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="19"/>
@@ -23716,9 +23899,9 @@
     </row>
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="60">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="19"/>
@@ -23969,7 +24152,7 @@
       <c r="A111" s="47"/>
       <c r="B111" s="15"/>
       <c r="C111" s="60">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" s="40"/>
       <c r="E111" s="19"/>
@@ -24219,11 +24402,11 @@
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47"/>
       <c r="B112" s="15"/>
-      <c r="C112" s="16">
-        <v>110</v>
-      </c>
-      <c r="D112" s="55"/>
-      <c r="E112" s="41"/>
+      <c r="C112" s="60">
+        <v>109</v>
+      </c>
+      <c r="D112" s="40"/>
+      <c r="E112" s="19"/>
       <c r="F112" s="20"/>
       <c r="G112" s="21"/>
       <c r="H112" s="21"/>
@@ -24471,7 +24654,7 @@
       <c r="A113" s="47"/>
       <c r="B113" s="15"/>
       <c r="C113" s="16">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D113" s="55"/>
       <c r="E113" s="41"/>
@@ -24722,10 +24905,10 @@
       <c r="A114" s="47"/>
       <c r="B114" s="15"/>
       <c r="C114" s="16">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D114" s="55"/>
-      <c r="E114" s="19"/>
+      <c r="E114" s="41"/>
       <c r="F114" s="20"/>
       <c r="G114" s="21"/>
       <c r="H114" s="21"/>
@@ -24972,11 +25155,11 @@
     <row r="115" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47"/>
       <c r="B115" s="15"/>
-      <c r="C115" s="60">
-        <v>113</v>
+      <c r="C115" s="16">
+        <v>112</v>
       </c>
       <c r="D115" s="55"/>
-      <c r="E115" s="23"/>
+      <c r="E115" s="19"/>
       <c r="F115" s="20"/>
       <c r="G115" s="21"/>
       <c r="H115" s="21"/>
@@ -25222,12 +25405,12 @@
     </row>
     <row r="116" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47"/>
-      <c r="B116" s="43"/>
+      <c r="B116" s="15"/>
       <c r="C116" s="60">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D116" s="55"/>
-      <c r="E116" s="56"/>
+      <c r="E116" s="23"/>
       <c r="F116" s="20"/>
       <c r="G116" s="21"/>
       <c r="H116" s="21"/>
@@ -25475,7 +25658,7 @@
       <c r="A117" s="47"/>
       <c r="B117" s="43"/>
       <c r="C117" s="60">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D117" s="55"/>
       <c r="E117" s="56"/>
@@ -25724,12 +25907,12 @@
     </row>
     <row r="118" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47"/>
-      <c r="B118" s="15"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="60">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" s="55"/>
-      <c r="E118" s="23"/>
+      <c r="E118" s="56"/>
       <c r="F118" s="20"/>
       <c r="G118" s="21"/>
       <c r="H118" s="21"/>
@@ -25977,12 +26160,12 @@
       <c r="A119" s="47"/>
       <c r="B119" s="15"/>
       <c r="C119" s="60">
-        <v>117</v>
-      </c>
-      <c r="D119" s="40"/>
-      <c r="E119" s="19"/>
+        <v>116</v>
+      </c>
+      <c r="D119" s="55"/>
+      <c r="E119" s="23"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
+      <c r="G119" s="21"/>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
@@ -26228,12 +26411,12 @@
       <c r="A120" s="47"/>
       <c r="B120" s="15"/>
       <c r="C120" s="60">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D120" s="40"/>
-      <c r="E120" s="23"/>
+      <c r="E120" s="19"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="21"/>
+      <c r="G120" s="20"/>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
       <c r="J120" s="22"/>
@@ -26479,10 +26662,11 @@
       <c r="A121" s="47"/>
       <c r="B121" s="15"/>
       <c r="C121" s="60">
-        <v>119</v>
-      </c>
-      <c r="D121" s="64"/>
-      <c r="F121" s="65"/>
+        <v>118</v>
+      </c>
+      <c r="D121" s="40"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="20"/>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
@@ -26729,11 +26913,10 @@
       <c r="A122" s="47"/>
       <c r="B122" s="15"/>
       <c r="C122" s="60">
-        <v>120</v>
-      </c>
-      <c r="D122" s="55"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="D122" s="64"/>
+      <c r="F122" s="65"/>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
@@ -26980,11 +27163,12 @@
       <c r="A123" s="47"/>
       <c r="B123" s="15"/>
       <c r="C123" s="60">
-        <v>121</v>
-      </c>
-      <c r="D123" s="40"/>
-      <c r="E123" s="19"/>
-      <c r="G123" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="D123" s="55"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="21"/>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
       <c r="J123" s="22"/>
@@ -27230,12 +27414,11 @@
       <c r="A124" s="47"/>
       <c r="B124" s="15"/>
       <c r="C124" s="60">
-        <v>122</v>
-      </c>
-      <c r="D124" s="55"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="D124" s="40"/>
+      <c r="E124" s="19"/>
+      <c r="G124" s="20"/>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
       <c r="J124" s="22"/>
@@ -27481,7 +27664,7 @@
       <c r="A125" s="47"/>
       <c r="B125" s="15"/>
       <c r="C125" s="60">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D125" s="55"/>
       <c r="E125" s="56"/>
@@ -27732,10 +27915,10 @@
       <c r="A126" s="47"/>
       <c r="B126" s="15"/>
       <c r="C126" s="60">
-        <v>124</v>
-      </c>
-      <c r="D126" s="40"/>
-      <c r="E126" s="41"/>
+        <v>123</v>
+      </c>
+      <c r="D126" s="55"/>
+      <c r="E126" s="56"/>
       <c r="F126" s="20"/>
       <c r="G126" s="21"/>
       <c r="H126" s="21"/>
@@ -27983,10 +28166,10 @@
       <c r="A127" s="47"/>
       <c r="B127" s="15"/>
       <c r="C127" s="60">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D127" s="40"/>
-      <c r="E127" s="19"/>
+      <c r="E127" s="41"/>
       <c r="F127" s="20"/>
       <c r="G127" s="21"/>
       <c r="H127" s="21"/>
@@ -28234,7 +28417,7 @@
       <c r="A128" s="47"/>
       <c r="B128" s="15"/>
       <c r="C128" s="60">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D128" s="40"/>
       <c r="E128" s="19"/>
@@ -28485,10 +28668,10 @@
       <c r="A129" s="47"/>
       <c r="B129" s="15"/>
       <c r="C129" s="60">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D129" s="40"/>
-      <c r="E129" s="56"/>
+      <c r="E129" s="19"/>
       <c r="F129" s="20"/>
       <c r="G129" s="21"/>
       <c r="H129" s="21"/>
@@ -28736,10 +28919,10 @@
       <c r="A130" s="47"/>
       <c r="B130" s="15"/>
       <c r="C130" s="60">
-        <v>128</v>
-      </c>
-      <c r="D130" s="55"/>
-      <c r="E130" s="23"/>
+        <v>127</v>
+      </c>
+      <c r="D130" s="40"/>
+      <c r="E130" s="56"/>
       <c r="F130" s="20"/>
       <c r="G130" s="21"/>
       <c r="H130" s="21"/>
@@ -28987,11 +29170,11 @@
       <c r="A131" s="47"/>
       <c r="B131" s="15"/>
       <c r="C131" s="60">
-        <v>129</v>
-      </c>
-      <c r="D131" s="64"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="65"/>
+        <v>128</v>
+      </c>
+      <c r="D131" s="55"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="20"/>
       <c r="G131" s="21"/>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
@@ -29238,11 +29421,11 @@
       <c r="A132" s="47"/>
       <c r="B132" s="15"/>
       <c r="C132" s="60">
-        <v>130</v>
-      </c>
-      <c r="D132" s="40"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="D132" s="64"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="65"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
@@ -29489,10 +29672,10 @@
       <c r="A133" s="47"/>
       <c r="B133" s="15"/>
       <c r="C133" s="60">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D133" s="40"/>
-      <c r="E133" s="19"/>
+      <c r="E133" s="41"/>
       <c r="F133" s="20"/>
       <c r="G133" s="21"/>
       <c r="H133" s="21"/>
@@ -29740,10 +29923,10 @@
       <c r="A134" s="47"/>
       <c r="B134" s="15"/>
       <c r="C134" s="60">
-        <v>132</v>
-      </c>
-      <c r="D134" s="55"/>
-      <c r="E134" s="23"/>
+        <v>131</v>
+      </c>
+      <c r="D134" s="40"/>
+      <c r="E134" s="19"/>
       <c r="F134" s="20"/>
       <c r="G134" s="21"/>
       <c r="H134" s="21"/>
@@ -29991,10 +30174,10 @@
       <c r="A135" s="47"/>
       <c r="B135" s="15"/>
       <c r="C135" s="60">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D135" s="55"/>
-      <c r="E135" s="41"/>
+      <c r="E135" s="23"/>
       <c r="F135" s="20"/>
       <c r="G135" s="21"/>
       <c r="H135" s="21"/>
@@ -30242,10 +30425,10 @@
       <c r="A136" s="47"/>
       <c r="B136" s="15"/>
       <c r="C136" s="60">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D136" s="55"/>
-      <c r="E136" s="56"/>
+      <c r="E136" s="41"/>
       <c r="F136" s="20"/>
       <c r="G136" s="21"/>
       <c r="H136" s="21"/>
@@ -30493,7 +30676,7 @@
       <c r="A137" s="47"/>
       <c r="B137" s="15"/>
       <c r="C137" s="60">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D137" s="55"/>
       <c r="E137" s="56"/>
@@ -30744,10 +30927,10 @@
       <c r="A138" s="47"/>
       <c r="B138" s="15"/>
       <c r="C138" s="60">
-        <v>136</v>
-      </c>
-      <c r="D138" s="40"/>
-      <c r="E138" s="41"/>
+        <v>135</v>
+      </c>
+      <c r="D138" s="55"/>
+      <c r="E138" s="56"/>
       <c r="F138" s="20"/>
       <c r="G138" s="21"/>
       <c r="H138" s="21"/>
@@ -30994,10 +31177,10 @@
     <row r="139" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="47"/>
       <c r="B139" s="15"/>
-      <c r="C139" s="16">
-        <v>137</v>
-      </c>
-      <c r="D139" s="55"/>
+      <c r="C139" s="60">
+        <v>136</v>
+      </c>
+      <c r="D139" s="40"/>
       <c r="E139" s="41"/>
       <c r="F139" s="20"/>
       <c r="G139" s="21"/>
@@ -31246,11 +31429,11 @@
       <c r="A140" s="47"/>
       <c r="B140" s="15"/>
       <c r="C140" s="16">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D140" s="55"/>
       <c r="E140" s="41"/>
-      <c r="F140" s="17"/>
+      <c r="F140" s="20"/>
       <c r="G140" s="21"/>
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
@@ -31497,7 +31680,7 @@
       <c r="A141" s="47"/>
       <c r="B141" s="15"/>
       <c r="C141" s="16">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D141" s="55"/>
       <c r="E141" s="41"/>
@@ -31748,7 +31931,7 @@
       <c r="A142" s="47"/>
       <c r="B142" s="15"/>
       <c r="C142" s="16">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D142" s="55"/>
       <c r="E142" s="41"/>
@@ -31999,7 +32182,7 @@
       <c r="A143" s="47"/>
       <c r="B143" s="15"/>
       <c r="C143" s="16">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D143" s="55"/>
       <c r="E143" s="41"/>
@@ -32249,12 +32432,12 @@
     <row r="144" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="47"/>
       <c r="B144" s="15"/>
-      <c r="C144" s="60">
-        <v>142</v>
-      </c>
-      <c r="D144" s="40"/>
+      <c r="C144" s="16">
+        <v>141</v>
+      </c>
+      <c r="D144" s="55"/>
       <c r="E144" s="41"/>
-      <c r="F144" s="20"/>
+      <c r="F144" s="17"/>
       <c r="G144" s="21"/>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
@@ -32501,12 +32684,12 @@
       <c r="A145" s="47"/>
       <c r="B145" s="15"/>
       <c r="C145" s="60">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="40"/>
       <c r="E145" s="41"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
+      <c r="G145" s="21"/>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
       <c r="J145" s="22"/>
@@ -32752,12 +32935,12 @@
       <c r="A146" s="47"/>
       <c r="B146" s="15"/>
       <c r="C146" s="60">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D146" s="40"/>
       <c r="E146" s="41"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="21"/>
+      <c r="G146" s="20"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="22"/>
@@ -33003,7 +33186,7 @@
       <c r="A147" s="47"/>
       <c r="B147" s="15"/>
       <c r="C147" s="60">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D147" s="40"/>
       <c r="E147" s="41"/>
@@ -33254,7 +33437,7 @@
       <c r="A148" s="47"/>
       <c r="B148" s="15"/>
       <c r="C148" s="60">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D148" s="40"/>
       <c r="E148" s="41"/>
@@ -33505,7 +33688,7 @@
       <c r="A149" s="47"/>
       <c r="B149" s="15"/>
       <c r="C149" s="60">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D149" s="40"/>
       <c r="E149" s="41"/>
@@ -33756,7 +33939,7 @@
       <c r="A150" s="47"/>
       <c r="B150" s="15"/>
       <c r="C150" s="60">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D150" s="40"/>
       <c r="E150" s="41"/>
@@ -34007,10 +34190,10 @@
       <c r="A151" s="47"/>
       <c r="B151" s="15"/>
       <c r="C151" s="60">
-        <v>149</v>
-      </c>
-      <c r="D151" s="55"/>
-      <c r="E151" s="23"/>
+        <v>148</v>
+      </c>
+      <c r="D151" s="40"/>
+      <c r="E151" s="41"/>
       <c r="F151" s="20"/>
       <c r="G151" s="21"/>
       <c r="H151" s="21"/>
@@ -34258,10 +34441,10 @@
       <c r="A152" s="47"/>
       <c r="B152" s="15"/>
       <c r="C152" s="60">
-        <v>150</v>
-      </c>
-      <c r="D152" s="40"/>
-      <c r="E152" s="41"/>
+        <v>149</v>
+      </c>
+      <c r="D152" s="55"/>
+      <c r="E152" s="23"/>
       <c r="F152" s="20"/>
       <c r="G152" s="21"/>
       <c r="H152" s="21"/>
@@ -34509,7 +34692,7 @@
       <c r="A153" s="47"/>
       <c r="B153" s="15"/>
       <c r="C153" s="60">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D153" s="40"/>
       <c r="E153" s="41"/>
@@ -34760,7 +34943,7 @@
       <c r="A154" s="47"/>
       <c r="B154" s="15"/>
       <c r="C154" s="60">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D154" s="40"/>
       <c r="E154" s="41"/>
@@ -35011,7 +35194,7 @@
       <c r="A155" s="47"/>
       <c r="B155" s="15"/>
       <c r="C155" s="60">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155" s="40"/>
       <c r="E155" s="41"/>
@@ -35262,7 +35445,7 @@
       <c r="A156" s="47"/>
       <c r="B156" s="15"/>
       <c r="C156" s="60">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="41"/>
@@ -35513,7 +35696,7 @@
       <c r="A157" s="47"/>
       <c r="B157" s="15"/>
       <c r="C157" s="60">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D157" s="40"/>
       <c r="E157" s="41"/>
@@ -35764,7 +35947,7 @@
       <c r="A158" s="47"/>
       <c r="B158" s="15"/>
       <c r="C158" s="60">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D158" s="40"/>
       <c r="E158" s="41"/>
@@ -36015,10 +36198,10 @@
       <c r="A159" s="47"/>
       <c r="B159" s="15"/>
       <c r="C159" s="60">
-        <v>157</v>
-      </c>
-      <c r="D159" s="55"/>
-      <c r="E159" s="23"/>
+        <v>156</v>
+      </c>
+      <c r="D159" s="40"/>
+      <c r="E159" s="41"/>
       <c r="F159" s="20"/>
       <c r="G159" s="21"/>
       <c r="H159" s="21"/>
@@ -36266,10 +36449,10 @@
       <c r="A160" s="47"/>
       <c r="B160" s="15"/>
       <c r="C160" s="60">
-        <v>158</v>
-      </c>
-      <c r="D160" s="40"/>
-      <c r="E160" s="41"/>
+        <v>157</v>
+      </c>
+      <c r="D160" s="55"/>
+      <c r="E160" s="23"/>
       <c r="F160" s="20"/>
       <c r="G160" s="21"/>
       <c r="H160" s="21"/>
@@ -36517,11 +36700,11 @@
       <c r="A161" s="47"/>
       <c r="B161" s="15"/>
       <c r="C161" s="60">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" s="40"/>
       <c r="E161" s="41"/>
-      <c r="F161" s="21"/>
+      <c r="F161" s="20"/>
       <c r="G161" s="21"/>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
@@ -36768,11 +36951,11 @@
       <c r="A162" s="47"/>
       <c r="B162" s="15"/>
       <c r="C162" s="60">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D162" s="40"/>
       <c r="E162" s="41"/>
-      <c r="F162" s="20"/>
+      <c r="F162" s="21"/>
       <c r="G162" s="21"/>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
@@ -37019,7 +37202,7 @@
       <c r="A163" s="47"/>
       <c r="B163" s="15"/>
       <c r="C163" s="60">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D163" s="40"/>
       <c r="E163" s="41"/>
@@ -37270,7 +37453,7 @@
       <c r="A164" s="47"/>
       <c r="B164" s="15"/>
       <c r="C164" s="60">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D164" s="40"/>
       <c r="E164" s="41"/>
@@ -37520,7 +37703,9 @@
     <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="47"/>
       <c r="B165" s="15"/>
-      <c r="C165" s="60"/>
+      <c r="C165" s="60">
+        <v>162</v>
+      </c>
       <c r="D165" s="40"/>
       <c r="E165" s="41"/>
       <c r="F165" s="20"/>
@@ -38266,7 +38451,7 @@
     </row>
     <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="47"/>
-      <c r="B168" s="43"/>
+      <c r="B168" s="15"/>
       <c r="C168" s="60"/>
       <c r="D168" s="40"/>
       <c r="E168" s="41"/>
@@ -38515,7 +38700,7 @@
     </row>
     <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="47"/>
-      <c r="B169" s="15"/>
+      <c r="B169" s="43"/>
       <c r="C169" s="60"/>
       <c r="D169" s="40"/>
       <c r="E169" s="41"/>
@@ -38764,285 +38949,285 @@
     </row>
     <row r="170" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="47"/>
-      <c r="B170" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C170" s="62"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="32"/>
-      <c r="F170" s="33">
-        <f>SUM(F3:F169)</f>
-        <v>-1097.56</v>
-      </c>
-      <c r="G170" s="34">
-        <f>SUM(G3:G169)</f>
-        <v>-1587.94</v>
-      </c>
-      <c r="H170" s="34">
-        <f>SUM(H3:H169)</f>
-        <v>0</v>
-      </c>
-      <c r="I170" s="34">
-        <f>SUM(I3:I169)</f>
-        <v>0</v>
-      </c>
-      <c r="J170" s="51">
-        <f>SUM(J3:J169)</f>
-        <v>0</v>
-      </c>
-      <c r="K170" s="50"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="60"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="41"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21"/>
+      <c r="I170" s="21"/>
+      <c r="J170" s="22"/>
+      <c r="K170" s="4"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
-      <c r="IM170"/>
+      <c r="N170" s="39"/>
+      <c r="O170" s="39"/>
+      <c r="P170" s="39"/>
+      <c r="Q170" s="39"/>
+      <c r="R170" s="39"/>
+      <c r="S170" s="39"/>
+      <c r="T170" s="39"/>
+      <c r="U170" s="39"/>
+      <c r="V170" s="39"/>
+      <c r="W170" s="39"/>
+      <c r="X170" s="39"/>
+      <c r="Y170" s="39"/>
+      <c r="Z170" s="39"/>
+      <c r="AA170" s="39"/>
+      <c r="AB170" s="39"/>
+      <c r="AC170" s="39"/>
+      <c r="AD170" s="39"/>
+      <c r="AE170" s="39"/>
+      <c r="AF170" s="39"/>
+      <c r="AG170" s="39"/>
+      <c r="AH170" s="39"/>
+      <c r="AI170" s="39"/>
+      <c r="AJ170" s="39"/>
+      <c r="AK170" s="39"/>
+      <c r="AL170" s="39"/>
+      <c r="AM170" s="39"/>
+      <c r="AN170" s="39"/>
+      <c r="AO170" s="39"/>
+      <c r="AP170" s="39"/>
+      <c r="AQ170" s="39"/>
+      <c r="AR170" s="39"/>
+      <c r="AS170" s="39"/>
+      <c r="AT170" s="39"/>
+      <c r="AU170" s="39"/>
+      <c r="AV170" s="39"/>
+      <c r="AW170" s="39"/>
+      <c r="AX170" s="39"/>
+      <c r="AY170" s="39"/>
+      <c r="AZ170" s="39"/>
+      <c r="BA170" s="39"/>
+      <c r="BB170" s="39"/>
+      <c r="BC170" s="39"/>
+      <c r="BD170" s="39"/>
+      <c r="BE170" s="39"/>
+      <c r="BF170" s="39"/>
+      <c r="BG170" s="39"/>
+      <c r="BH170" s="39"/>
+      <c r="BI170" s="39"/>
+      <c r="BJ170" s="39"/>
+      <c r="BK170" s="39"/>
+      <c r="BL170" s="39"/>
+      <c r="BM170" s="39"/>
+      <c r="BN170" s="39"/>
+      <c r="BO170" s="39"/>
+      <c r="BP170" s="39"/>
+      <c r="BQ170" s="39"/>
+      <c r="BR170" s="39"/>
+      <c r="BS170" s="39"/>
+      <c r="BT170" s="39"/>
+      <c r="BU170" s="39"/>
+      <c r="BV170" s="39"/>
+      <c r="BW170" s="39"/>
+      <c r="BX170" s="39"/>
+      <c r="BY170" s="39"/>
+      <c r="BZ170" s="39"/>
+      <c r="CA170" s="39"/>
+      <c r="CB170" s="39"/>
+      <c r="CC170" s="39"/>
+      <c r="CD170" s="39"/>
+      <c r="CE170" s="39"/>
+      <c r="CF170" s="39"/>
+      <c r="CG170" s="39"/>
+      <c r="CH170" s="39"/>
+      <c r="CI170" s="39"/>
+      <c r="CJ170" s="39"/>
+      <c r="CK170" s="39"/>
+      <c r="CL170" s="39"/>
+      <c r="CM170" s="39"/>
+      <c r="CN170" s="39"/>
+      <c r="CO170" s="39"/>
+      <c r="CP170" s="39"/>
+      <c r="CQ170" s="39"/>
+      <c r="CR170" s="39"/>
+      <c r="CS170" s="39"/>
+      <c r="CT170" s="39"/>
+      <c r="CU170" s="39"/>
+      <c r="CV170" s="39"/>
+      <c r="CW170" s="39"/>
+      <c r="CX170" s="39"/>
+      <c r="CY170" s="39"/>
+      <c r="CZ170" s="39"/>
+      <c r="DA170" s="39"/>
+      <c r="DB170" s="39"/>
+      <c r="DC170" s="39"/>
+      <c r="DD170" s="39"/>
+      <c r="DE170" s="39"/>
+      <c r="DF170" s="39"/>
+      <c r="DG170" s="39"/>
+      <c r="DH170" s="39"/>
+      <c r="DI170" s="39"/>
+      <c r="DJ170" s="39"/>
+      <c r="DK170" s="39"/>
+      <c r="DL170" s="39"/>
+      <c r="DM170" s="39"/>
+      <c r="DN170" s="39"/>
+      <c r="DO170" s="39"/>
+      <c r="DP170" s="39"/>
+      <c r="DQ170" s="39"/>
+      <c r="DR170" s="39"/>
+      <c r="DS170" s="39"/>
+      <c r="DT170" s="39"/>
+      <c r="DU170" s="39"/>
+      <c r="DV170" s="39"/>
+      <c r="DW170" s="39"/>
+      <c r="DX170" s="39"/>
+      <c r="DY170" s="39"/>
+      <c r="DZ170" s="39"/>
+      <c r="EA170" s="39"/>
+      <c r="EB170" s="39"/>
+      <c r="EC170" s="39"/>
+      <c r="ED170" s="39"/>
+      <c r="EE170" s="39"/>
+      <c r="EF170" s="39"/>
+      <c r="EG170" s="39"/>
+      <c r="EH170" s="39"/>
+      <c r="EI170" s="39"/>
+      <c r="EJ170" s="39"/>
+      <c r="EK170" s="39"/>
+      <c r="EL170" s="39"/>
+      <c r="EM170" s="39"/>
+      <c r="EN170" s="39"/>
+      <c r="EO170" s="39"/>
+      <c r="EP170" s="39"/>
+      <c r="EQ170" s="39"/>
+      <c r="ER170" s="39"/>
+      <c r="ES170" s="39"/>
+      <c r="ET170" s="39"/>
+      <c r="EU170" s="39"/>
+      <c r="EV170" s="39"/>
+      <c r="EW170" s="39"/>
+      <c r="EX170" s="39"/>
+      <c r="EY170" s="39"/>
+      <c r="EZ170" s="39"/>
+      <c r="FA170" s="39"/>
+      <c r="FB170" s="39"/>
+      <c r="FC170" s="39"/>
+      <c r="FD170" s="39"/>
+      <c r="FE170" s="39"/>
+      <c r="FF170" s="39"/>
+      <c r="FG170" s="39"/>
+      <c r="FH170" s="39"/>
+      <c r="FI170" s="39"/>
+      <c r="FJ170" s="39"/>
+      <c r="FK170" s="39"/>
+      <c r="FL170" s="39"/>
+      <c r="FM170" s="39"/>
+      <c r="FN170" s="39"/>
+      <c r="FO170" s="39"/>
+      <c r="FP170" s="39"/>
+      <c r="FQ170" s="39"/>
+      <c r="FR170" s="39"/>
+      <c r="FS170" s="39"/>
+      <c r="FT170" s="39"/>
+      <c r="FU170" s="39"/>
+      <c r="FV170" s="39"/>
+      <c r="FW170" s="39"/>
+      <c r="FX170" s="39"/>
+      <c r="FY170" s="39"/>
+      <c r="FZ170" s="39"/>
+      <c r="GA170" s="39"/>
+      <c r="GB170" s="39"/>
+      <c r="GC170" s="39"/>
+      <c r="GD170" s="39"/>
+      <c r="GE170" s="39"/>
+      <c r="GF170" s="39"/>
+      <c r="GG170" s="39"/>
+      <c r="GH170" s="39"/>
+      <c r="GI170" s="39"/>
+      <c r="GJ170" s="39"/>
+      <c r="GK170" s="39"/>
+      <c r="GL170" s="39"/>
+      <c r="GM170" s="39"/>
+      <c r="GN170" s="39"/>
+      <c r="GO170" s="39"/>
+      <c r="GP170" s="39"/>
+      <c r="GQ170" s="39"/>
+      <c r="GR170" s="39"/>
+      <c r="GS170" s="39"/>
+      <c r="GT170" s="39"/>
+      <c r="GU170" s="39"/>
+      <c r="GV170" s="39"/>
+      <c r="GW170" s="39"/>
+      <c r="GX170" s="39"/>
+      <c r="GY170" s="39"/>
+      <c r="GZ170" s="39"/>
+      <c r="HA170" s="39"/>
+      <c r="HB170" s="39"/>
+      <c r="HC170" s="39"/>
+      <c r="HD170" s="39"/>
+      <c r="HE170" s="39"/>
+      <c r="HF170" s="39"/>
+      <c r="HG170" s="39"/>
+      <c r="HH170" s="39"/>
+      <c r="HI170" s="39"/>
+      <c r="HJ170" s="39"/>
+      <c r="HK170" s="39"/>
+      <c r="HL170" s="39"/>
+      <c r="HM170" s="39"/>
+      <c r="HN170" s="39"/>
+      <c r="HO170" s="39"/>
+      <c r="HP170" s="39"/>
+      <c r="HQ170" s="39"/>
+      <c r="HR170" s="39"/>
+      <c r="HS170" s="39"/>
+      <c r="HT170" s="39"/>
+      <c r="HU170" s="39"/>
+      <c r="HV170" s="39"/>
+      <c r="HW170" s="39"/>
+      <c r="HX170" s="39"/>
+      <c r="HY170" s="39"/>
+      <c r="HZ170" s="39"/>
+      <c r="IA170" s="39"/>
+      <c r="IB170" s="39"/>
+      <c r="IC170" s="39"/>
+      <c r="ID170" s="39"/>
+      <c r="IE170" s="39"/>
+      <c r="IF170" s="39"/>
+      <c r="IG170" s="39"/>
+      <c r="IH170" s="39"/>
+      <c r="II170" s="39"/>
+      <c r="IJ170" s="39"/>
+      <c r="IK170" s="39"/>
+      <c r="IL170" s="39"/>
+      <c r="IM170" s="39"/>
     </row>
     <row r="171" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="48"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="2"/>
+      <c r="A171" s="47"/>
+      <c r="B171" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" s="62"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="33">
+        <f>SUM(F3:F170)</f>
+        <v>-1097.56</v>
+      </c>
+      <c r="G171" s="34">
+        <f>SUM(G3:G170)</f>
+        <v>-2292.4700000000003</v>
+      </c>
+      <c r="H171" s="34">
+        <f>SUM(H3:H170)</f>
+        <v>0</v>
+      </c>
+      <c r="I171" s="34">
+        <f>SUM(I3:I170)</f>
+        <v>-163.41</v>
+      </c>
+      <c r="J171" s="51">
+        <f>SUM(J3:J170)</f>
+        <v>0</v>
+      </c>
+      <c r="K171" s="50"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
-      <c r="N171" s="39"/>
-      <c r="O171" s="39"/>
-      <c r="P171" s="39"/>
-      <c r="Q171" s="39"/>
-      <c r="R171" s="39"/>
-      <c r="S171" s="39"/>
-      <c r="T171" s="39"/>
-      <c r="U171" s="39"/>
-      <c r="V171" s="39"/>
-      <c r="W171" s="39"/>
-      <c r="X171" s="39"/>
-      <c r="Y171" s="39"/>
-      <c r="Z171" s="39"/>
-      <c r="AA171" s="39"/>
-      <c r="AB171" s="39"/>
-      <c r="AC171" s="39"/>
-      <c r="AD171" s="39"/>
-      <c r="AE171" s="39"/>
-      <c r="AF171" s="39"/>
-      <c r="AG171" s="39"/>
-      <c r="AH171" s="39"/>
-      <c r="AI171" s="39"/>
-      <c r="AJ171" s="39"/>
-      <c r="AK171" s="39"/>
-      <c r="AL171" s="39"/>
-      <c r="AM171" s="39"/>
-      <c r="AN171" s="39"/>
-      <c r="AO171" s="39"/>
-      <c r="AP171" s="39"/>
-      <c r="AQ171" s="39"/>
-      <c r="AR171" s="39"/>
-      <c r="AS171" s="39"/>
-      <c r="AT171" s="39"/>
-      <c r="AU171" s="39"/>
-      <c r="AV171" s="39"/>
-      <c r="AW171" s="39"/>
-      <c r="AX171" s="39"/>
-      <c r="AY171" s="39"/>
-      <c r="AZ171" s="39"/>
-      <c r="BA171" s="39"/>
-      <c r="BB171" s="39"/>
-      <c r="BC171" s="39"/>
-      <c r="BD171" s="39"/>
-      <c r="BE171" s="39"/>
-      <c r="BF171" s="39"/>
-      <c r="BG171" s="39"/>
-      <c r="BH171" s="39"/>
-      <c r="BI171" s="39"/>
-      <c r="BJ171" s="39"/>
-      <c r="BK171" s="39"/>
-      <c r="BL171" s="39"/>
-      <c r="BM171" s="39"/>
-      <c r="BN171" s="39"/>
-      <c r="BO171" s="39"/>
-      <c r="BP171" s="39"/>
-      <c r="BQ171" s="39"/>
-      <c r="BR171" s="39"/>
-      <c r="BS171" s="39"/>
-      <c r="BT171" s="39"/>
-      <c r="BU171" s="39"/>
-      <c r="BV171" s="39"/>
-      <c r="BW171" s="39"/>
-      <c r="BX171" s="39"/>
-      <c r="BY171" s="39"/>
-      <c r="BZ171" s="39"/>
-      <c r="CA171" s="39"/>
-      <c r="CB171" s="39"/>
-      <c r="CC171" s="39"/>
-      <c r="CD171" s="39"/>
-      <c r="CE171" s="39"/>
-      <c r="CF171" s="39"/>
-      <c r="CG171" s="39"/>
-      <c r="CH171" s="39"/>
-      <c r="CI171" s="39"/>
-      <c r="CJ171" s="39"/>
-      <c r="CK171" s="39"/>
-      <c r="CL171" s="39"/>
-      <c r="CM171" s="39"/>
-      <c r="CN171" s="39"/>
-      <c r="CO171" s="39"/>
-      <c r="CP171" s="39"/>
-      <c r="CQ171" s="39"/>
-      <c r="CR171" s="39"/>
-      <c r="CS171" s="39"/>
-      <c r="CT171" s="39"/>
-      <c r="CU171" s="39"/>
-      <c r="CV171" s="39"/>
-      <c r="CW171" s="39"/>
-      <c r="CX171" s="39"/>
-      <c r="CY171" s="39"/>
-      <c r="CZ171" s="39"/>
-      <c r="DA171" s="39"/>
-      <c r="DB171" s="39"/>
-      <c r="DC171" s="39"/>
-      <c r="DD171" s="39"/>
-      <c r="DE171" s="39"/>
-      <c r="DF171" s="39"/>
-      <c r="DG171" s="39"/>
-      <c r="DH171" s="39"/>
-      <c r="DI171" s="39"/>
-      <c r="DJ171" s="39"/>
-      <c r="DK171" s="39"/>
-      <c r="DL171" s="39"/>
-      <c r="DM171" s="39"/>
-      <c r="DN171" s="39"/>
-      <c r="DO171" s="39"/>
-      <c r="DP171" s="39"/>
-      <c r="DQ171" s="39"/>
-      <c r="DR171" s="39"/>
-      <c r="DS171" s="39"/>
-      <c r="DT171" s="39"/>
-      <c r="DU171" s="39"/>
-      <c r="DV171" s="39"/>
-      <c r="DW171" s="39"/>
-      <c r="DX171" s="39"/>
-      <c r="DY171" s="39"/>
-      <c r="DZ171" s="39"/>
-      <c r="EA171" s="39"/>
-      <c r="EB171" s="39"/>
-      <c r="EC171" s="39"/>
-      <c r="ED171" s="39"/>
-      <c r="EE171" s="39"/>
-      <c r="EF171" s="39"/>
-      <c r="EG171" s="39"/>
-      <c r="EH171" s="39"/>
-      <c r="EI171" s="39"/>
-      <c r="EJ171" s="39"/>
-      <c r="EK171" s="39"/>
-      <c r="EL171" s="39"/>
-      <c r="EM171" s="39"/>
-      <c r="EN171" s="39"/>
-      <c r="EO171" s="39"/>
-      <c r="EP171" s="39"/>
-      <c r="EQ171" s="39"/>
-      <c r="ER171" s="39"/>
-      <c r="ES171" s="39"/>
-      <c r="ET171" s="39"/>
-      <c r="EU171" s="39"/>
-      <c r="EV171" s="39"/>
-      <c r="EW171" s="39"/>
-      <c r="EX171" s="39"/>
-      <c r="EY171" s="39"/>
-      <c r="EZ171" s="39"/>
-      <c r="FA171" s="39"/>
-      <c r="FB171" s="39"/>
-      <c r="FC171" s="39"/>
-      <c r="FD171" s="39"/>
-      <c r="FE171" s="39"/>
-      <c r="FF171" s="39"/>
-      <c r="FG171" s="39"/>
-      <c r="FH171" s="39"/>
-      <c r="FI171" s="39"/>
-      <c r="FJ171" s="39"/>
-      <c r="FK171" s="39"/>
-      <c r="FL171" s="39"/>
-      <c r="FM171" s="39"/>
-      <c r="FN171" s="39"/>
-      <c r="FO171" s="39"/>
-      <c r="FP171" s="39"/>
-      <c r="FQ171" s="39"/>
-      <c r="FR171" s="39"/>
-      <c r="FS171" s="39"/>
-      <c r="FT171" s="39"/>
-      <c r="FU171" s="39"/>
-      <c r="FV171" s="39"/>
-      <c r="FW171" s="39"/>
-      <c r="FX171" s="39"/>
-      <c r="FY171" s="39"/>
-      <c r="FZ171" s="39"/>
-      <c r="GA171" s="39"/>
-      <c r="GB171" s="39"/>
-      <c r="GC171" s="39"/>
-      <c r="GD171" s="39"/>
-      <c r="GE171" s="39"/>
-      <c r="GF171" s="39"/>
-      <c r="GG171" s="39"/>
-      <c r="GH171" s="39"/>
-      <c r="GI171" s="39"/>
-      <c r="GJ171" s="39"/>
-      <c r="GK171" s="39"/>
-      <c r="GL171" s="39"/>
-      <c r="GM171" s="39"/>
-      <c r="GN171" s="39"/>
-      <c r="GO171" s="39"/>
-      <c r="GP171" s="39"/>
-      <c r="GQ171" s="39"/>
-      <c r="GR171" s="39"/>
-      <c r="GS171" s="39"/>
-      <c r="GT171" s="39"/>
-      <c r="GU171" s="39"/>
-      <c r="GV171" s="39"/>
-      <c r="GW171" s="39"/>
-      <c r="GX171" s="39"/>
-      <c r="GY171" s="39"/>
-      <c r="GZ171" s="39"/>
-      <c r="HA171" s="39"/>
-      <c r="HB171" s="39"/>
-      <c r="HC171" s="39"/>
-      <c r="HD171" s="39"/>
-      <c r="HE171" s="39"/>
-      <c r="HF171" s="39"/>
-      <c r="HG171" s="39"/>
-      <c r="HH171" s="39"/>
-      <c r="HI171" s="39"/>
-      <c r="HJ171" s="39"/>
-      <c r="HK171" s="39"/>
-      <c r="HL171" s="39"/>
-      <c r="HM171" s="39"/>
-      <c r="HN171" s="39"/>
-      <c r="HO171" s="39"/>
-      <c r="HP171" s="39"/>
-      <c r="HQ171" s="39"/>
-      <c r="HR171" s="39"/>
-      <c r="HS171" s="39"/>
-      <c r="HT171" s="39"/>
-      <c r="HU171" s="39"/>
-      <c r="HV171" s="39"/>
-      <c r="HW171" s="39"/>
-      <c r="HX171" s="39"/>
-      <c r="HY171" s="39"/>
-      <c r="HZ171" s="39"/>
-      <c r="IA171" s="39"/>
-      <c r="IB171" s="39"/>
-      <c r="IC171" s="39"/>
-      <c r="ID171" s="39"/>
-      <c r="IE171" s="39"/>
-      <c r="IF171" s="39"/>
-      <c r="IG171" s="39"/>
-      <c r="IH171" s="39"/>
-      <c r="II171" s="39"/>
-      <c r="IJ171" s="39"/>
-      <c r="IK171" s="39"/>
-      <c r="IL171" s="39"/>
-      <c r="IM171" s="39"/>
+      <c r="IM171"/>
     </row>
     <row r="172" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="48"/>
@@ -39556,6 +39741,240 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
+      <c r="N174" s="39"/>
+      <c r="O174" s="39"/>
+      <c r="P174" s="39"/>
+      <c r="Q174" s="39"/>
+      <c r="R174" s="39"/>
+      <c r="S174" s="39"/>
+      <c r="T174" s="39"/>
+      <c r="U174" s="39"/>
+      <c r="V174" s="39"/>
+      <c r="W174" s="39"/>
+      <c r="X174" s="39"/>
+      <c r="Y174" s="39"/>
+      <c r="Z174" s="39"/>
+      <c r="AA174" s="39"/>
+      <c r="AB174" s="39"/>
+      <c r="AC174" s="39"/>
+      <c r="AD174" s="39"/>
+      <c r="AE174" s="39"/>
+      <c r="AF174" s="39"/>
+      <c r="AG174" s="39"/>
+      <c r="AH174" s="39"/>
+      <c r="AI174" s="39"/>
+      <c r="AJ174" s="39"/>
+      <c r="AK174" s="39"/>
+      <c r="AL174" s="39"/>
+      <c r="AM174" s="39"/>
+      <c r="AN174" s="39"/>
+      <c r="AO174" s="39"/>
+      <c r="AP174" s="39"/>
+      <c r="AQ174" s="39"/>
+      <c r="AR174" s="39"/>
+      <c r="AS174" s="39"/>
+      <c r="AT174" s="39"/>
+      <c r="AU174" s="39"/>
+      <c r="AV174" s="39"/>
+      <c r="AW174" s="39"/>
+      <c r="AX174" s="39"/>
+      <c r="AY174" s="39"/>
+      <c r="AZ174" s="39"/>
+      <c r="BA174" s="39"/>
+      <c r="BB174" s="39"/>
+      <c r="BC174" s="39"/>
+      <c r="BD174" s="39"/>
+      <c r="BE174" s="39"/>
+      <c r="BF174" s="39"/>
+      <c r="BG174" s="39"/>
+      <c r="BH174" s="39"/>
+      <c r="BI174" s="39"/>
+      <c r="BJ174" s="39"/>
+      <c r="BK174" s="39"/>
+      <c r="BL174" s="39"/>
+      <c r="BM174" s="39"/>
+      <c r="BN174" s="39"/>
+      <c r="BO174" s="39"/>
+      <c r="BP174" s="39"/>
+      <c r="BQ174" s="39"/>
+      <c r="BR174" s="39"/>
+      <c r="BS174" s="39"/>
+      <c r="BT174" s="39"/>
+      <c r="BU174" s="39"/>
+      <c r="BV174" s="39"/>
+      <c r="BW174" s="39"/>
+      <c r="BX174" s="39"/>
+      <c r="BY174" s="39"/>
+      <c r="BZ174" s="39"/>
+      <c r="CA174" s="39"/>
+      <c r="CB174" s="39"/>
+      <c r="CC174" s="39"/>
+      <c r="CD174" s="39"/>
+      <c r="CE174" s="39"/>
+      <c r="CF174" s="39"/>
+      <c r="CG174" s="39"/>
+      <c r="CH174" s="39"/>
+      <c r="CI174" s="39"/>
+      <c r="CJ174" s="39"/>
+      <c r="CK174" s="39"/>
+      <c r="CL174" s="39"/>
+      <c r="CM174" s="39"/>
+      <c r="CN174" s="39"/>
+      <c r="CO174" s="39"/>
+      <c r="CP174" s="39"/>
+      <c r="CQ174" s="39"/>
+      <c r="CR174" s="39"/>
+      <c r="CS174" s="39"/>
+      <c r="CT174" s="39"/>
+      <c r="CU174" s="39"/>
+      <c r="CV174" s="39"/>
+      <c r="CW174" s="39"/>
+      <c r="CX174" s="39"/>
+      <c r="CY174" s="39"/>
+      <c r="CZ174" s="39"/>
+      <c r="DA174" s="39"/>
+      <c r="DB174" s="39"/>
+      <c r="DC174" s="39"/>
+      <c r="DD174" s="39"/>
+      <c r="DE174" s="39"/>
+      <c r="DF174" s="39"/>
+      <c r="DG174" s="39"/>
+      <c r="DH174" s="39"/>
+      <c r="DI174" s="39"/>
+      <c r="DJ174" s="39"/>
+      <c r="DK174" s="39"/>
+      <c r="DL174" s="39"/>
+      <c r="DM174" s="39"/>
+      <c r="DN174" s="39"/>
+      <c r="DO174" s="39"/>
+      <c r="DP174" s="39"/>
+      <c r="DQ174" s="39"/>
+      <c r="DR174" s="39"/>
+      <c r="DS174" s="39"/>
+      <c r="DT174" s="39"/>
+      <c r="DU174" s="39"/>
+      <c r="DV174" s="39"/>
+      <c r="DW174" s="39"/>
+      <c r="DX174" s="39"/>
+      <c r="DY174" s="39"/>
+      <c r="DZ174" s="39"/>
+      <c r="EA174" s="39"/>
+      <c r="EB174" s="39"/>
+      <c r="EC174" s="39"/>
+      <c r="ED174" s="39"/>
+      <c r="EE174" s="39"/>
+      <c r="EF174" s="39"/>
+      <c r="EG174" s="39"/>
+      <c r="EH174" s="39"/>
+      <c r="EI174" s="39"/>
+      <c r="EJ174" s="39"/>
+      <c r="EK174" s="39"/>
+      <c r="EL174" s="39"/>
+      <c r="EM174" s="39"/>
+      <c r="EN174" s="39"/>
+      <c r="EO174" s="39"/>
+      <c r="EP174" s="39"/>
+      <c r="EQ174" s="39"/>
+      <c r="ER174" s="39"/>
+      <c r="ES174" s="39"/>
+      <c r="ET174" s="39"/>
+      <c r="EU174" s="39"/>
+      <c r="EV174" s="39"/>
+      <c r="EW174" s="39"/>
+      <c r="EX174" s="39"/>
+      <c r="EY174" s="39"/>
+      <c r="EZ174" s="39"/>
+      <c r="FA174" s="39"/>
+      <c r="FB174" s="39"/>
+      <c r="FC174" s="39"/>
+      <c r="FD174" s="39"/>
+      <c r="FE174" s="39"/>
+      <c r="FF174" s="39"/>
+      <c r="FG174" s="39"/>
+      <c r="FH174" s="39"/>
+      <c r="FI174" s="39"/>
+      <c r="FJ174" s="39"/>
+      <c r="FK174" s="39"/>
+      <c r="FL174" s="39"/>
+      <c r="FM174" s="39"/>
+      <c r="FN174" s="39"/>
+      <c r="FO174" s="39"/>
+      <c r="FP174" s="39"/>
+      <c r="FQ174" s="39"/>
+      <c r="FR174" s="39"/>
+      <c r="FS174" s="39"/>
+      <c r="FT174" s="39"/>
+      <c r="FU174" s="39"/>
+      <c r="FV174" s="39"/>
+      <c r="FW174" s="39"/>
+      <c r="FX174" s="39"/>
+      <c r="FY174" s="39"/>
+      <c r="FZ174" s="39"/>
+      <c r="GA174" s="39"/>
+      <c r="GB174" s="39"/>
+      <c r="GC174" s="39"/>
+      <c r="GD174" s="39"/>
+      <c r="GE174" s="39"/>
+      <c r="GF174" s="39"/>
+      <c r="GG174" s="39"/>
+      <c r="GH174" s="39"/>
+      <c r="GI174" s="39"/>
+      <c r="GJ174" s="39"/>
+      <c r="GK174" s="39"/>
+      <c r="GL174" s="39"/>
+      <c r="GM174" s="39"/>
+      <c r="GN174" s="39"/>
+      <c r="GO174" s="39"/>
+      <c r="GP174" s="39"/>
+      <c r="GQ174" s="39"/>
+      <c r="GR174" s="39"/>
+      <c r="GS174" s="39"/>
+      <c r="GT174" s="39"/>
+      <c r="GU174" s="39"/>
+      <c r="GV174" s="39"/>
+      <c r="GW174" s="39"/>
+      <c r="GX174" s="39"/>
+      <c r="GY174" s="39"/>
+      <c r="GZ174" s="39"/>
+      <c r="HA174" s="39"/>
+      <c r="HB174" s="39"/>
+      <c r="HC174" s="39"/>
+      <c r="HD174" s="39"/>
+      <c r="HE174" s="39"/>
+      <c r="HF174" s="39"/>
+      <c r="HG174" s="39"/>
+      <c r="HH174" s="39"/>
+      <c r="HI174" s="39"/>
+      <c r="HJ174" s="39"/>
+      <c r="HK174" s="39"/>
+      <c r="HL174" s="39"/>
+      <c r="HM174" s="39"/>
+      <c r="HN174" s="39"/>
+      <c r="HO174" s="39"/>
+      <c r="HP174" s="39"/>
+      <c r="HQ174" s="39"/>
+      <c r="HR174" s="39"/>
+      <c r="HS174" s="39"/>
+      <c r="HT174" s="39"/>
+      <c r="HU174" s="39"/>
+      <c r="HV174" s="39"/>
+      <c r="HW174" s="39"/>
+      <c r="HX174" s="39"/>
+      <c r="HY174" s="39"/>
+      <c r="HZ174" s="39"/>
+      <c r="IA174" s="39"/>
+      <c r="IB174" s="39"/>
+      <c r="IC174" s="39"/>
+      <c r="ID174" s="39"/>
+      <c r="IE174" s="39"/>
+      <c r="IF174" s="39"/>
+      <c r="IG174" s="39"/>
+      <c r="IH174" s="39"/>
+      <c r="II174" s="39"/>
+      <c r="IJ174" s="39"/>
+      <c r="IK174" s="39"/>
+      <c r="IL174" s="39"/>
+      <c r="IM174" s="39"/>
     </row>
     <row r="175" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="48"/>
@@ -39571,240 +39990,6 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
-      <c r="N175" s="39"/>
-      <c r="O175" s="39"/>
-      <c r="P175" s="39"/>
-      <c r="Q175" s="39"/>
-      <c r="R175" s="39"/>
-      <c r="S175" s="39"/>
-      <c r="T175" s="39"/>
-      <c r="U175" s="39"/>
-      <c r="V175" s="39"/>
-      <c r="W175" s="39"/>
-      <c r="X175" s="39"/>
-      <c r="Y175" s="39"/>
-      <c r="Z175" s="39"/>
-      <c r="AA175" s="39"/>
-      <c r="AB175" s="39"/>
-      <c r="AC175" s="39"/>
-      <c r="AD175" s="39"/>
-      <c r="AE175" s="39"/>
-      <c r="AF175" s="39"/>
-      <c r="AG175" s="39"/>
-      <c r="AH175" s="39"/>
-      <c r="AI175" s="39"/>
-      <c r="AJ175" s="39"/>
-      <c r="AK175" s="39"/>
-      <c r="AL175" s="39"/>
-      <c r="AM175" s="39"/>
-      <c r="AN175" s="39"/>
-      <c r="AO175" s="39"/>
-      <c r="AP175" s="39"/>
-      <c r="AQ175" s="39"/>
-      <c r="AR175" s="39"/>
-      <c r="AS175" s="39"/>
-      <c r="AT175" s="39"/>
-      <c r="AU175" s="39"/>
-      <c r="AV175" s="39"/>
-      <c r="AW175" s="39"/>
-      <c r="AX175" s="39"/>
-      <c r="AY175" s="39"/>
-      <c r="AZ175" s="39"/>
-      <c r="BA175" s="39"/>
-      <c r="BB175" s="39"/>
-      <c r="BC175" s="39"/>
-      <c r="BD175" s="39"/>
-      <c r="BE175" s="39"/>
-      <c r="BF175" s="39"/>
-      <c r="BG175" s="39"/>
-      <c r="BH175" s="39"/>
-      <c r="BI175" s="39"/>
-      <c r="BJ175" s="39"/>
-      <c r="BK175" s="39"/>
-      <c r="BL175" s="39"/>
-      <c r="BM175" s="39"/>
-      <c r="BN175" s="39"/>
-      <c r="BO175" s="39"/>
-      <c r="BP175" s="39"/>
-      <c r="BQ175" s="39"/>
-      <c r="BR175" s="39"/>
-      <c r="BS175" s="39"/>
-      <c r="BT175" s="39"/>
-      <c r="BU175" s="39"/>
-      <c r="BV175" s="39"/>
-      <c r="BW175" s="39"/>
-      <c r="BX175" s="39"/>
-      <c r="BY175" s="39"/>
-      <c r="BZ175" s="39"/>
-      <c r="CA175" s="39"/>
-      <c r="CB175" s="39"/>
-      <c r="CC175" s="39"/>
-      <c r="CD175" s="39"/>
-      <c r="CE175" s="39"/>
-      <c r="CF175" s="39"/>
-      <c r="CG175" s="39"/>
-      <c r="CH175" s="39"/>
-      <c r="CI175" s="39"/>
-      <c r="CJ175" s="39"/>
-      <c r="CK175" s="39"/>
-      <c r="CL175" s="39"/>
-      <c r="CM175" s="39"/>
-      <c r="CN175" s="39"/>
-      <c r="CO175" s="39"/>
-      <c r="CP175" s="39"/>
-      <c r="CQ175" s="39"/>
-      <c r="CR175" s="39"/>
-      <c r="CS175" s="39"/>
-      <c r="CT175" s="39"/>
-      <c r="CU175" s="39"/>
-      <c r="CV175" s="39"/>
-      <c r="CW175" s="39"/>
-      <c r="CX175" s="39"/>
-      <c r="CY175" s="39"/>
-      <c r="CZ175" s="39"/>
-      <c r="DA175" s="39"/>
-      <c r="DB175" s="39"/>
-      <c r="DC175" s="39"/>
-      <c r="DD175" s="39"/>
-      <c r="DE175" s="39"/>
-      <c r="DF175" s="39"/>
-      <c r="DG175" s="39"/>
-      <c r="DH175" s="39"/>
-      <c r="DI175" s="39"/>
-      <c r="DJ175" s="39"/>
-      <c r="DK175" s="39"/>
-      <c r="DL175" s="39"/>
-      <c r="DM175" s="39"/>
-      <c r="DN175" s="39"/>
-      <c r="DO175" s="39"/>
-      <c r="DP175" s="39"/>
-      <c r="DQ175" s="39"/>
-      <c r="DR175" s="39"/>
-      <c r="DS175" s="39"/>
-      <c r="DT175" s="39"/>
-      <c r="DU175" s="39"/>
-      <c r="DV175" s="39"/>
-      <c r="DW175" s="39"/>
-      <c r="DX175" s="39"/>
-      <c r="DY175" s="39"/>
-      <c r="DZ175" s="39"/>
-      <c r="EA175" s="39"/>
-      <c r="EB175" s="39"/>
-      <c r="EC175" s="39"/>
-      <c r="ED175" s="39"/>
-      <c r="EE175" s="39"/>
-      <c r="EF175" s="39"/>
-      <c r="EG175" s="39"/>
-      <c r="EH175" s="39"/>
-      <c r="EI175" s="39"/>
-      <c r="EJ175" s="39"/>
-      <c r="EK175" s="39"/>
-      <c r="EL175" s="39"/>
-      <c r="EM175" s="39"/>
-      <c r="EN175" s="39"/>
-      <c r="EO175" s="39"/>
-      <c r="EP175" s="39"/>
-      <c r="EQ175" s="39"/>
-      <c r="ER175" s="39"/>
-      <c r="ES175" s="39"/>
-      <c r="ET175" s="39"/>
-      <c r="EU175" s="39"/>
-      <c r="EV175" s="39"/>
-      <c r="EW175" s="39"/>
-      <c r="EX175" s="39"/>
-      <c r="EY175" s="39"/>
-      <c r="EZ175" s="39"/>
-      <c r="FA175" s="39"/>
-      <c r="FB175" s="39"/>
-      <c r="FC175" s="39"/>
-      <c r="FD175" s="39"/>
-      <c r="FE175" s="39"/>
-      <c r="FF175" s="39"/>
-      <c r="FG175" s="39"/>
-      <c r="FH175" s="39"/>
-      <c r="FI175" s="39"/>
-      <c r="FJ175" s="39"/>
-      <c r="FK175" s="39"/>
-      <c r="FL175" s="39"/>
-      <c r="FM175" s="39"/>
-      <c r="FN175" s="39"/>
-      <c r="FO175" s="39"/>
-      <c r="FP175" s="39"/>
-      <c r="FQ175" s="39"/>
-      <c r="FR175" s="39"/>
-      <c r="FS175" s="39"/>
-      <c r="FT175" s="39"/>
-      <c r="FU175" s="39"/>
-      <c r="FV175" s="39"/>
-      <c r="FW175" s="39"/>
-      <c r="FX175" s="39"/>
-      <c r="FY175" s="39"/>
-      <c r="FZ175" s="39"/>
-      <c r="GA175" s="39"/>
-      <c r="GB175" s="39"/>
-      <c r="GC175" s="39"/>
-      <c r="GD175" s="39"/>
-      <c r="GE175" s="39"/>
-      <c r="GF175" s="39"/>
-      <c r="GG175" s="39"/>
-      <c r="GH175" s="39"/>
-      <c r="GI175" s="39"/>
-      <c r="GJ175" s="39"/>
-      <c r="GK175" s="39"/>
-      <c r="GL175" s="39"/>
-      <c r="GM175" s="39"/>
-      <c r="GN175" s="39"/>
-      <c r="GO175" s="39"/>
-      <c r="GP175" s="39"/>
-      <c r="GQ175" s="39"/>
-      <c r="GR175" s="39"/>
-      <c r="GS175" s="39"/>
-      <c r="GT175" s="39"/>
-      <c r="GU175" s="39"/>
-      <c r="GV175" s="39"/>
-      <c r="GW175" s="39"/>
-      <c r="GX175" s="39"/>
-      <c r="GY175" s="39"/>
-      <c r="GZ175" s="39"/>
-      <c r="HA175" s="39"/>
-      <c r="HB175" s="39"/>
-      <c r="HC175" s="39"/>
-      <c r="HD175" s="39"/>
-      <c r="HE175" s="39"/>
-      <c r="HF175" s="39"/>
-      <c r="HG175" s="39"/>
-      <c r="HH175" s="39"/>
-      <c r="HI175" s="39"/>
-      <c r="HJ175" s="39"/>
-      <c r="HK175" s="39"/>
-      <c r="HL175" s="39"/>
-      <c r="HM175" s="39"/>
-      <c r="HN175" s="39"/>
-      <c r="HO175" s="39"/>
-      <c r="HP175" s="39"/>
-      <c r="HQ175" s="39"/>
-      <c r="HR175" s="39"/>
-      <c r="HS175" s="39"/>
-      <c r="HT175" s="39"/>
-      <c r="HU175" s="39"/>
-      <c r="HV175" s="39"/>
-      <c r="HW175" s="39"/>
-      <c r="HX175" s="39"/>
-      <c r="HY175" s="39"/>
-      <c r="HZ175" s="39"/>
-      <c r="IA175" s="39"/>
-      <c r="IB175" s="39"/>
-      <c r="IC175" s="39"/>
-      <c r="ID175" s="39"/>
-      <c r="IE175" s="39"/>
-      <c r="IF175" s="39"/>
-      <c r="IG175" s="39"/>
-      <c r="IH175" s="39"/>
-      <c r="II175" s="39"/>
-      <c r="IJ175" s="39"/>
-      <c r="IK175" s="39"/>
-      <c r="IL175" s="39"/>
-      <c r="IM175" s="39"/>
     </row>
     <row r="176" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="48"/>
@@ -39820,6 +40005,240 @@
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
+      <c r="N176" s="39"/>
+      <c r="O176" s="39"/>
+      <c r="P176" s="39"/>
+      <c r="Q176" s="39"/>
+      <c r="R176" s="39"/>
+      <c r="S176" s="39"/>
+      <c r="T176" s="39"/>
+      <c r="U176" s="39"/>
+      <c r="V176" s="39"/>
+      <c r="W176" s="39"/>
+      <c r="X176" s="39"/>
+      <c r="Y176" s="39"/>
+      <c r="Z176" s="39"/>
+      <c r="AA176" s="39"/>
+      <c r="AB176" s="39"/>
+      <c r="AC176" s="39"/>
+      <c r="AD176" s="39"/>
+      <c r="AE176" s="39"/>
+      <c r="AF176" s="39"/>
+      <c r="AG176" s="39"/>
+      <c r="AH176" s="39"/>
+      <c r="AI176" s="39"/>
+      <c r="AJ176" s="39"/>
+      <c r="AK176" s="39"/>
+      <c r="AL176" s="39"/>
+      <c r="AM176" s="39"/>
+      <c r="AN176" s="39"/>
+      <c r="AO176" s="39"/>
+      <c r="AP176" s="39"/>
+      <c r="AQ176" s="39"/>
+      <c r="AR176" s="39"/>
+      <c r="AS176" s="39"/>
+      <c r="AT176" s="39"/>
+      <c r="AU176" s="39"/>
+      <c r="AV176" s="39"/>
+      <c r="AW176" s="39"/>
+      <c r="AX176" s="39"/>
+      <c r="AY176" s="39"/>
+      <c r="AZ176" s="39"/>
+      <c r="BA176" s="39"/>
+      <c r="BB176" s="39"/>
+      <c r="BC176" s="39"/>
+      <c r="BD176" s="39"/>
+      <c r="BE176" s="39"/>
+      <c r="BF176" s="39"/>
+      <c r="BG176" s="39"/>
+      <c r="BH176" s="39"/>
+      <c r="BI176" s="39"/>
+      <c r="BJ176" s="39"/>
+      <c r="BK176" s="39"/>
+      <c r="BL176" s="39"/>
+      <c r="BM176" s="39"/>
+      <c r="BN176" s="39"/>
+      <c r="BO176" s="39"/>
+      <c r="BP176" s="39"/>
+      <c r="BQ176" s="39"/>
+      <c r="BR176" s="39"/>
+      <c r="BS176" s="39"/>
+      <c r="BT176" s="39"/>
+      <c r="BU176" s="39"/>
+      <c r="BV176" s="39"/>
+      <c r="BW176" s="39"/>
+      <c r="BX176" s="39"/>
+      <c r="BY176" s="39"/>
+      <c r="BZ176" s="39"/>
+      <c r="CA176" s="39"/>
+      <c r="CB176" s="39"/>
+      <c r="CC176" s="39"/>
+      <c r="CD176" s="39"/>
+      <c r="CE176" s="39"/>
+      <c r="CF176" s="39"/>
+      <c r="CG176" s="39"/>
+      <c r="CH176" s="39"/>
+      <c r="CI176" s="39"/>
+      <c r="CJ176" s="39"/>
+      <c r="CK176" s="39"/>
+      <c r="CL176" s="39"/>
+      <c r="CM176" s="39"/>
+      <c r="CN176" s="39"/>
+      <c r="CO176" s="39"/>
+      <c r="CP176" s="39"/>
+      <c r="CQ176" s="39"/>
+      <c r="CR176" s="39"/>
+      <c r="CS176" s="39"/>
+      <c r="CT176" s="39"/>
+      <c r="CU176" s="39"/>
+      <c r="CV176" s="39"/>
+      <c r="CW176" s="39"/>
+      <c r="CX176" s="39"/>
+      <c r="CY176" s="39"/>
+      <c r="CZ176" s="39"/>
+      <c r="DA176" s="39"/>
+      <c r="DB176" s="39"/>
+      <c r="DC176" s="39"/>
+      <c r="DD176" s="39"/>
+      <c r="DE176" s="39"/>
+      <c r="DF176" s="39"/>
+      <c r="DG176" s="39"/>
+      <c r="DH176" s="39"/>
+      <c r="DI176" s="39"/>
+      <c r="DJ176" s="39"/>
+      <c r="DK176" s="39"/>
+      <c r="DL176" s="39"/>
+      <c r="DM176" s="39"/>
+      <c r="DN176" s="39"/>
+      <c r="DO176" s="39"/>
+      <c r="DP176" s="39"/>
+      <c r="DQ176" s="39"/>
+      <c r="DR176" s="39"/>
+      <c r="DS176" s="39"/>
+      <c r="DT176" s="39"/>
+      <c r="DU176" s="39"/>
+      <c r="DV176" s="39"/>
+      <c r="DW176" s="39"/>
+      <c r="DX176" s="39"/>
+      <c r="DY176" s="39"/>
+      <c r="DZ176" s="39"/>
+      <c r="EA176" s="39"/>
+      <c r="EB176" s="39"/>
+      <c r="EC176" s="39"/>
+      <c r="ED176" s="39"/>
+      <c r="EE176" s="39"/>
+      <c r="EF176" s="39"/>
+      <c r="EG176" s="39"/>
+      <c r="EH176" s="39"/>
+      <c r="EI176" s="39"/>
+      <c r="EJ176" s="39"/>
+      <c r="EK176" s="39"/>
+      <c r="EL176" s="39"/>
+      <c r="EM176" s="39"/>
+      <c r="EN176" s="39"/>
+      <c r="EO176" s="39"/>
+      <c r="EP176" s="39"/>
+      <c r="EQ176" s="39"/>
+      <c r="ER176" s="39"/>
+      <c r="ES176" s="39"/>
+      <c r="ET176" s="39"/>
+      <c r="EU176" s="39"/>
+      <c r="EV176" s="39"/>
+      <c r="EW176" s="39"/>
+      <c r="EX176" s="39"/>
+      <c r="EY176" s="39"/>
+      <c r="EZ176" s="39"/>
+      <c r="FA176" s="39"/>
+      <c r="FB176" s="39"/>
+      <c r="FC176" s="39"/>
+      <c r="FD176" s="39"/>
+      <c r="FE176" s="39"/>
+      <c r="FF176" s="39"/>
+      <c r="FG176" s="39"/>
+      <c r="FH176" s="39"/>
+      <c r="FI176" s="39"/>
+      <c r="FJ176" s="39"/>
+      <c r="FK176" s="39"/>
+      <c r="FL176" s="39"/>
+      <c r="FM176" s="39"/>
+      <c r="FN176" s="39"/>
+      <c r="FO176" s="39"/>
+      <c r="FP176" s="39"/>
+      <c r="FQ176" s="39"/>
+      <c r="FR176" s="39"/>
+      <c r="FS176" s="39"/>
+      <c r="FT176" s="39"/>
+      <c r="FU176" s="39"/>
+      <c r="FV176" s="39"/>
+      <c r="FW176" s="39"/>
+      <c r="FX176" s="39"/>
+      <c r="FY176" s="39"/>
+      <c r="FZ176" s="39"/>
+      <c r="GA176" s="39"/>
+      <c r="GB176" s="39"/>
+      <c r="GC176" s="39"/>
+      <c r="GD176" s="39"/>
+      <c r="GE176" s="39"/>
+      <c r="GF176" s="39"/>
+      <c r="GG176" s="39"/>
+      <c r="GH176" s="39"/>
+      <c r="GI176" s="39"/>
+      <c r="GJ176" s="39"/>
+      <c r="GK176" s="39"/>
+      <c r="GL176" s="39"/>
+      <c r="GM176" s="39"/>
+      <c r="GN176" s="39"/>
+      <c r="GO176" s="39"/>
+      <c r="GP176" s="39"/>
+      <c r="GQ176" s="39"/>
+      <c r="GR176" s="39"/>
+      <c r="GS176" s="39"/>
+      <c r="GT176" s="39"/>
+      <c r="GU176" s="39"/>
+      <c r="GV176" s="39"/>
+      <c r="GW176" s="39"/>
+      <c r="GX176" s="39"/>
+      <c r="GY176" s="39"/>
+      <c r="GZ176" s="39"/>
+      <c r="HA176" s="39"/>
+      <c r="HB176" s="39"/>
+      <c r="HC176" s="39"/>
+      <c r="HD176" s="39"/>
+      <c r="HE176" s="39"/>
+      <c r="HF176" s="39"/>
+      <c r="HG176" s="39"/>
+      <c r="HH176" s="39"/>
+      <c r="HI176" s="39"/>
+      <c r="HJ176" s="39"/>
+      <c r="HK176" s="39"/>
+      <c r="HL176" s="39"/>
+      <c r="HM176" s="39"/>
+      <c r="HN176" s="39"/>
+      <c r="HO176" s="39"/>
+      <c r="HP176" s="39"/>
+      <c r="HQ176" s="39"/>
+      <c r="HR176" s="39"/>
+      <c r="HS176" s="39"/>
+      <c r="HT176" s="39"/>
+      <c r="HU176" s="39"/>
+      <c r="HV176" s="39"/>
+      <c r="HW176" s="39"/>
+      <c r="HX176" s="39"/>
+      <c r="HY176" s="39"/>
+      <c r="HZ176" s="39"/>
+      <c r="IA176" s="39"/>
+      <c r="IB176" s="39"/>
+      <c r="IC176" s="39"/>
+      <c r="ID176" s="39"/>
+      <c r="IE176" s="39"/>
+      <c r="IF176" s="39"/>
+      <c r="IG176" s="39"/>
+      <c r="IH176" s="39"/>
+      <c r="II176" s="39"/>
+      <c r="IJ176" s="39"/>
+      <c r="IK176" s="39"/>
+      <c r="IL176" s="39"/>
+      <c r="IM176" s="39"/>
     </row>
     <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="48"/>
@@ -40695,953 +41114,978 @@
       <c r="A235" s="48"/>
       <c r="B235" s="18"/>
       <c r="C235" s="18"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="18"/>
+      <c r="G235" s="18"/>
+      <c r="H235" s="18"/>
       <c r="I235" s="18"/>
+      <c r="J235" s="18"/>
       <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
       <c r="M235" s="2"/>
     </row>
     <row r="236" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="48"/>
       <c r="B236" s="18"/>
+      <c r="C236" s="18"/>
       <c r="I236" s="18"/>
+      <c r="K236" s="2"/>
+      <c r="M236" s="2"/>
+    </row>
+    <row r="237" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="18"/>
+      <c r="I237" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K164"/>
+  <autoFilter ref="B2:K165"/>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K172 J171:J234 I171:I236 D171:H234 A3:A53 A85:A235 C110:D110 D126:E126 B127 C123:D123 E11 E17 E26 E42 A55:A83 C126:C127 D132:E132 D127 B129:D129 B133 C132:C133 D133 B138:E138 C144:E144 C147:E147 B149:E150 D153:E153 D152 B152:C154 D162:E162 D154 B164:B236 C162:C235 D164:E171 D163">
-    <cfRule type="cellIs" dxfId="200" priority="294" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 E43 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
+    <cfRule type="cellIs" dxfId="196" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="199" priority="284" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A55">
+    <cfRule type="cellIs" dxfId="195" priority="295" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="198" priority="246" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A85">
+    <cfRule type="cellIs" dxfId="194" priority="257" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="193" priority="236" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:C121">
+    <cfRule type="cellIs" dxfId="192" priority="216" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="cellIs" dxfId="191" priority="213" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="190" priority="209" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="189" priority="207" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="188" priority="206" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="187" priority="205" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="186" priority="204" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="185" priority="203" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="184" priority="202" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="183" priority="201" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="182" priority="200" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="181" priority="197" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="180" priority="196" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="179" priority="195" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="178" priority="191" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="177" priority="189" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="176" priority="188" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="175" priority="187" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="174" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="173" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="172" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="171" priority="181" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="165" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="162" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="161" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="160" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="159" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="158" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="157" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="156" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="155" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="154" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="153" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="152" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="151" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="150" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="149" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="148" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="147" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="146" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="145" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="144" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="143" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="142" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="141" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="140" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="139" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="138" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="137" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="136" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="135" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="134" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="133" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="132" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="131" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="130" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="129" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="128" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="127" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="126" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="125" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="124" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="123" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="122" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="121" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="120" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="119" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="118" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="117" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="116" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="115" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="114" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="113" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="112" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="111" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="110" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="108" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="107" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="106" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="105" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="104" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="103" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="102" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="101" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="100" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="99" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="98" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="197" priority="225" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B120:C120">
-    <cfRule type="cellIs" dxfId="196" priority="205" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="96" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="195" priority="202" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="95" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="194" priority="198" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="94" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="193" priority="196" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="192" priority="195" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="92" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="191" priority="194" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="190" priority="193" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C112:D112">
+    <cfRule type="cellIs" dxfId="90" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="189" priority="192" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="188" priority="191" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="88" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="187" priority="190" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="186" priority="189" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="86" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="85" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="84" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="83" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="82" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:D120">
+    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="80" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="79" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="78" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="77" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="76" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="75" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="74" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="73" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="72" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="71" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="cellIs" dxfId="70" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="69" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:D129">
+    <cfRule type="cellIs" dxfId="68" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="67" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="65" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="64" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="63" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="62" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="61" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:C135">
+    <cfRule type="cellIs" dxfId="60" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="59" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="57" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="55" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="cellIs" dxfId="54" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="53" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="51" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147:E147">
+    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:E149">
+    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:D157">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158:E158">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E162">
+    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="22" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="185" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="184" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="183" priority="184" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="182" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="181" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="180" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="179" priority="176" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="178" priority="175" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="176" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="175" priority="171" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="174" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="173" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="172" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="171" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="170" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="169" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="168" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="167" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="166" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="165" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="164" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="163" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="162" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="161" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="160" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="159" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="158" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="157" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="156" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="155" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="154" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="153" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="152" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="151" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="150" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="149" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="148" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="147" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="146" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="145" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="144" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="143" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="142" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="141" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="140" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="139" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="138" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="137" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="136" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="135" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="134" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="133" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="132" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="131" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="130" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="129" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="128" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="127" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="126" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="125" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="124" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="123" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="122" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="121" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="120" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="119" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="118" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="117" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="116" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="115" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="114" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="113" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="112" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="111" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="110" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="109" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="108" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="107" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="106" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="105" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="104" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="103" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="102" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="101" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="100" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="99" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="98" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="97" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="96" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="95" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="94" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111">
-    <cfRule type="cellIs" dxfId="93" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="92" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="90" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="89" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="88" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="87" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="86" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="85" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="84" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="83" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="82" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="81" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="cellIs" dxfId="80" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="79" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="78" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="77" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="76" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="75" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="74" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="72" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128:D128">
-    <cfRule type="cellIs" dxfId="71" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="70" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="69" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="68" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="67" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="66" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="65" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="64" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:C134">
-    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="62" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="61" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="59" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="57" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="56" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
-    <cfRule type="cellIs" dxfId="55" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="54" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="53" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="52" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="51" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="50" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="49" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="48" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145:E145">
-    <cfRule type="cellIs" dxfId="47" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="46" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:E148">
-    <cfRule type="cellIs" dxfId="45" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="44" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="43" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="42" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="41" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="40" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D155">
-    <cfRule type="cellIs" dxfId="39" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="38" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="37" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="36" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157:E157">
-    <cfRule type="cellIs" dxfId="35" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="34" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:D158">
-    <cfRule type="cellIs" dxfId="33" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="32" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E120 E144:E169 E5:E7 E44:E73 E75:E86 E90:E94 E96:E105 E107:E111 E122:E130 E132:E138 E9:E18 E21:E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E34:E43 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E76:E87 E45:E74 E6:E8 E145:E170">
+      <formula1>$M$1:$M$20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88:E90 E140:E144 E113:E114 E107">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87:E89 E106 E112:E113 E139:E143">
-      <formula1>$M$1:$M$18</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E3:E4 E19:E20">
-      <formula1>$K$1:$K$19</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5">
+      <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="105">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Jubiläumsfeier Rössle</t>
   </si>
   <si>
-    <t>Miete Mtz.</t>
-  </si>
-  <si>
     <t>Wein Jubiläum</t>
   </si>
   <si>
@@ -313,6 +310,39 @@
   </si>
   <si>
     <t>WGV</t>
+  </si>
+  <si>
+    <t>Wabu Wasser</t>
+  </si>
+  <si>
+    <t>Telekom Mrz</t>
+  </si>
+  <si>
+    <t>Mitgliedsbeitrag 2020 Bürgerbus</t>
+  </si>
+  <si>
+    <t>Strom Nachz</t>
+  </si>
+  <si>
+    <t>Ponde Spende</t>
+  </si>
+  <si>
+    <t>Vesperkirche Spende</t>
+  </si>
+  <si>
+    <t>Wasser Abschlag</t>
+  </si>
+  <si>
+    <t>Miete April</t>
+  </si>
+  <si>
+    <t>Miete Mrz.</t>
+  </si>
+  <si>
+    <t>Olgäle Spende</t>
+  </si>
+  <si>
+    <t>Ernst-Abbe Schule Spende</t>
   </si>
 </sst>
 </file>
@@ -1016,11 +1046,272 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="341">
+  <dxfs count="352">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2582,212 +2873,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -5206,17 +5291,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="337">
+    <format dxfId="36">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="336">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="335">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5314,17 +5399,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="340">
+    <format dxfId="39">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="339">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="338">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -8244,7 +8329,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>11459.180000000008</v>
+        <v>8634.8200000000088</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8282,7 +8367,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>14834.900000000005</v>
+        <v>12010.540000000008</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9083,627 +9168,627 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7">
-    <cfRule type="cellIs" dxfId="322" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="351" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="321" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="350" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="320" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="349" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="319" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="348" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="318" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="347" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="317" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="346" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="316" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="345" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="315" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="344" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="314" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="313" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="312" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="311" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="310" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="309" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="308" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="307" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="305" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="304" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="303" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="302" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="301" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="300" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="299" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="298" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="297" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="296" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="295" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="294" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="293" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="292" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="291" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="290" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="289" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="288" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="287" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="286" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="285" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="284" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="283" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="282" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="281" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="280" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="279" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="278" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="277" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="276" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="275" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="274" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="273" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="272" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="271" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="270" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="269" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="268" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="267" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="266" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="265" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="264" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="263" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="262" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="261" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="260" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="259" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="258" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="257" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="256" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="255" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="254" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="253" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="252" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="251" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="250" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="249" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="248" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="247" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="246" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="245" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="244" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="243" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="242" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="241" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="240" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="239" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="238" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="237" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="236" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="235" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="234" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="233" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="232" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="231" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="230" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="229" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="228" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="227" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="226" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="225" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="224" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="223" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="222" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="221" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="220" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="219" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="218" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="217" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="216" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="215" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="214" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="213" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="212" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="211" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="210" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="209" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="208" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="207" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="206" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="205" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="204" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="203" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="202" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="201" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="200" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="199" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="198" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="197" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9741,8 +9826,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9876,10 +9961,10 @@
         <v>43832</v>
       </c>
       <c r="C5" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>94</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>22</v>
@@ -10793,7 +10878,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>21</v>
@@ -10868,7 +10953,7 @@
         <v>31</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>23</v>
@@ -10911,14 +10996,22 @@
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="15">
+        <v>43902</v>
+      </c>
       <c r="C36" s="60">
         <v>33</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="41"/>
+      <c r="D36" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="G36" s="21">
+        <v>-17.190000000000001</v>
+      </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="22"/>
@@ -10928,14 +11021,22 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="15">
+        <v>43907</v>
+      </c>
       <c r="C37" s="60">
         <v>34</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
+      <c r="D37" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="21">
+        <v>-18.43</v>
+      </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="22"/>
@@ -10945,14 +11046,22 @@
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="15">
+        <v>43907</v>
+      </c>
       <c r="C38" s="16">
         <v>35</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="41"/>
+      <c r="D38" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="17"/>
-      <c r="G38" s="21"/>
+      <c r="G38" s="21">
+        <v>-50</v>
+      </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="22"/>
@@ -10962,14 +11071,22 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="15">
+        <v>43907</v>
+      </c>
       <c r="C39" s="16">
         <v>36</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="41"/>
+      <c r="D39" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F39" s="17"/>
-      <c r="G39" s="21"/>
+      <c r="G39" s="21">
+        <v>-808.74</v>
+      </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="22"/>
@@ -10979,14 +11096,22 @@
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="15">
+        <v>43920</v>
+      </c>
       <c r="C40" s="16">
         <v>37</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="41"/>
+      <c r="D40" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="F40" s="17"/>
-      <c r="G40" s="21"/>
+      <c r="G40" s="21">
+        <v>-400</v>
+      </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="22"/>
@@ -10998,14 +11123,22 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="15">
+        <v>43921</v>
+      </c>
       <c r="C41" s="60">
         <v>38</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="D41" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="21">
+        <v>-400</v>
+      </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="22"/>
@@ -11017,14 +11150,22 @@
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="15">
+        <v>43921</v>
+      </c>
       <c r="C42" s="60">
         <v>39</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
+      <c r="D42" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="21">
+        <v>-34</v>
+      </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="22"/>
@@ -11038,14 +11179,22 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="15">
+        <v>43922</v>
+      </c>
       <c r="C43" s="61">
         <v>40</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="19"/>
+      <c r="D43" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="21">
+        <v>-12</v>
+      </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="22"/>
@@ -11057,14 +11206,22 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="15">
+        <v>43923</v>
+      </c>
       <c r="C44" s="60">
         <v>41</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="D44" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="21">
+        <v>-400</v>
+      </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="22"/>
@@ -11078,14 +11235,22 @@
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="15">
+        <v>43924</v>
+      </c>
       <c r="C45" s="60">
         <v>42</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="D45" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="21">
+        <v>-400</v>
+      </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
@@ -11099,14 +11264,22 @@
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
-      <c r="B46" s="43"/>
+      <c r="B46" s="15">
+        <v>43924</v>
+      </c>
       <c r="C46" s="60">
         <v>43</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="23"/>
+      <c r="D46" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
+      <c r="G46" s="21">
+        <v>-45</v>
+      </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="22"/>
@@ -11120,14 +11293,22 @@
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="15">
+        <v>43924</v>
+      </c>
       <c r="C47" s="16">
         <v>44</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="21"/>
+      <c r="D47" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21">
+        <v>-239</v>
+      </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="22"/>
@@ -39210,7 +39391,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-2292.4700000000003</v>
+        <v>-5116.83</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -41142,949 +41323,974 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 E43 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
-    <cfRule type="cellIs" dxfId="196" priority="305" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
+    <cfRule type="cellIs" dxfId="226" priority="322" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="195" priority="295" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="312" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="194" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="193" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="192" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="191" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="190" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="189" priority="207" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="188" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="187" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="186" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="185" priority="203" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="184" priority="202" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="183" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="182" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="181" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="180" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="179" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="178" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="177" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="176" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="175" priority="187" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="174" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="173" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="201" priority="198" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="198" priority="188" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="196" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="195" priority="185" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="188" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="187" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="186" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="185" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="184" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="183" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="182" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="181" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="180" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="179" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="178" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="177" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="176" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="175" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="174" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="173" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="172" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="171" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="170" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="169" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="168" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="167" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="166" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="165" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="164" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="163" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="162" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="161" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="160" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="159" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="158" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="157" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="156" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="155" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="154" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="153" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="152" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="151" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="150" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="149" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="148" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="147" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="146" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="145" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="144" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="143" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="142" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="141" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="140" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="139" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="138" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="137" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="136" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="135" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="134" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="133" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="132" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="131" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="130" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="129" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="128" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:D112">
+    <cfRule type="cellIs" dxfId="127" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="126" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="125" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="124" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="123" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="122" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="121" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="120" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="119" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:D120">
+    <cfRule type="cellIs" dxfId="118" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="117" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="116" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="115" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="114" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="113" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="112" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="111" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="110" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="109" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="108" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="cellIs" dxfId="107" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="106" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:D129">
+    <cfRule type="cellIs" dxfId="105" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="104" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="103" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="102" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="101" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="100" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="99" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="98" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:C135">
+    <cfRule type="cellIs" dxfId="97" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="96" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="95" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="94" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="93" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="92" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="cellIs" dxfId="91" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="90" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="89" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="88" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="87" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="86" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="85" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="84" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="83" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="82" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="81" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147:E147">
+    <cfRule type="cellIs" dxfId="80" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:E149">
+    <cfRule type="cellIs" dxfId="79" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="78" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="77" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="76" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="75" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="74" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="73" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="72" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:D157">
+    <cfRule type="cellIs" dxfId="71" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="70" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158:E158">
+    <cfRule type="cellIs" dxfId="69" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="cellIs" dxfId="68" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="67" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="66" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="65" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="64" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="63" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="62" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E162">
+    <cfRule type="cellIs" dxfId="61" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="60" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="59" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="cellIs" dxfId="58" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="57" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="56" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="55" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="54" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="53" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="52" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="51" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="50" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="49" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="48" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="47" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="46" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="45" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="44" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="43" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="42" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="41" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="172" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="171" priority="181" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="165" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="162" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="161" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="160" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="159" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="158" priority="168" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="25" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="157" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="156" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="155" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="154" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="153" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="152" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="151" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="150" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="149" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="148" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="147" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="146" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="145" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="144" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="143" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="142" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="141" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="140" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="139" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="138" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="137" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="136" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="135" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="134" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="133" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="132" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="131" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="130" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="129" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="128" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="127" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="126" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="125" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="124" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="123" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="122" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="121" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="120" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="119" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="118" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="117" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="116" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="115" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="114" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="113" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="112" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="111" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="110" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="108" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="107" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="106" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="105" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="104" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="103" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="102" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="101" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="100" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="99" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="98" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="97" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="96" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="95" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="94" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="92" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="91" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112">
-    <cfRule type="cellIs" dxfId="90" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="88" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="87" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="86" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="85" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="84" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="83" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="82" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:D120">
-    <cfRule type="cellIs" dxfId="81" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="80" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="79" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="78" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="77" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="76" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="75" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="74" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="73" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="72" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="71" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="cellIs" dxfId="70" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="69" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:D129">
-    <cfRule type="cellIs" dxfId="68" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="67" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="65" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="64" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="63" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="62" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="61" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:C135">
-    <cfRule type="cellIs" dxfId="60" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="59" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="57" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="55" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="54" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="53" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="51" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:E147">
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:E149">
-    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="25" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="24" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="23" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="22" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="16" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E34:E43 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E76:E87 E45:E74 E6:E8 E145:E170">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E76:E87 E6:E8 E34:E45 E48:E74">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88:E90 E140:E144 E113:E114 E107">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="110">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t>Ernst-Abbe Schule Spende</t>
+  </si>
+  <si>
+    <t>Telekom April</t>
+  </si>
+  <si>
+    <t>Miete Mai</t>
+  </si>
+  <si>
+    <t>Telekom</t>
+  </si>
+  <si>
+    <t>Trauerk Fr.Ziegler</t>
+  </si>
+  <si>
+    <t>Zinsen Kapitalfond Kreis AwoBB</t>
   </si>
 </sst>
 </file>
@@ -1046,47 +1061,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="352">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="349">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2873,6 +2848,31 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -5291,17 +5291,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="36">
+    <format dxfId="28">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5399,17 +5399,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="39">
+    <format dxfId="31">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6533,8 +6533,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6956,14 +6956,22 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="15">
+        <v>43991</v>
+      </c>
       <c r="B17" s="60">
         <v>14</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="41"/>
+      <c r="C17" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>25</v>
+      </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="18">
+        <v>36.67</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
@@ -8286,7 +8294,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>13751.650000000009</v>
+        <v>13788.320000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8329,7 +8337,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>8634.8200000000088</v>
+        <v>7998.1000000000095</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8367,7 +8375,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>12010.540000000008</v>
+        <v>11373.820000000007</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9167,636 +9175,641 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G19 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7">
-    <cfRule type="cellIs" dxfId="351" priority="184" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G16 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7 F18:G19 G17">
+    <cfRule type="cellIs" dxfId="348" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="350" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="347" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="349" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="346" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="348" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="345" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="347" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="344" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="346" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="345" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="344" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="343" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="342" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="341" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="340" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="339" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="338" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="337" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="331" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="330" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="329" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="328" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="327" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="326" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="325" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="324" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="323" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="322" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="321" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="320" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="319" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="318" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="317" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="316" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="315" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="314" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="313" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="312" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="311" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="310" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="309" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="308" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="307" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="306" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="305" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="304" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="303" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="302" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="301" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="300" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="299" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="298" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="297" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="296" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="295" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="294" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="293" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="292" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="291" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="290" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="289" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="288" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="287" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="286" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="285" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="284" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="283" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="282" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="281" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="280" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="279" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="278" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="277" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="276" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="275" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="274" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="273" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="272" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="271" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="270" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="269" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="268" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:E69">
+    <cfRule type="cellIs" dxfId="267" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="266" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="265" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="264" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="263" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="262" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="261" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="260" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="259" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="258" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="257" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="256" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="255" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="254" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="253" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="cellIs" dxfId="252" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="251" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="250" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="249" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="248" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="247" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="246" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="245" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="244" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="243" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="242" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:E90">
+    <cfRule type="cellIs" dxfId="241" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:D92">
+    <cfRule type="cellIs" dxfId="240" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="cellIs" dxfId="239" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="238" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="cellIs" dxfId="237" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:E96">
+    <cfRule type="cellIs" dxfId="236" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="235" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="234" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:D98">
+    <cfRule type="cellIs" dxfId="233" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="232" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="231" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="230" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="229" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="228" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="227" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="226" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="225" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="224" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="336" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="335" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="334" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="333" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="332" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="331" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="330" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="329" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="328" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="327" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="326" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="325" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="324" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="323" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="322" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="321" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="320" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="319" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="318" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="317" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="316" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="315" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="314" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="313" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="312" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="311" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="310" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="309" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="308" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="307" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="306" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="305" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="304" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="303" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="302" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="301" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="300" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="299" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="298" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="297" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="296" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="295" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="294" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="293" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="292" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="291" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="290" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="289" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="288" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="287" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="286" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="285" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="284" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="283" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="282" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="281" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="280" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="279" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="278" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="277" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="276" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="275" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="274" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="273" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="272" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="271" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="270" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="269" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="268" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="267" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="266" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="265" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="264" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="263" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="262" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="261" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="260" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="259" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="258" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="257" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="256" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="255" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="254" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="253" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="252" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="251" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="250" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="249" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="248" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="247" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="246" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="245" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="244" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="243" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="242" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="241" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="240" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="239" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="238" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="237" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="236" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="235" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="234" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="233" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="232" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="231" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="230" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="229" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="228" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="227" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D22:D24 D53 D55 D57:D61 D17:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D22:D24 D53 D55 D57:D61 D18:D20">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D14 D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D14 D16:D17">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
@@ -9826,8 +9839,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11320,14 +11333,22 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="15">
+        <v>43938</v>
+      </c>
       <c r="C48" s="60">
         <v>45</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
+      <c r="D48" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="G48" s="21">
+        <v>-18.12</v>
+      </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="22"/>
@@ -11341,14 +11362,22 @@
     </row>
     <row r="49" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="15">
+        <v>43936</v>
+      </c>
       <c r="C49" s="60">
         <v>46</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
+      <c r="D49" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="G49" s="21">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="22"/>
@@ -11360,14 +11389,22 @@
     </row>
     <row r="50" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="15">
+        <v>43955</v>
+      </c>
       <c r="C50" s="61">
         <v>47</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="19"/>
+      <c r="D50" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
+      <c r="G50" s="21">
+        <v>-12</v>
+      </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
@@ -11377,14 +11414,22 @@
     </row>
     <row r="51" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="15">
+        <v>43956</v>
+      </c>
       <c r="C51" s="60">
         <v>48</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="23"/>
+      <c r="D51" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="G51" s="21">
+        <v>-45</v>
+      </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
@@ -11394,14 +11439,22 @@
     </row>
     <row r="52" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="15">
+        <v>43956</v>
+      </c>
       <c r="C52" s="60">
         <v>49</v>
       </c>
-      <c r="D52" s="55"/>
-      <c r="E52" s="41"/>
+      <c r="D52" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="G52" s="21">
+        <v>-239</v>
+      </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="22"/>
@@ -11411,14 +11464,22 @@
     </row>
     <row r="53" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="15">
+        <v>43969</v>
+      </c>
       <c r="C53" s="60">
         <v>50</v>
       </c>
-      <c r="D53" s="55"/>
-      <c r="E53" s="56"/>
+      <c r="D53" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="21">
+        <v>-20.78</v>
+      </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
@@ -11428,14 +11489,22 @@
     </row>
     <row r="54" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="15">
+        <v>43976</v>
+      </c>
       <c r="C54" s="60">
         <v>51</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="23"/>
+      <c r="D54" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>23</v>
+      </c>
       <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
+      <c r="G54" s="20">
+        <v>-25</v>
+      </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="22"/>
@@ -11445,14 +11514,22 @@
     </row>
     <row r="55" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="43">
+        <v>43984</v>
+      </c>
       <c r="C55" s="60">
         <v>52</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="23"/>
+      <c r="D55" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
+      <c r="G55" s="21">
+        <v>-12</v>
+      </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="22"/>
@@ -11696,14 +11773,22 @@
     </row>
     <row r="56" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="15">
+        <v>43985</v>
+      </c>
       <c r="C56" s="60">
         <v>53</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="56"/>
+      <c r="D56" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="21">
+        <v>-45</v>
+      </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="22"/>
@@ -11713,14 +11798,22 @@
     </row>
     <row r="57" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="15">
+        <v>43985</v>
+      </c>
       <c r="C57" s="60">
         <v>54</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="41"/>
+      <c r="D57" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
+      <c r="G57" s="21">
+        <v>-239</v>
+      </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="22"/>
@@ -39391,7 +39484,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-5116.83</v>
+        <v>-5790.2199999999993</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -41324,973 +41417,973 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
-    <cfRule type="cellIs" dxfId="226" priority="322" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="332" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="225" priority="312" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="322" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="224" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="284" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="223" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="222" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="221" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="220" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="219" priority="224" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="218" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="217" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="216" priority="221" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="231" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="215" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="214" priority="219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="229" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="213" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="228" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="212" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="227" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="211" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="210" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="209" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="208" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="207" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="206" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="205" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="204" priority="203" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="203" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="201" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="198" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="196" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="195" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="195" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="185" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="184" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="183" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="182" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="181" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="180" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="179" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="178" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="177" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="176" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="175" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="174" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="173" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="172" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="171" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="170" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="169" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="168" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="167" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="166" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="165" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="164" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="163" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="162" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="161" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="160" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="159" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="158" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="157" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="156" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="155" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="154" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="153" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="152" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="151" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="150" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="149" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="148" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="147" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="146" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="145" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="144" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="143" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="142" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="141" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="140" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="139" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="138" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="137" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="136" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="135" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:D112">
+    <cfRule type="cellIs" dxfId="134" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="133" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="132" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="131" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="130" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="129" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="128" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="127" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="126" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:D120">
+    <cfRule type="cellIs" dxfId="125" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="124" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="123" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="122" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="121" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="120" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="119" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="118" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="117" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="116" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="115" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="cellIs" dxfId="114" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="113" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:D129">
+    <cfRule type="cellIs" dxfId="112" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="111" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="110" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="109" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="108" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="107" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="106" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="105" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:C135">
+    <cfRule type="cellIs" dxfId="104" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="103" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="102" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="101" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="100" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="99" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="cellIs" dxfId="98" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="97" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="96" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="95" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="94" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="93" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="92" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="91" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="90" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="89" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="88" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147:E147">
+    <cfRule type="cellIs" dxfId="87" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:E149">
+    <cfRule type="cellIs" dxfId="86" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="85" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="84" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="83" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="82" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="81" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="80" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="79" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:D157">
+    <cfRule type="cellIs" dxfId="78" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="77" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158:E158">
+    <cfRule type="cellIs" dxfId="76" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="cellIs" dxfId="75" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="74" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="73" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="72" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="71" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="70" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="69" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E162">
+    <cfRule type="cellIs" dxfId="68" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="67" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="66" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="cellIs" dxfId="65" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="64" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="63" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="62" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="61" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="60" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="59" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="58" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="57" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="56" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="55" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="54" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="53" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="52" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="51" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="50" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="49" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="47" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="46" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="45" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="44" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="43" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="42" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="41" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="40" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="38" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="37" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="36" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="35" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="34" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="33" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="32" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="188" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="187" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="186" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="185" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="184" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="183" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="182" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="181" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="180" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="179" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="178" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="177" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="176" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="175" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="174" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="173" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="172" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="171" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="170" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="169" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="168" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="167" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="166" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="165" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="164" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="163" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="162" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="161" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="160" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="159" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="158" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="157" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="156" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="155" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="154" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="153" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="152" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="151" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="150" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="149" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="148" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="147" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="146" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="145" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="144" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="143" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="142" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="141" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="140" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="139" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="138" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="137" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="136" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="135" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="134" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="133" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="132" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="131" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="130" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="129" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="128" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112">
-    <cfRule type="cellIs" dxfId="127" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="126" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="125" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="124" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="123" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="122" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="121" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="120" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="119" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:D120">
-    <cfRule type="cellIs" dxfId="118" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="117" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="116" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="115" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="114" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="113" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="112" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="111" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="110" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="109" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="108" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="cellIs" dxfId="107" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="106" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:D129">
-    <cfRule type="cellIs" dxfId="105" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="104" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="103" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="102" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="101" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="100" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="99" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="98" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:C135">
-    <cfRule type="cellIs" dxfId="97" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="96" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="95" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="94" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="93" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="92" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="91" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="90" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="89" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="88" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="87" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="86" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="85" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="84" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="83" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="82" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="81" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:E147">
-    <cfRule type="cellIs" dxfId="80" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:E149">
-    <cfRule type="cellIs" dxfId="79" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="78" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="77" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="76" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="75" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="74" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="73" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="72" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="71" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="70" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="69" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="68" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="67" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="66" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="65" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="64" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="63" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="62" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="61" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="60" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="59" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="58" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="57" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="56" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="55" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="54" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="53" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="52" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="51" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="50" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="49" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="48" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="47" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="46" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="45" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="44" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="43" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="42" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="41" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="40" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="31" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="25" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E76:E87 E6:E8 E34:E45 E48:E74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E76:E87 E6:E8 E34:E45 E48:E50 E53:E55 E58:E74">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88:E90 E140:E144 E113:E114 E107">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="120">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -358,6 +358,36 @@
   </si>
   <si>
     <t>Zinsen Kapitalfond Kreis AwoBB</t>
+  </si>
+  <si>
+    <t>Fahrtgeld Alex</t>
+  </si>
+  <si>
+    <t>Bargeldabhebung</t>
+  </si>
+  <si>
+    <t>t.z.g.l. 11.2.</t>
+  </si>
+  <si>
+    <t>t.z.g.l. 25.2.</t>
+  </si>
+  <si>
+    <t>t.z.g.l. 10.3.</t>
+  </si>
+  <si>
+    <t>Jahresbeitrag Armin Rotweiler</t>
+  </si>
+  <si>
+    <t>Jahresbeitrag Frank Scholl</t>
+  </si>
+  <si>
+    <t>Trauerkarte Manfred Ruckh</t>
+  </si>
+  <si>
+    <t>90er Geburtstag Fr. Tobe</t>
+  </si>
+  <si>
+    <t>Obst und Gartenbauverein 21.2.</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1091,37 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="349">
+  <dxfs count="356">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2873,6 +2933,11 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -5291,17 +5356,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="28">
+    <format dxfId="34">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5399,17 +5464,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="31">
+    <format dxfId="37">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6533,8 +6598,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6981,13 +7046,21 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="15">
+        <v>44001</v>
+      </c>
       <c r="B18" s="60">
         <v>15</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="17"/>
+      <c r="C18" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="17">
+        <v>350</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -6998,13 +7071,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="15">
+        <v>44001</v>
+      </c>
       <c r="B19" s="60">
         <v>16</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>198.04</v>
+      </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -7015,13 +7096,21 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="15">
+        <v>44001</v>
+      </c>
       <c r="B20" s="60">
         <v>17</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>218.24</v>
+      </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -7030,13 +7119,21 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="15">
+        <v>44001</v>
+      </c>
       <c r="B21" s="60">
         <v>18</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="17"/>
+      <c r="C21" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>132.63999999999999</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -7045,13 +7142,21 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="15">
+        <v>44001</v>
+      </c>
       <c r="B22" s="60">
         <v>19</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="17">
+        <v>36</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -7060,13 +7165,21 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="15">
+        <v>44001</v>
+      </c>
       <c r="B23" s="16">
         <v>20</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="17"/>
+      <c r="C23" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="17">
+        <v>30</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -7075,13 +7188,21 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="15">
+        <v>44001</v>
+      </c>
       <c r="B24" s="16">
         <v>21</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>90.1</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -7090,14 +7211,22 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="15">
+        <v>44001</v>
+      </c>
       <c r="B25" s="60">
         <v>22</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="57"/>
+      <c r="C25" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>28</v>
+      </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>230</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="19"/>
@@ -8290,11 +8419,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>1111.6899999999996</v>
+        <v>2166.7099999999996</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>13788.320000000009</v>
+        <v>14018.320000000009</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8333,11 +8462,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F171</f>
-        <v>14.129999999999654</v>
+        <v>15.529999999999745</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>7998.1000000000095</v>
+        <v>7859.4900000000098</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8375,7 +8504,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>11373.820000000007</v>
+        <v>11236.610000000008</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9175,641 +9304,641 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 D21:G21 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G16 G20 G27:G29 E22:G22 F23:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7 F18:G19 G17">
-    <cfRule type="cellIs" dxfId="348" priority="187" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G16 G20 G27:G29 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7 F18:G19 G17">
+    <cfRule type="cellIs" dxfId="355" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="347" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="354" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="346" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="353" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="345" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="352" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="344" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="351" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="343" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="350" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="342" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="349" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="341" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="348" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="340" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="347" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="339" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="346" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="338" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="345" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="337" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="344" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="336" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="335" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="334" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="331" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="337" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="332" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="330" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="cellIs" dxfId="329" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="328" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="327" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="326" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="325" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="324" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="323" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="322" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="321" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="320" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="319" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="318" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="317" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="316" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="315" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="314" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="313" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="312" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="311" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="310" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="309" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="308" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="307" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="306" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="305" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="304" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="303" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="302" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="301" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="300" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="299" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="298" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="297" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="296" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="295" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="294" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="293" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="292" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="291" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="290" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="289" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="288" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="287" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="286" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="285" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="284" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="283" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="282" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="281" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="280" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="279" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="278" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="277" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:E69">
+    <cfRule type="cellIs" dxfId="276" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="275" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="274" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="273" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="272" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="271" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="270" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="269" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="268" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="267" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="266" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="265" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="264" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="263" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="262" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="cellIs" dxfId="261" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="260" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="259" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="258" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="257" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="256" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="255" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="254" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="253" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="252" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="251" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:E90">
+    <cfRule type="cellIs" dxfId="250" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:D92">
+    <cfRule type="cellIs" dxfId="249" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="cellIs" dxfId="248" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="247" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="cellIs" dxfId="246" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:E96">
+    <cfRule type="cellIs" dxfId="245" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="244" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="243" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:D98">
+    <cfRule type="cellIs" dxfId="242" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="241" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="240" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="239" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="238" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="237" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="236" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="235" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="234" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="233" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="232" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="231" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="230" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="330" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="329" priority="114" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="328" priority="113" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="327" priority="112" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="326" priority="111" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="325" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="324" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="323" priority="108" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="322" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="321" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="320" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="319" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="318" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="317" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="316" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="315" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="314" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="313" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="312" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="311" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="310" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="309" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="308" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="307" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="306" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="305" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="304" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="303" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="302" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="301" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="300" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="299" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="298" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="297" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="296" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="295" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="294" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="293" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="292" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="291" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="290" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="289" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="288" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="287" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="286" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="285" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="284" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="283" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="282" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="281" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="280" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="279" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="278" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="277" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="276" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="275" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="274" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="273" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="272" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="271" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="270" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="269" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="268" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="267" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="266" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="265" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="264" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="263" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="262" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="261" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="260" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="259" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="258" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="257" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="256" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="255" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="254" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="253" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="252" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="251" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="250" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="249" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="248" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="247" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="246" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="245" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="244" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="243" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="242" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="241" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="240" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="239" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="238" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="237" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="236" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="235" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="234" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="233" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="232" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="231" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="230" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="229" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="228" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="227" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="226" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="225" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="224" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D22:D24 D53 D55 D57:D61 D18:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D57:D61 D53 D55">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D25:D31 D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D14 D16:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D14 D16:D31">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
@@ -9839,8 +9968,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11823,14 +11952,22 @@
     </row>
     <row r="58" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="15">
+        <v>43999</v>
+      </c>
       <c r="C58" s="60">
         <v>55</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="56"/>
+      <c r="D58" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+      <c r="G58" s="21">
+        <v>-18.61</v>
+      </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="22"/>
@@ -11840,13 +11977,21 @@
     </row>
     <row r="59" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
-      <c r="B59" s="43"/>
+      <c r="B59" s="43">
+        <v>44001</v>
+      </c>
       <c r="C59" s="60">
         <v>56</v>
       </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="20"/>
+      <c r="D59" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="20">
+        <v>-500</v>
+      </c>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
@@ -11857,14 +12002,22 @@
     </row>
     <row r="60" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="43">
+        <v>44001</v>
+      </c>
       <c r="C60" s="60">
         <v>57</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="23"/>
+      <c r="D60" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
+      <c r="G60" s="21">
+        <v>-350</v>
+      </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="22"/>
@@ -11874,13 +12027,21 @@
     </row>
     <row r="61" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="43">
+        <v>44001</v>
+      </c>
       <c r="C61" s="60">
         <v>58</v>
       </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="20"/>
+      <c r="D61" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="17">
+        <v>-115.74</v>
+      </c>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
@@ -12125,13 +12286,21 @@
     </row>
     <row r="62" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="43">
+        <v>44001</v>
+      </c>
       <c r="C62" s="60">
         <v>59</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="20"/>
+      <c r="D62" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="17">
+        <v>-98.84</v>
+      </c>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
@@ -12376,13 +12545,21 @@
     </row>
     <row r="63" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="43">
+        <v>44001</v>
+      </c>
       <c r="C63" s="60">
         <v>60</v>
       </c>
-      <c r="D63" s="55"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="20"/>
+      <c r="D63" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17">
+        <v>-34.04</v>
+      </c>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -12627,13 +12804,21 @@
     </row>
     <row r="64" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="43">
+        <v>44001</v>
+      </c>
       <c r="C64" s="60">
         <v>61</v>
       </c>
-      <c r="D64" s="55"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
+      <c r="D64" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="20">
+        <v>-50</v>
+      </c>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
@@ -12878,13 +13063,21 @@
     </row>
     <row r="65" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="43">
+        <v>44001</v>
+      </c>
       <c r="C65" s="61">
         <v>62</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
+      <c r="D65" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="20">
+        <v>-25</v>
+      </c>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
@@ -13129,13 +13322,21 @@
     </row>
     <row r="66" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="43">
+        <v>44001</v>
+      </c>
       <c r="C66" s="61">
         <v>63</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="20"/>
+      <c r="D66" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="20">
+        <v>-230</v>
+      </c>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
@@ -39480,11 +39681,11 @@
       <c r="E171" s="32"/>
       <c r="F171" s="33">
         <f>SUM(F3:F170)</f>
-        <v>-1097.56</v>
+        <v>-2151.1799999999998</v>
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-5790.2199999999993</v>
+        <v>-6158.829999999999</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -41417,962 +41618,977 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
-    <cfRule type="cellIs" dxfId="223" priority="332" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="341" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="222" priority="322" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="331" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="221" priority="284" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="293" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="220" priority="263" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="219" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="218" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="217" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="216" priority="234" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="215" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="214" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="213" priority="231" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="212" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="211" priority="229" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="210" priority="228" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="209" priority="227" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="236" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="208" priority="224" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="207" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="206" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="231" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="205" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="227" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="204" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="225" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="203" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="202" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="201" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="200" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="209" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="199" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="198" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="207" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="197" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="196" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="204" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="195" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="194" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="193" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="192" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="191" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="190" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="189" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="188" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="187" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="186" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="185" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="184" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="183" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="182" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="181" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="180" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="179" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="178" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="177" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="176" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="175" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="174" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="173" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="172" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="171" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="170" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="169" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="168" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="167" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="166" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="165" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="164" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="163" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="162" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="161" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="160" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="159" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="158" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="157" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="156" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="155" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="154" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="153" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="152" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="151" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:D112">
+    <cfRule type="cellIs" dxfId="150" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="149" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="148" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="147" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="146" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="145" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="144" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="143" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="142" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:D120">
+    <cfRule type="cellIs" dxfId="141" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="140" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="139" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="138" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="137" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="136" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="135" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="134" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="133" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="132" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="131" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="cellIs" dxfId="130" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="129" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:D129">
+    <cfRule type="cellIs" dxfId="128" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="127" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="126" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="125" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="124" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="123" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="122" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="121" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:C135">
+    <cfRule type="cellIs" dxfId="120" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="119" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="118" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="117" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="116" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="115" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="cellIs" dxfId="114" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="113" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="112" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="111" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="110" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="109" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="108" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="107" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="106" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="105" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="104" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147:E147">
+    <cfRule type="cellIs" dxfId="103" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:E149">
+    <cfRule type="cellIs" dxfId="102" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="101" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="100" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="99" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="98" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="97" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="96" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="95" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:D157">
+    <cfRule type="cellIs" dxfId="94" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="93" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158:E158">
+    <cfRule type="cellIs" dxfId="92" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="cellIs" dxfId="91" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="90" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="89" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="88" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="87" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="86" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="85" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E162">
+    <cfRule type="cellIs" dxfId="84" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="83" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="82" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="cellIs" dxfId="81" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="80" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="79" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="78" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="77" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="76" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="75" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="74" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="73" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="72" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="71" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="70" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="69" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="68" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="67" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="66" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="65" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="64" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="63" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="62" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="61" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="60" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="59" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="58" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="57" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="56" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="55" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="54" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="53" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="52" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="51" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="50" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="49" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="48" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="46" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="44" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="43" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="42" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="41" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="40" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="39" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="38" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="185" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="184" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="183" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="182" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="181" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="180" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="179" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="178" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="177" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="176" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="175" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="174" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="173" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="172" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="171" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="170" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="169" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="168" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="167" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="166" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="165" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="164" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="163" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="162" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="161" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="160" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="159" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="158" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="157" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="156" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="155" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="154" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="153" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="152" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="151" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="150" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="149" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="148" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="147" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="146" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="145" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="144" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="143" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="142" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="141" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="140" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="139" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="138" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="137" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="136" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="135" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112">
-    <cfRule type="cellIs" dxfId="134" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="133" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="132" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="131" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="130" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="129" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="128" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="127" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="126" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:D120">
-    <cfRule type="cellIs" dxfId="125" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="124" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="123" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="122" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="121" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="120" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="119" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="118" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="117" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="116" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="115" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="cellIs" dxfId="114" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="113" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:D129">
-    <cfRule type="cellIs" dxfId="112" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="111" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="110" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="109" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="108" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="107" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="106" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="105" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:C135">
-    <cfRule type="cellIs" dxfId="104" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="103" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="102" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="101" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="100" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="99" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="98" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="97" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="96" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="95" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="94" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="93" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="92" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="91" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="90" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="89" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="88" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:E147">
-    <cfRule type="cellIs" dxfId="87" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:E149">
-    <cfRule type="cellIs" dxfId="86" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="85" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="84" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="83" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="82" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="81" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="80" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="79" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="78" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="77" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="76" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="75" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="74" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="73" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="72" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="71" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="70" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="69" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="68" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="67" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="66" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="65" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="64" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="63" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="62" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="61" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="60" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="59" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="58" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="57" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="56" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="55" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="54" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="53" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="52" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="51" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="50" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="49" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="48" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="47" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="46" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="45" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="44" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="43" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="42" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="41" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="40" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="38" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="37" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="36" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="35" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="34" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="33" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="32" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="122">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>Obst und Gartenbauverein 21.2.</t>
+  </si>
+  <si>
+    <t>Awo Bundesverband</t>
+  </si>
+  <si>
+    <t>Miete Juli</t>
   </si>
 </sst>
 </file>
@@ -1091,87 +1097,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="356">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="343">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2938,6 +2864,21 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -5356,17 +5297,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="34">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5464,17 +5405,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="37">
+    <format dxfId="21">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -8466,7 +8407,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>7859.4900000000098</v>
+        <v>7387.7700000000104</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8504,7 +8445,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>11236.610000000008</v>
+        <v>10764.89000000001</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9305,632 +9246,632 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G16 G20 G27:G29 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7 F18:G19 G17">
-    <cfRule type="cellIs" dxfId="355" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="354" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="353" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="352" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="351" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="350" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="349" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="348" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="347" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="346" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="345" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="344" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="343" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="342" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="341" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="340" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="337" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="332" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="330" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="329" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="328" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="327" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="326" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="325" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="324" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="323" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="322" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="321" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="320" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="319" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="318" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="317" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="316" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="315" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="314" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="313" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="312" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="311" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="310" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="309" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="308" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="307" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="306" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="305" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="304" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="303" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="302" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="301" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="300" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="299" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="298" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="297" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="296" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="295" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="294" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="293" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="292" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="291" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="290" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="289" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="288" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="287" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="286" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="285" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="284" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="283" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="282" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="281" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="280" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="279" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="278" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="277" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="276" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="275" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="274" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="273" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="272" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="271" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="270" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="269" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="268" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="267" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="266" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="265" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="264" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="263" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="262" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="261" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="260" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="259" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="258" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="257" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="256" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="255" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="254" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="253" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="252" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="251" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="250" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="249" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="248" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="247" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="246" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="245" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="244" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="243" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="242" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="241" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="240" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="239" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="238" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="237" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="236" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="235" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="234" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="233" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="232" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="231" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="230" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9968,8 +9909,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13581,14 +13522,22 @@
     </row>
     <row r="67" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="15">
+        <v>44012</v>
+      </c>
       <c r="C67" s="61">
         <v>64</v>
       </c>
-      <c r="D67" s="55"/>
-      <c r="E67" s="41"/>
+      <c r="D67" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F67" s="20"/>
-      <c r="G67" s="21"/>
+      <c r="G67" s="21">
+        <v>-106.5</v>
+      </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="22"/>
@@ -13832,14 +13781,22 @@
     </row>
     <row r="68" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="15">
+        <v>44012</v>
+      </c>
       <c r="C68" s="61">
         <v>65</v>
       </c>
-      <c r="D68" s="55"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="21"/>
+      <c r="D68" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="21">
+        <v>-34</v>
+      </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="22"/>
@@ -14083,14 +14040,22 @@
     </row>
     <row r="69" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="15">
+        <v>44013</v>
+      </c>
       <c r="C69" s="61">
         <v>66</v>
       </c>
-      <c r="D69" s="55"/>
-      <c r="E69" s="41"/>
+      <c r="D69" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F69" s="20"/>
-      <c r="G69" s="21"/>
+      <c r="G69" s="21">
+        <v>-12</v>
+      </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="22"/>
@@ -14334,14 +14299,22 @@
     </row>
     <row r="70" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="15">
+        <v>44014</v>
+      </c>
       <c r="C70" s="61">
         <v>67</v>
       </c>
-      <c r="D70" s="55"/>
-      <c r="E70" s="56"/>
+      <c r="D70" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F70" s="20"/>
-      <c r="G70" s="21"/>
+      <c r="G70" s="21">
+        <v>-45</v>
+      </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="22"/>
@@ -14585,14 +14558,22 @@
     </row>
     <row r="71" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="15">
+        <v>44014</v>
+      </c>
       <c r="C71" s="61">
         <v>68</v>
       </c>
-      <c r="D71" s="55"/>
-      <c r="E71" s="56"/>
+      <c r="D71" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F71" s="20"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="21">
+        <v>-239</v>
+      </c>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="22"/>
@@ -14836,14 +14817,22 @@
     </row>
     <row r="72" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="15">
+        <v>44027</v>
+      </c>
       <c r="C72" s="61">
         <v>69</v>
       </c>
-      <c r="D72" s="55"/>
-      <c r="E72" s="56"/>
+      <c r="D72" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
+      <c r="G72" s="21">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H72" s="20"/>
       <c r="I72" s="21"/>
       <c r="J72" s="22"/>
@@ -15087,14 +15076,22 @@
     </row>
     <row r="73" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="15">
+        <v>44029</v>
+      </c>
       <c r="C73" s="60">
         <v>70</v>
       </c>
-      <c r="D73" s="55"/>
-      <c r="E73" s="41"/>
+      <c r="D73" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F73" s="20"/>
-      <c r="G73" s="21"/>
+      <c r="G73" s="21">
+        <v>-17.73</v>
+      </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="22"/>
@@ -39685,7 +39682,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-6158.829999999999</v>
+        <v>-6630.5499999999984</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -41618,988 +41615,993 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
-    <cfRule type="cellIs" dxfId="229" priority="341" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="228" priority="331" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="339" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="227" priority="293" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="301" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="226" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="225" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="260" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="224" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="223" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="222" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="221" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="220" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="219" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="218" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="217" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="246" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="216" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="215" priority="236" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="214" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="213" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="212" priority="231" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="211" priority="227" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="210" priority="225" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="209" priority="224" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="208" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="231" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="207" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="206" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="205" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="225" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="204" priority="207" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="203" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="202" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="212" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="187" priority="186" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="186" priority="185" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="185" priority="184" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="cellIs" dxfId="184" priority="183" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="178" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="177" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="176" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="175" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="174" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="173" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="172" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="171" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="170" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="169" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="168" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="167" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="166" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="165" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="164" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="163" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="162" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="161" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="160" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="159" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="158" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="157" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="156" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="155" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="154" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="153" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="152" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="151" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="150" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="149" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="148" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="147" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="146" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="145" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="144" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:D112">
+    <cfRule type="cellIs" dxfId="143" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="142" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="141" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="140" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="139" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="138" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="137" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="136" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="135" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:D120">
+    <cfRule type="cellIs" dxfId="134" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="133" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="132" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="131" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="130" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="129" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="128" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="127" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="126" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="125" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="124" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="cellIs" dxfId="123" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="122" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:D129">
+    <cfRule type="cellIs" dxfId="121" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="120" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="119" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="118" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="117" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="116" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="115" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="114" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:C135">
+    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="cellIs" dxfId="107" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="105" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="97" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147:E147">
+    <cfRule type="cellIs" dxfId="96" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:E149">
+    <cfRule type="cellIs" dxfId="95" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="94" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="93" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="92" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="91" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="90" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="89" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="88" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:D157">
+    <cfRule type="cellIs" dxfId="87" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="86" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158:E158">
+    <cfRule type="cellIs" dxfId="85" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="cellIs" dxfId="84" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="83" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="82" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="81" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="80" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="79" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="78" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E162">
+    <cfRule type="cellIs" dxfId="77" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="76" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="75" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="cellIs" dxfId="74" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="72" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="71" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="70" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="69" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="68" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="67" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="66" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="65" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="64" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="62" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="61" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="59" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="57" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="56" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="54" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="53" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="52" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="51" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="50" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="49" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="48" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="47" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="46" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="45" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="44" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="42" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="41" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="40" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="39" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="38" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="37" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="36" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="35" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="34" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="33" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="32" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="30" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="29" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="24" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="22" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="195" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="194" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="193" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="192" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="191" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="190" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="189" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="188" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="187" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="186" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="185" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="184" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="183" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="182" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="181" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="180" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="179" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="178" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="177" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="176" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="175" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="174" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="173" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="172" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="171" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="170" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="169" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="168" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="167" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="166" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="165" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="164" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="163" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="162" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="161" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="160" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="159" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="158" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="157" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="156" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="155" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="154" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="153" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="152" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="151" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112">
-    <cfRule type="cellIs" dxfId="150" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="149" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="148" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="147" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="146" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="145" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="144" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="143" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="142" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:D120">
-    <cfRule type="cellIs" dxfId="141" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="140" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="139" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="138" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="137" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="136" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="135" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="134" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="133" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="132" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="131" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="cellIs" dxfId="130" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="129" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:D129">
-    <cfRule type="cellIs" dxfId="128" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="127" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="126" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="125" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="124" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="123" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="122" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="121" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:C135">
-    <cfRule type="cellIs" dxfId="120" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="119" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="118" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="117" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="116" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="115" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="114" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="113" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="112" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="111" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="110" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="109" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="108" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="107" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="106" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="105" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="104" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:E147">
-    <cfRule type="cellIs" dxfId="103" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:E149">
-    <cfRule type="cellIs" dxfId="102" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="101" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="100" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="99" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="98" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="97" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="96" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="95" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="94" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="93" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="92" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="91" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="90" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="89" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="88" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="87" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="86" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="85" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="84" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="83" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="82" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="81" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="80" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="79" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="78" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="77" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="76" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="75" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="74" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="73" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="72" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="71" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="70" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="69" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="68" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="67" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="66" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="65" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="64" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="63" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="62" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="61" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="60" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="59" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="58" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="57" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="56" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="55" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="54" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="53" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="52" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="51" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="50" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="49" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="48" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="46" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="44" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="43" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="42" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="41" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="40" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="39" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="38" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="31" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="29" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E76:E87 E6:E8 E34:E45 E48:E50 E53:E55 E58:E74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E76:E87 E6:E8 E34:E45 E48:E50 E53:E55 E58:E69 E72:E74">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88:E90 E140:E144 E113:E114 E107">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57 E70:E71">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="127">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -394,6 +394,21 @@
   </si>
   <si>
     <t>Miete Juli</t>
+  </si>
+  <si>
+    <t>Awo Bund Rueckverteilung</t>
+  </si>
+  <si>
+    <t>Geburtstag Laich</t>
+  </si>
+  <si>
+    <t>Ausgaben Schriftführer</t>
+  </si>
+  <si>
+    <t>Miete Aug</t>
+  </si>
+  <si>
+    <t>Stadt Waldenbuch Corona Vereinsförderung</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1112,17 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="343">
+  <dxfs count="346">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2879,6 +2904,11 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -5297,17 +5327,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="18">
+    <format dxfId="20">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5405,17 +5435,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="21">
+    <format dxfId="23">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6538,9 +6568,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7175,14 +7205,22 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="15">
+        <v>44033</v>
+      </c>
       <c r="B26" s="60">
         <v>23</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="57"/>
+      <c r="C26" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>27</v>
+      </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18">
+        <v>1515.54</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="19"/>
@@ -7190,13 +7228,21 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="15">
+        <v>44036</v>
+      </c>
       <c r="B27" s="16">
         <v>24</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="17"/>
+      <c r="C27" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="17">
+        <v>25</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -7205,14 +7251,22 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="15">
+        <v>44063</v>
+      </c>
       <c r="B28" s="16">
         <v>25</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="63"/>
+      <c r="C28" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="F28" s="18">
+        <v>75</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
@@ -8360,11 +8414,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>2166.7099999999996</v>
+        <v>2191.7099999999996</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>14018.320000000009</v>
+        <v>15608.860000000008</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8407,7 +8461,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>7387.7700000000104</v>
+        <v>8514.4400000000096</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8445,7 +8499,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>10764.89000000001</v>
+        <v>11891.560000000009</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9246,632 +9300,642 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G16 G20 G27:G29 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7 F18:G19 G17">
-    <cfRule type="cellIs" dxfId="342" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="345" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="341" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="344" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="340" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="339" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="338" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="337" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="336" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="335" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="334" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="333" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="332" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="331" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="330" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="329" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="328" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="327" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="326" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="325" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="324" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" dxfId="323" priority="112" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="326" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="322" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="321" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="320" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="319" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="318" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="317" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="316" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="315" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="314" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="313" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="312" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="311" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="310" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="309" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="308" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="307" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="306" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="305" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="304" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="303" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="302" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="301" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="300" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="299" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="298" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="297" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="296" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="295" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="294" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="293" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="295" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="294" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="293" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
     <cfRule type="cellIs" dxfId="292" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="D48">
     <cfRule type="cellIs" dxfId="291" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="290" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="289" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="288" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="287" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="286" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="285" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="284" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="283" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="282" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="281" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="280" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="279" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="278" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="277" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="276" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="275" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="274" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="273" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="272" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="271" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="270" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="269" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="268" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="267" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="266" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="265" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="264" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="263" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="262" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="261" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="260" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="259" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="258" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="257" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="256" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="255" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="254" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="253" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="252" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="251" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="250" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="249" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="248" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="247" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="246" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="245" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="244" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="243" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="242" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="241" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="240" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="239" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="238" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="237" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="236" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="235" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="234" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="233" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="232" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="231" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="230" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="229" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="228" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="227" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="226" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="225" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="224" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="223" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="222" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="221" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="220" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="219" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="218" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="217" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9879,10 +9943,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46:D49 D42:D44 D32:D40 D83:D88 D71:D72 D67 D57:D61 D53 D55">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D14 D16:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45 D41 D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3 D5:D14 D16:D25 D27:D31">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56 D26">
       <formula1>$K$1:$K$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62:D65 D92 D98 D4 D15">
@@ -9908,9 +9972,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15335,14 +15399,22 @@
     </row>
     <row r="74" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="15">
+        <v>44036</v>
+      </c>
       <c r="C74" s="61">
         <v>71</v>
       </c>
-      <c r="D74" s="55"/>
-      <c r="E74" s="41"/>
+      <c r="D74" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="F74" s="20"/>
-      <c r="G74" s="21"/>
+      <c r="G74" s="21">
+        <v>-25</v>
+      </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="22"/>
@@ -15586,13 +15658,21 @@
     </row>
     <row r="75" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="15">
+        <v>44037</v>
+      </c>
       <c r="C75" s="60">
         <v>72</v>
       </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="20"/>
+      <c r="D75" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="20">
+        <v>-25</v>
+      </c>
       <c r="G75" s="21"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
@@ -15837,14 +15917,22 @@
     </row>
     <row r="76" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="15">
+        <v>44039</v>
+      </c>
       <c r="C76" s="60">
         <v>73</v>
       </c>
-      <c r="D76" s="55"/>
-      <c r="E76" s="41"/>
+      <c r="D76" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F76" s="20"/>
-      <c r="G76" s="21"/>
+      <c r="G76" s="21">
+        <v>-124.73</v>
+      </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
@@ -16088,14 +16176,22 @@
     </row>
     <row r="77" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
-      <c r="B77" s="43"/>
+      <c r="B77" s="43">
+        <v>44047</v>
+      </c>
       <c r="C77" s="60">
         <v>74</v>
       </c>
-      <c r="D77" s="55"/>
-      <c r="E77" s="23"/>
+      <c r="D77" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F77" s="20"/>
-      <c r="G77" s="21"/>
+      <c r="G77" s="21">
+        <v>-45</v>
+      </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="22"/>
@@ -16339,14 +16435,22 @@
     </row>
     <row r="78" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
-      <c r="B78" s="43"/>
+      <c r="B78" s="43">
+        <v>44047</v>
+      </c>
       <c r="C78" s="60">
         <v>75</v>
       </c>
-      <c r="D78" s="55"/>
-      <c r="E78" s="23"/>
+      <c r="D78" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F78" s="20"/>
-      <c r="G78" s="21"/>
+      <c r="G78" s="21">
+        <v>-239</v>
+      </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="22"/>
@@ -16590,14 +16694,22 @@
     </row>
     <row r="79" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="15">
+        <v>44049</v>
+      </c>
       <c r="C79" s="61">
         <v>76</v>
       </c>
-      <c r="D79" s="40"/>
-      <c r="E79" s="19"/>
+      <c r="D79" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F79" s="20"/>
-      <c r="G79" s="21"/>
+      <c r="G79" s="21">
+        <v>-12</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="22"/>
@@ -16841,14 +16953,22 @@
     </row>
     <row r="80" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="15">
+        <v>44061</v>
+      </c>
       <c r="C80" s="60">
         <v>77</v>
       </c>
-      <c r="D80" s="55"/>
-      <c r="E80" s="56"/>
+      <c r="D80" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F80" s="20"/>
-      <c r="G80" s="21"/>
+      <c r="G80" s="21">
+        <v>-18.14</v>
+      </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="22"/>
@@ -39678,11 +39798,11 @@
       <c r="E171" s="32"/>
       <c r="F171" s="33">
         <f>SUM(F3:F170)</f>
-        <v>-2151.1799999999998</v>
+        <v>-2176.1799999999998</v>
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-6630.5499999999984</v>
+        <v>-7094.4199999999983</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -41615,993 +41735,998 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
-    <cfRule type="cellIs" dxfId="216" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="356" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="215" priority="339" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="214" priority="301" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="308" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="213" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="287" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="212" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
+    <cfRule type="cellIs" dxfId="214" priority="264" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="213" priority="260" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="212" priority="258" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" dxfId="211" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="210" priority="253" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="209" priority="251" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="208" priority="250" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="207" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="206" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="205" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="204" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="203" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="202" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="201" priority="241" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="203" priority="247" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="202" priority="246" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="201" priority="242" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="cellIs" dxfId="200" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="199" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="198" priority="235" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="197" priority="233" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="196" priority="232" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="195" priority="231" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="194" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="193" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="192" priority="225" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="191" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="190" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="189" priority="212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="187" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="186" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="185" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="184" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="181" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="180" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="179" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="178" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="177" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="176" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="175" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="174" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="173" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="172" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="171" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="170" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="169" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="168" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="167" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="166" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="165" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="164" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="163" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="162" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="161" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="160" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="159" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="158" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="157" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="156" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="155" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="154" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="153" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:D112">
+    <cfRule type="cellIs" dxfId="152" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="151" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="150" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="149" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="148" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="147" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="146" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="145" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="144" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:D120">
+    <cfRule type="cellIs" dxfId="143" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="142" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="141" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="140" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="139" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="138" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="137" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="136" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="135" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="134" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="133" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="cellIs" dxfId="132" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="131" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:D129">
+    <cfRule type="cellIs" dxfId="130" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="129" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="128" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="127" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="126" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="125" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="124" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="123" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:C135">
+    <cfRule type="cellIs" dxfId="122" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="121" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="120" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="119" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="118" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="117" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="cellIs" dxfId="116" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="115" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="114" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="113" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="112" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="111" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="110" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="109" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="108" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="107" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="106" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147:E147">
+    <cfRule type="cellIs" dxfId="105" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:E149">
+    <cfRule type="cellIs" dxfId="104" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="103" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="102" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="101" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="100" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="99" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="98" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="97" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:D157">
+    <cfRule type="cellIs" dxfId="96" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="95" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158:E158">
+    <cfRule type="cellIs" dxfId="94" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="cellIs" dxfId="93" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="92" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="91" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="90" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="89" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="88" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="87" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E162">
+    <cfRule type="cellIs" dxfId="86" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="85" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="84" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="cellIs" dxfId="83" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="82" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="81" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="80" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="79" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="78" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="77" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="76" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="75" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="74" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="73" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="72" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="71" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="70" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="69" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="68" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="67" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="66" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="64" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="63" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="62" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="61" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="60" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="59" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="58" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="57" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="56" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="55" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="54" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="53" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="52" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="51" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="50" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="49" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="48" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="47" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="46" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="45" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="44" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="43" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="42" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="41" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="40" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="39" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="38" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="37" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="36" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="35" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="34" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="cellIs" dxfId="32" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="31" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="cellIs" dxfId="30" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="29" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="28" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="26" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="25" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="24" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="178" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="177" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="176" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="175" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="174" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="173" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="172" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="171" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="170" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="169" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="168" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="167" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="166" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="165" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="164" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="163" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="162" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="161" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="160" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="159" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="158" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="157" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="156" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="155" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="154" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="153" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="152" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="151" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="150" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="149" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="148" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="147" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="146" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="145" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="144" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112">
-    <cfRule type="cellIs" dxfId="143" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="142" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="141" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="140" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="139" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="138" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="137" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="136" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="135" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:D120">
-    <cfRule type="cellIs" dxfId="134" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="133" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="132" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="131" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="130" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="129" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="128" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="127" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="126" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="125" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="124" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="cellIs" dxfId="123" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="122" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:D129">
-    <cfRule type="cellIs" dxfId="121" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="120" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="119" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="118" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="117" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="116" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="115" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="114" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:C135">
-    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="107" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="105" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="97" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:E147">
-    <cfRule type="cellIs" dxfId="96" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:E149">
-    <cfRule type="cellIs" dxfId="95" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="94" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="93" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="92" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="91" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="90" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="89" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="88" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="87" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="86" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="85" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="84" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="83" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="82" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="81" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="80" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="79" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="78" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="77" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="76" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="75" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="74" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="72" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="71" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="70" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="69" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="68" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="67" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="66" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="65" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="64" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="63" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="62" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="61" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="59" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="57" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="56" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="54" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="53" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="52" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="51" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="50" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="49" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="48" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="47" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="46" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="45" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="44" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="42" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="41" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="40" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="39" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="38" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="37" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="36" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="35" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="34" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="33" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="32" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="30" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="29" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="28" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="26" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="24" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="22" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E76:E87 E6:E8 E34:E45 E48:E50 E53:E55 E58:E69 E72:E74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E6:E8 E34:E45 E48:E50 E53:E55 E58:E69 E72:E76 E79:E87">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88:E90 E140:E144 E113:E114 E107">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57 E70:E71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57 E70:E71 E77:E78">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="129">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>Stadt Waldenbuch Corona Vereinsförderung</t>
+  </si>
+  <si>
+    <t>Trauerkarte Fr.Walcher</t>
+  </si>
+  <si>
+    <t>Miete Sept</t>
   </si>
 </sst>
 </file>
@@ -1112,47 +1118,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="346">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="341">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1298,6 +1264,21 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5327,17 +5308,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="20">
+    <format dxfId="12">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5435,17 +5416,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="23">
+    <format dxfId="15">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6568,9 +6549,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8457,11 +8438,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F171</f>
-        <v>15.529999999999745</v>
+        <v>-9.4700000000002547</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>8514.4400000000096</v>
+        <v>8199.4000000000087</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8499,7 +8480,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>11891.560000000009</v>
+        <v>11551.520000000008</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9300,642 +9281,642 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G16 G20 G27:G29 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7 F18:G19 G17">
-    <cfRule type="cellIs" dxfId="345" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="344" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="343" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="342" priority="188" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="188" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="341" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="340" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="339" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="338" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="337" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="336" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="335" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="330" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="334" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="333" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="332" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="331" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="330" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="329" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="328" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="327" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="326" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="325" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="324" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="323" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="322" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="321" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="320" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="319" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="318" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="317" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="316" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="315" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="314" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="313" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="312" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="311" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="310" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="309" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="308" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="307" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="306" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="305" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="304" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="303" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="302" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="301" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="300" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="299" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="298" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="297" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="296" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="295" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="294" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="293" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="292" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="291" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="290" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="289" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="288" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="287" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="286" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="285" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="284" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="283" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="282" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="281" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="280" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="279" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="278" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="277" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="276" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="275" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="274" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="273" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="272" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="271" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="270" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="269" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="268" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="267" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="266" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="265" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="264" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="263" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="262" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="261" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="260" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="259" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="258" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="257" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="256" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="255" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="254" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="253" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="252" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="251" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="250" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="249" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="248" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="247" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="246" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="245" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="244" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="243" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="242" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="241" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="240" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="239" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="238" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="237" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="236" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="235" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="234" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="233" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="232" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="231" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="230" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="229" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="228" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="227" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="226" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="225" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="224" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="223" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="222" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="221" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="220" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9972,9 +9953,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17212,13 +17193,21 @@
     </row>
     <row r="81" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="15">
+        <v>44045</v>
+      </c>
       <c r="C81" s="60">
         <v>78</v>
       </c>
-      <c r="D81" s="55"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="20"/>
+      <c r="D81" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="20">
+        <v>-25</v>
+      </c>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
@@ -17463,14 +17452,22 @@
     </row>
     <row r="82" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="15">
+        <v>44076</v>
+      </c>
       <c r="C82" s="60">
         <v>79</v>
       </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="41"/>
+      <c r="D82" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F82" s="20"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="21">
+        <v>-12</v>
+      </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
@@ -17714,14 +17711,22 @@
     </row>
     <row r="83" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
-      <c r="B83" s="43"/>
+      <c r="B83" s="15">
+        <v>44076</v>
+      </c>
       <c r="C83" s="60">
         <v>80</v>
       </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="23"/>
+      <c r="D83" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F83" s="20"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="21">
+        <v>-45</v>
+      </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
@@ -17965,14 +17970,22 @@
     </row>
     <row r="84" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
-      <c r="B84" s="43"/>
+      <c r="B84" s="15">
+        <v>44076</v>
+      </c>
       <c r="C84" s="60">
         <v>81</v>
       </c>
-      <c r="D84" s="55"/>
-      <c r="E84" s="56"/>
+      <c r="D84" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E84" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F84" s="20"/>
-      <c r="G84" s="21"/>
+      <c r="G84" s="21">
+        <v>-239</v>
+      </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="22"/>
@@ -18216,14 +18229,22 @@
     </row>
     <row r="85" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
-      <c r="B85" s="43"/>
+      <c r="B85" s="43">
+        <v>44090</v>
+      </c>
       <c r="C85" s="60">
         <v>82</v>
       </c>
-      <c r="D85" s="55"/>
-      <c r="E85" s="56"/>
+      <c r="D85" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F85" s="20"/>
-      <c r="G85" s="21"/>
+      <c r="G85" s="21">
+        <v>-19.04</v>
+      </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="22"/>
@@ -39798,11 +39819,11 @@
       <c r="E171" s="32"/>
       <c r="F171" s="33">
         <f>SUM(F3:F170)</f>
-        <v>-2176.1799999999998</v>
+        <v>-2201.1799999999998</v>
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-7094.4199999999983</v>
+        <v>-7409.4599999999982</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -41735,998 +41756,998 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
-    <cfRule type="cellIs" dxfId="219" priority="356" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="361" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="218" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="217" priority="308" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="313" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="216" priority="287" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="215" priority="267" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="214" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="269" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="213" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="212" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="211" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="210" priority="256" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="209" priority="255" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="260" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="208" priority="254" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="259" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="207" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="206" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="205" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="204" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="203" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="202" priority="246" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="251" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="201" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="200" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="199" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="198" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="197" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="196" priority="224" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="229" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="195" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="194" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="227" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="193" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="225" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="192" priority="219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="224" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="191" priority="193" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="190" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="189" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="188" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="195" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="179" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="174" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="173" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="172" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="171" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="170" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="169" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="168" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="167" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="166" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="165" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="164" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="163" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="162" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="161" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="160" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="159" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="158" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="157" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="156" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="155" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="154" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="153" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="152" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:D112">
+    <cfRule type="cellIs" dxfId="151" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="150" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="149" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="148" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="147" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="146" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="145" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="144" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="143" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:D120">
+    <cfRule type="cellIs" dxfId="142" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="141" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="140" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="139" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="138" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="137" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="136" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="135" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="134" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="133" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="132" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="cellIs" dxfId="131" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="130" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:D129">
+    <cfRule type="cellIs" dxfId="129" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="128" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="126" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="125" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="124" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="123" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="122" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:C135">
+    <cfRule type="cellIs" dxfId="121" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="120" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="119" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="118" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="117" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="116" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="cellIs" dxfId="115" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="114" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="113" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="112" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="111" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="110" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="109" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="108" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="107" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="106" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147:E147">
+    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:E149">
+    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:D157">
+    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158:E158">
+    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="cellIs" dxfId="92" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="89" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E162">
+    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="77" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="72" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="69" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="59" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="55" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="54" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="53" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="52" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="51" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="50" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="49" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="48" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="47" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="45" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="44" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="42" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="41" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="40" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="39" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="38" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="37" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="30" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="cellIs" dxfId="29" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="28" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="25" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="181" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="180" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="179" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="178" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="177" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="176" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="175" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="174" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="173" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="172" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="171" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="170" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="169" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="168" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="167" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="166" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="165" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="164" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="163" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="162" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="161" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="160" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="159" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="158" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="157" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="156" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="155" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="154" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="153" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112">
-    <cfRule type="cellIs" dxfId="152" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="151" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="150" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="149" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="148" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="147" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="146" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="145" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="144" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:D120">
-    <cfRule type="cellIs" dxfId="143" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="142" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="141" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="140" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="139" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="138" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="137" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="136" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="135" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="134" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="133" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="cellIs" dxfId="132" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="131" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:D129">
-    <cfRule type="cellIs" dxfId="130" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="129" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="128" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="127" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="126" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="125" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="124" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="123" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:C135">
-    <cfRule type="cellIs" dxfId="122" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="121" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="120" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="119" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="118" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="117" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="116" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="115" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="114" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="113" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="112" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="111" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="110" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="109" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="108" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="107" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="106" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:E147">
-    <cfRule type="cellIs" dxfId="105" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:E149">
-    <cfRule type="cellIs" dxfId="104" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="103" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="102" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="101" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="100" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="99" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="98" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="97" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="96" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="95" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="94" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="93" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="92" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="91" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="90" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="89" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="88" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="87" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="86" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="85" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="84" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="83" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="82" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="81" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="80" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="79" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="78" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="77" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="76" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="75" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="74" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="73" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="72" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="71" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="70" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="69" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="68" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="67" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="66" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="64" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="63" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="62" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="61" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="60" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="59" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="58" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="57" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="56" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="55" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="54" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="53" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="52" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="51" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="50" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="49" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="48" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="47" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="46" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="45" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="44" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="43" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="42" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="41" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="40" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="39" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="38" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="37" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="36" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="35" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="34" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="33" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="32" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="31" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="30" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="29" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="28" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="27" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="26" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="25" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="24" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E6:E8 E34:E45 E48:E50 E53:E55 E58:E69 E72:E76 E79:E87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E6:E8 E34:E45 E48:E50 E53:E55 E58:E69 E72:E76 E79:E82 E85:E87">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88:E90 E140:E144 E113:E114 E107">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57 E70:E71 E77:E78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57 E70:E71 E77:E78 E83:E84">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="131">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>Miete Sept</t>
+  </si>
+  <si>
+    <t>Miete Okt</t>
+  </si>
+  <si>
+    <t>Mitgliederzeitung</t>
   </si>
 </sst>
 </file>
@@ -6549,8 +6555,8 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -8442,7 +8448,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>8199.4000000000087</v>
+        <v>7720.4000000000096</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8480,7 +8486,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>11551.520000000008</v>
+        <v>11072.520000000008</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9953,9 +9959,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18488,14 +18494,22 @@
     </row>
     <row r="86" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
-      <c r="B86" s="43"/>
+      <c r="B86" s="43">
+        <v>44104</v>
+      </c>
       <c r="C86" s="60">
         <v>83</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="21"/>
+      <c r="D86" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="21">
+        <v>-34</v>
+      </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="22"/>
@@ -18739,14 +18753,22 @@
     </row>
     <row r="87" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
-      <c r="B87" s="43"/>
+      <c r="B87" s="43">
+        <v>44105</v>
+      </c>
       <c r="C87" s="60">
         <v>84</v>
       </c>
-      <c r="D87" s="55"/>
-      <c r="E87" s="56"/>
+      <c r="D87" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F87" s="20"/>
-      <c r="G87" s="21"/>
+      <c r="G87" s="21">
+        <v>-12</v>
+      </c>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="22"/>
@@ -18990,14 +19012,22 @@
     </row>
     <row r="88" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="15">
+        <v>44106</v>
+      </c>
       <c r="C88" s="16">
         <v>85</v>
       </c>
-      <c r="D88" s="55"/>
-      <c r="E88" s="41"/>
+      <c r="D88" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F88" s="20"/>
-      <c r="G88" s="21"/>
+      <c r="G88" s="21">
+        <v>-45</v>
+      </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="22"/>
@@ -19241,14 +19271,22 @@
     </row>
     <row r="89" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="15">
+        <v>44106</v>
+      </c>
       <c r="C89" s="16">
         <v>86</v>
       </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="41"/>
+      <c r="D89" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F89" s="20"/>
-      <c r="G89" s="21"/>
+      <c r="G89" s="21">
+        <v>-239</v>
+      </c>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="22"/>
@@ -19492,14 +19530,22 @@
     </row>
     <row r="90" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="15">
+        <v>44109</v>
+      </c>
       <c r="C90" s="16">
         <v>87</v>
       </c>
-      <c r="D90" s="55"/>
-      <c r="E90" s="41"/>
+      <c r="D90" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" s="41" t="s">
+        <v>14</v>
+      </c>
       <c r="F90" s="20"/>
-      <c r="G90" s="21"/>
+      <c r="G90" s="21">
+        <v>-149</v>
+      </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="22"/>
@@ -39823,7 +39869,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-7409.4599999999982</v>
+        <v>-7888.4599999999982</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -41756,986 +41802,991 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
-    <cfRule type="cellIs" dxfId="212" priority="361" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="366" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="211" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="356" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="210" priority="313" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="318" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="209" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="297" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="208" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="277" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="207" priority="269" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="206" priority="265" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="270" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="205" priority="263" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="204" priority="262" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="203" priority="261" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="202" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="265" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="201" priority="259" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="200" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="199" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="198" priority="256" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="197" priority="253" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="258" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="196" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="195" priority="251" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="194" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="193" priority="245" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="192" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="249" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="191" priority="243" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="248" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="190" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="189" priority="229" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="188" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="187" priority="227" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="186" priority="225" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="185" priority="224" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="229" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="184" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="183" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="182" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="181" priority="195" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="179" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="175" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="174" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="173" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="172" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="171" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="170" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="169" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="168" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="167" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="166" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="165" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="164" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="163" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="162" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="161" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="160" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="159" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="158" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="157" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:D112">
+    <cfRule type="cellIs" dxfId="156" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="155" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="154" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="153" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="152" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="151" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="150" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="149" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="148" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:D120">
+    <cfRule type="cellIs" dxfId="147" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="146" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="145" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="144" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="143" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="142" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="141" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="140" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="139" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="138" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="137" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="cellIs" dxfId="136" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="135" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:D129">
+    <cfRule type="cellIs" dxfId="134" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="133" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="132" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="131" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="130" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="129" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="128" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:C135">
+    <cfRule type="cellIs" dxfId="126" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="125" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="124" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="123" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="122" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="121" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="cellIs" dxfId="120" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="119" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="118" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="117" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="116" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="115" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="114" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="113" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="112" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="111" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="110" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147:E147">
+    <cfRule type="cellIs" dxfId="109" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:E149">
+    <cfRule type="cellIs" dxfId="108" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="107" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="106" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="101" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:D157">
+    <cfRule type="cellIs" dxfId="100" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="99" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158:E158">
+    <cfRule type="cellIs" dxfId="98" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="cellIs" dxfId="97" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="93" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="92" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E162">
+    <cfRule type="cellIs" dxfId="90" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="77" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="74" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="68" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="59" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="57" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="56" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="55" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="54" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="53" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="52" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="51" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="50" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="49" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="48" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="47" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="45" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="44" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="42" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="41" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="40" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="39" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="38" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="37" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="30" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="28" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="27" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="174" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="173" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="172" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="171" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="170" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="169" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="168" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="167" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="166" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="165" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="164" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="163" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="162" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="161" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="160" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="159" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="158" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="157" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="156" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="155" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="154" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="153" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="152" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112">
-    <cfRule type="cellIs" dxfId="151" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="150" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="149" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="148" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="147" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="146" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="145" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="144" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="143" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:D120">
-    <cfRule type="cellIs" dxfId="142" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="141" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="140" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="139" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="138" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="137" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="136" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="135" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="134" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="133" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="132" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="cellIs" dxfId="131" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="130" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:D129">
-    <cfRule type="cellIs" dxfId="129" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="128" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="126" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="125" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="124" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="123" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="122" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:C135">
-    <cfRule type="cellIs" dxfId="121" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="120" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="119" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="118" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="117" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="116" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="115" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="114" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="113" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="112" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="111" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="110" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="109" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="108" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="107" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="106" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:E147">
-    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:E149">
-    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="92" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="89" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="77" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="72" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="69" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="68" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="67" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="65" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="64" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="59" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="55" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="54" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="53" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="52" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="51" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="50" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="49" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="48" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="47" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="45" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="44" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="42" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="41" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="40" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="39" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="38" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="37" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="30" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="29" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="28" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="25" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -42744,10 +42795,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E6:E8 E34:E45 E48:E50 E53:E55 E58:E69 E72:E76 E79:E82 E85:E87">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88:E90 E140:E144 E113:E114 E107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E107 E140:E144 E113:E114 E90">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57 E70:E71 E77:E78 E83:E84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57 E70:E71 E77:E78 E83:E84 E88:E89">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="132">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Mitgliederzeitung</t>
+  </si>
+  <si>
+    <t>Miete Nov</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1127,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="341">
+  <dxfs count="346">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1270,6 +1293,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5314,17 +5342,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="12">
+    <format dxfId="16">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5422,17 +5450,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="15">
+    <format dxfId="19">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6555,9 +6583,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7261,13 +7289,21 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
+      <c r="A29" s="43">
+        <v>44132</v>
+      </c>
       <c r="B29" s="16">
         <v>26</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="17"/>
+      <c r="C29" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="17">
+        <v>60</v>
+      </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -8401,7 +8437,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>2191.7099999999996</v>
+        <v>2251.7099999999996</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -8444,11 +8480,11 @@
       <c r="D107" s="52"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F171</f>
-        <v>-9.4700000000002547</v>
+        <v>50.529999999999745</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>7720.4000000000096</v>
+        <v>7329.3000000000102</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8486,7 +8522,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>11072.520000000008</v>
+        <v>10741.420000000009</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9287,642 +9323,647 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G16 G20 G27:G29 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7 F18:G19 G17">
-    <cfRule type="cellIs" dxfId="340" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="345" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="339" priority="194" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="344" priority="196" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="342" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="341" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="340" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="339" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="cellIs" dxfId="338" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="cellIs" dxfId="337" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="336" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="335" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="334" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="cellIs" dxfId="333" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="332" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="331" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="330" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="329" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="328" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="cellIs" dxfId="327" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="326" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="325" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="324" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="323" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="322" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:E31">
+    <cfRule type="cellIs" dxfId="321" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="cellIs" dxfId="320" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="319" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="318" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="317" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="316" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="315" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="314" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="313" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="312" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="311" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="310" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="309" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="308" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="307" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="306" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41">
+    <cfRule type="cellIs" dxfId="305" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="304" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="cellIs" dxfId="303" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="302" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="301" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="300" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="299" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="298" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="297" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="296" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="295" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="294" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" dxfId="293" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="292" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="291" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="290" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="289" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="288" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="287" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="cellIs" dxfId="286" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="285" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="284" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="283" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="cellIs" dxfId="282" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="281" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="280" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="279" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="cellIs" dxfId="278" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" dxfId="277" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="cellIs" dxfId="276" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="cellIs" dxfId="275" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="274" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:E69">
+    <cfRule type="cellIs" dxfId="273" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="272" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="cellIs" dxfId="271" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="270" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="cellIs" dxfId="269" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="268" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="cellIs" dxfId="267" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="266" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="cellIs" dxfId="265" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="264" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="cellIs" dxfId="263" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="262" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="cellIs" dxfId="261" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="260" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="259" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="cellIs" dxfId="258" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="257" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="cellIs" dxfId="256" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="255" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="254" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="253" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="cellIs" dxfId="252" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="251" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="250" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="249" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="cellIs" dxfId="248" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:E90">
+    <cfRule type="cellIs" dxfId="247" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:D92">
+    <cfRule type="cellIs" dxfId="246" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="cellIs" dxfId="245" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="244" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="cellIs" dxfId="243" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96:E96">
+    <cfRule type="cellIs" dxfId="242" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="241" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="cellIs" dxfId="240" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:D98">
+    <cfRule type="cellIs" dxfId="239" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="238" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="237" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="236" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="235" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="234" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="233" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="232" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="231" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="230" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="229" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="228" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="227" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="226" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="225" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="224" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="223" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="cellIs" dxfId="222" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="cellIs" dxfId="221" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="cellIs" dxfId="220" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="219" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="218" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="338" priority="193" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="337" priority="188" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="336" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="335" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="334" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="333" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="332" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="331" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="330" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="329" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="328" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="327" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="326" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="325" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="324" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="323" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="322" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="321" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="320" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="319" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="318" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="317" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="316" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="315" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="314" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="313" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="312" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="311" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="310" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="309" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="308" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="307" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="306" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="305" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="304" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="303" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="302" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="301" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="300" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="299" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="298" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="297" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="296" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="295" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="294" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="293" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="292" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="291" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="290" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="289" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="288" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="287" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="286" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="285" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="284" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="283" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="282" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="281" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="280" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="279" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="278" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="cellIs" dxfId="277" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="276" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="275" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="274" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="cellIs" dxfId="273" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="272" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="271" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="270" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="269" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="268" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="267" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="266" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="265" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="264" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="263" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="262" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="261" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="260" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="259" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="258" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="257" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="256" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="255" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="254" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="253" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="252" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="251" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="250" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="249" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="248" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="247" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="246" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="245" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="244" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="243" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="242" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="241" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="240" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="239" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="238" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="237" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="236" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="235" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="234" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="233" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="232" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="231" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="230" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="229" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="228" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="227" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="226" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="225" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="224" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="223" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="222" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="221" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="220" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="219" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="218" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:E22">
-    <cfRule type="cellIs" dxfId="217" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="cellIs" dxfId="216" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="215" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="214" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="213" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9959,9 +10000,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19789,14 +19830,22 @@
     </row>
     <row r="91" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="15">
+        <v>44119</v>
+      </c>
       <c r="C91" s="61">
         <v>88</v>
       </c>
-      <c r="D91" s="40"/>
-      <c r="E91" s="19"/>
+      <c r="D91" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F91" s="20"/>
-      <c r="G91" s="21"/>
+      <c r="G91" s="21">
+        <v>-17.489999999999998</v>
+      </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="22"/>
@@ -20040,14 +20089,22 @@
     </row>
     <row r="92" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="15">
+        <v>44120</v>
+      </c>
       <c r="C92" s="60">
         <v>89</v>
       </c>
-      <c r="D92" s="55"/>
-      <c r="E92" s="41"/>
+      <c r="D92" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="F92" s="20"/>
-      <c r="G92" s="21"/>
+      <c r="G92" s="21">
+        <v>-17.61</v>
+      </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="22"/>
@@ -20291,14 +20348,22 @@
     </row>
     <row r="93" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="15">
+        <v>44132</v>
+      </c>
       <c r="C93" s="60">
         <v>90</v>
       </c>
-      <c r="D93" s="55"/>
-      <c r="E93" s="56"/>
+      <c r="D93" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="56" t="s">
+        <v>28</v>
+      </c>
       <c r="F93" s="20"/>
-      <c r="G93" s="21"/>
+      <c r="G93" s="21">
+        <v>-60</v>
+      </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="22"/>
@@ -20542,14 +20607,22 @@
     </row>
     <row r="94" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="15">
+        <v>44138</v>
+      </c>
       <c r="C94" s="60">
         <v>91</v>
       </c>
-      <c r="D94" s="55"/>
-      <c r="E94" s="56"/>
+      <c r="D94" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F94" s="20"/>
-      <c r="G94" s="21"/>
+      <c r="G94" s="21">
+        <v>-45</v>
+      </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
       <c r="J94" s="22"/>
@@ -20793,14 +20866,22 @@
     </row>
     <row r="95" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="15">
+        <v>44138</v>
+      </c>
       <c r="C95" s="60">
         <v>92</v>
       </c>
-      <c r="D95" s="55"/>
-      <c r="E95" s="23"/>
+      <c r="D95" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="F95" s="20"/>
-      <c r="G95" s="21"/>
+      <c r="G95" s="21">
+        <v>-239</v>
+      </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="22"/>
@@ -21044,14 +21125,22 @@
     </row>
     <row r="96" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="15">
+        <v>44140</v>
+      </c>
       <c r="C96" s="60">
         <v>93</v>
       </c>
-      <c r="D96" s="40"/>
-      <c r="E96" s="53"/>
+      <c r="D96" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="F96" s="20"/>
-      <c r="G96" s="21"/>
+      <c r="G96" s="21">
+        <v>-12</v>
+      </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="22"/>
@@ -39869,7 +39958,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-7888.4599999999982</v>
+        <v>-8279.5599999999977</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -41802,1003 +41891,1008 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 A3:A54 A86:A236 C111:D111 D127:E127 B128 C124:D124 E12 E18 A56:A84 C127:C128 D133:E133 D128 B130:D130 B134 C133:C134 D134 B139:E139 C145:E145 C148:E148 B150:E151 D154:E154 D153 B153:C155 D163:E163 D155 B165:B237 C163:C236 D165:E172 D164">
-    <cfRule type="cellIs" dxfId="212" priority="366" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="371" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="211" priority="356" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="361" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="210" priority="318" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="323" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="209" priority="297" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="cellIs" dxfId="208" priority="277" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="282" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="207" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="206" priority="270" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="275" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="210" priority="273" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="209" priority="272" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="208" priority="271" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="207" priority="270" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="206" priority="269" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
     <cfRule type="cellIs" dxfId="205" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="F15">
     <cfRule type="cellIs" dxfId="204" priority="267" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" dxfId="203" priority="266" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="202" priority="265" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="201" priority="264" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="200" priority="263" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="199" priority="262" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="198" priority="261" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="197" priority="258" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="263" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="196" priority="257" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="262" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="195" priority="256" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="261" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="194" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="257" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="193" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="255" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="192" priority="249" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="254" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="191" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="253" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="190" priority="247" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="189" priority="234" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="188" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="247" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="187" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" dxfId="186" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="185" priority="229" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="234" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="184" priority="203" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="183" priority="202" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="207" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="182" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="181" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="205" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="184" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="182" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="179" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="178" priority="175" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="177" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="176" priority="173" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="175" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="174" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="173" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="172" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="171" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="170" priority="167" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="169" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="168" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="167" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="166" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:D112">
+    <cfRule type="cellIs" dxfId="165" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="164" priority="161" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="163" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="162" priority="159" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="161" priority="157" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="160" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="159" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="158" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="157" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:D120">
+    <cfRule type="cellIs" dxfId="156" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="155" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="154" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="153" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B123">
+    <cfRule type="cellIs" dxfId="152" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B124">
+    <cfRule type="cellIs" dxfId="151" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="150" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="149" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="148" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B125">
+    <cfRule type="cellIs" dxfId="147" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126">
+    <cfRule type="cellIs" dxfId="146" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127">
+    <cfRule type="cellIs" dxfId="145" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="144" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:D129">
+    <cfRule type="cellIs" dxfId="143" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="cellIs" dxfId="142" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="cellIs" dxfId="141" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="cellIs" dxfId="140" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="139" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="138" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="137" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="136" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135:C135">
+    <cfRule type="cellIs" dxfId="135" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="134" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="cellIs" dxfId="133" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="132" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="131" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="cellIs" dxfId="130" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="cellIs" dxfId="129" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140">
+    <cfRule type="cellIs" dxfId="128" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="127" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="126" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
+    <cfRule type="cellIs" dxfId="125" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142">
+    <cfRule type="cellIs" dxfId="124" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F143">
+    <cfRule type="cellIs" dxfId="123" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E143">
+    <cfRule type="cellIs" dxfId="122" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="121" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="cellIs" dxfId="120" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:E146">
+    <cfRule type="cellIs" dxfId="119" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147:E147">
+    <cfRule type="cellIs" dxfId="118" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:E149">
+    <cfRule type="cellIs" dxfId="117" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="116" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="115" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="114" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E153">
+    <cfRule type="cellIs" dxfId="113" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="cellIs" dxfId="112" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
+    <cfRule type="cellIs" dxfId="111" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E156">
+    <cfRule type="cellIs" dxfId="110" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:D157">
+    <cfRule type="cellIs" dxfId="109" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="108" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158:E158">
+    <cfRule type="cellIs" dxfId="107" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158">
+    <cfRule type="cellIs" dxfId="106" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="105" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="104" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160">
+    <cfRule type="cellIs" dxfId="103" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="102" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="101" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E161">
+    <cfRule type="cellIs" dxfId="100" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E162">
+    <cfRule type="cellIs" dxfId="99" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="98" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163">
+    <cfRule type="cellIs" dxfId="97" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B164">
+    <cfRule type="cellIs" dxfId="96" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="95" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="94" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="cellIs" dxfId="93" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="92" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="91" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="90" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="89" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="88" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="87" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" dxfId="86" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="85" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="84" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="83" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="82" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="81" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="80" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="79" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="78" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="77" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="76" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="75" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="74" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="73" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="72" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="71" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="70" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="69" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="68" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="67" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="66" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="65" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="64" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="63" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="62" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="61" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="60" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="59" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="58" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="57" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="56" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="55" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="54" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="53" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="52" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="51" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="50" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="49" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="48" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="47" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="46" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="cellIs" dxfId="45" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="44" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="42" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="41" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="40" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="39" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="38" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="36" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="35" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="33" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="31" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="21" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="180" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="175" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="174" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="173" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="172" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="171" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="170" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="169" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="168" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="167" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="166" priority="167" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="165" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="164" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="163" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="162" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="161" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="160" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="159" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="158" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="157" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112">
-    <cfRule type="cellIs" dxfId="156" priority="157" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="155" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="154" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="153" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="152" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="151" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="150" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="149" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="148" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120:D120">
-    <cfRule type="cellIs" dxfId="147" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="146" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="145" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="144" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="cellIs" dxfId="143" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="142" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="141" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="140" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="139" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="cellIs" dxfId="138" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="cellIs" dxfId="137" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="cellIs" dxfId="136" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="135" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129:D129">
-    <cfRule type="cellIs" dxfId="134" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="cellIs" dxfId="133" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="cellIs" dxfId="132" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="cellIs" dxfId="131" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="130" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="129" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="128" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:C135">
-    <cfRule type="cellIs" dxfId="126" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="125" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="124" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="123" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="122" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="121" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="120" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
-    <cfRule type="cellIs" dxfId="119" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="118" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="117" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="116" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
-    <cfRule type="cellIs" dxfId="115" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="114" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
-    <cfRule type="cellIs" dxfId="113" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="112" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="cellIs" dxfId="111" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:E146">
-    <cfRule type="cellIs" dxfId="110" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:E147">
-    <cfRule type="cellIs" dxfId="109" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:E149">
-    <cfRule type="cellIs" dxfId="108" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="107" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="106" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
-    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="cellIs" dxfId="101" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="100" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="99" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="98" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="97" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="96" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="95" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="94" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="93" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="92" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="91" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="90" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="89" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="88" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="87" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="85" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="cellIs" dxfId="84" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="83" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="81" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="79" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="78" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="77" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="76" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="75" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="74" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="73" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="72" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="71" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="69" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="68" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="59" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="57" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="56" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="55" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="54" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="53" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="52" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="51" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="50" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="49" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="48" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="47" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="45" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="44" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="42" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="41" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="40" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="39" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="38" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="37" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="30" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="28" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="27" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E97:E106 E91:E95 E6:E8 E34:E45 E48:E50 E53:E55 E58:E69 E72:E76 E79:E82 E85:E87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E116:E121 E145:E170 E22:E31 E10:E19 E133:E139 E123:E131 E108:E112 E96:E106 E85:E87 E6:E8 E34:E45 E48:E50 E53:E55 E58:E69 E72:E76 E79:E82 E91:E93">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E107 E140:E144 E113:E114 E90">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57 E70:E71 E77:E78 E83:E84 E88:E89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E32:E33 E20:E21 E3:E5 E46:E47 E51:E52 E56:E57 E70:E71 E77:E78 E83:E84 E88:E89 E94:E95">
       <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/AWO_Einnahmen_Ausgaben_2020.xlsx
+++ b/AWO_Einnahmen_Ausgaben_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="139">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -424,6 +424,27 @@
   </si>
   <si>
     <t>Miete Nov</t>
+  </si>
+  <si>
+    <t>Fr. Laich 80er</t>
+  </si>
+  <si>
+    <t>Fr. Heidenreich Trauerkarte</t>
+  </si>
+  <si>
+    <t>Fr. Rapp 90er</t>
+  </si>
+  <si>
+    <t>Miete Dez</t>
+  </si>
+  <si>
+    <t>Trauerfeier Alex Pfurtscheller</t>
+  </si>
+  <si>
+    <t>Trauerfeier Alex, Anteil Kreis</t>
+  </si>
+  <si>
+    <t>Wasser Abrechnung</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1148,37 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="346">
+  <dxfs count="354">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1293,6 +1344,16 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5342,17 +5403,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="16">
+    <format dxfId="22">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5450,17 +5511,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="19">
+    <format dxfId="25">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6583,9 +6644,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29:E29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7312,14 +7373,22 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="43">
+        <v>44174</v>
+      </c>
       <c r="B30" s="16">
         <v>27</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="18">
+        <v>209.73</v>
+      </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
@@ -7327,14 +7396,22 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="43">
+        <v>44174</v>
+      </c>
       <c r="B31" s="16">
         <v>28</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="18">
+        <v>115</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
@@ -8441,7 +8518,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>15608.860000000008</v>
+        <v>15933.590000000007</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8484,7 +8561,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>7329.3000000000102</v>
+        <v>6487.4500000000098</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8522,7 +8599,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>10741.420000000009</v>
+        <v>9899.5700000000106</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9323,647 +9400,652 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 H4:I104 E32:G33 G35 G54:G57 G50 F51:G53 F58:G58 E59:G60 D66:G66 F8:G10 E11:G11 F12:G16 G20 G27:G29 F21:G26 F30:G31 F34:G34 F36:G41 F43:G43 G42 F45:G49 G44 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 G4:G7 F18:G19 G17">
-    <cfRule type="cellIs" dxfId="345" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="353" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="344" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="352" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" dxfId="342" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="351" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="341" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="350" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="340" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="349" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="339" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="348" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8">
-    <cfRule type="cellIs" dxfId="338" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="347" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="337" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="346" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="336" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="345" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="335" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="344" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="334" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="333" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="332" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="341" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="331" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="340" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="330" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="329" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="338" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="328" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="337" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="cellIs" dxfId="327" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="336" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="326" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="335" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="325" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="334" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="324" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="333" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="323" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="332" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="322" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="331" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:E31">
-    <cfRule type="cellIs" dxfId="321" priority="111" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="330" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="320" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="329" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="319" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="328" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="318" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="327" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="317" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="326" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="316" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="315" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="314" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="313" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="312" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="311" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="310" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="309" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="308" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="307" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="306" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:E41">
-    <cfRule type="cellIs" dxfId="305" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="304" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="cellIs" dxfId="303" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="311" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="310" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" dxfId="309" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="cellIs" dxfId="308" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:E45">
+    <cfRule type="cellIs" dxfId="307" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="306" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="305" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="304" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="303" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="cellIs" dxfId="302" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="cellIs" dxfId="301" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="300" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="299" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:E45">
-    <cfRule type="cellIs" dxfId="298" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="297" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="296" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="295" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="294" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" dxfId="293" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="292" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="291" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="290" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="289" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="cellIs" dxfId="288" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="cellIs" dxfId="287" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="286" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="285" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="284" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cel